--- a/Data/Ant Farm/ImageJ_Analysis.xlsx
+++ b/Data/Ant Farm/ImageJ_Analysis.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\Desktop\MARINE DESSERTATION\github\Z.noltiiXinfauna\Data\Ant Farm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Checklist" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ImageJ" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Metadata" sheetId="3" r:id="rId6"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="ImageJ" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
   <si>
     <t>Time Series</t>
   </si>
@@ -429,45 +437,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -477,7 +490,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -493,98 +506,83 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -774,20 +772,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,7 +808,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,7 +817,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -825,7 +826,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -834,7 +835,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +844,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -852,7 +853,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,7 +862,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +871,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +880,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,7 +889,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,7 +898,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -906,7 +907,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -915,7 +916,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -924,7 +925,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -933,7 +934,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -942,7 +943,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -951,7 +952,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,7 +961,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -969,7 +970,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -978,7 +979,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -987,7 +988,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -996,7 +997,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1015,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1033,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1042,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1060,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1096,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1114,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1123,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1141,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1168,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1231,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1249,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1258,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1276,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1303,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1312,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1330,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1339,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1348,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,25 +1383,28 @@
       <c r="C66" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.5"/>
-    <col customWidth="1" min="20" max="20" width="59.25"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="20" max="20" width="59.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1471,12 +1475,12 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -1485,29 +1489,29 @@
         <v>39</v>
       </c>
       <c r="D3" s="1">
-        <v>15.479</v>
+        <v>15.478999999999999</v>
       </c>
       <c r="E3" s="1">
         <v>15.035</v>
       </c>
       <c r="F3" s="1">
-        <v>19.092</v>
+        <v>19.091999999999999</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G8" si="1">AVERAGE(D3:F3)</f>
-        <v>16.53533333</v>
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(D3:F3)</f>
+        <v>16.53533333333333</v>
       </c>
       <c r="I3" s="1">
-        <v>17.745</v>
+        <v>17.745000000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>93.156</v>
+        <v>93.156000000000006</v>
       </c>
       <c r="K3" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1515,22 +1519,22 @@
         <v>13.506</v>
       </c>
       <c r="P3" s="1">
-        <v>742.0</v>
+        <v>742</v>
       </c>
       <c r="Q3" s="1">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="R3" s="1">
-        <v>175.544</v>
+        <v>175.54400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>2.219</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>40</v>
@@ -1539,49 +1543,49 @@
         <v>39</v>
       </c>
       <c r="D4" s="12">
-        <v>16.187</v>
+        <v>16.187000000000001</v>
       </c>
       <c r="E4" s="12">
-        <v>15.796</v>
+        <v>15.795999999999999</v>
       </c>
       <c r="F4" s="12">
-        <v>21.143</v>
+        <v>21.143000000000001</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" si="1"/>
-        <v>17.70866667</v>
+        <f t="shared" si="0"/>
+        <v>17.708666666666669</v>
       </c>
       <c r="H4" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12">
-        <v>19.248</v>
+        <v>19.248000000000001</v>
       </c>
       <c r="J4" s="12">
-        <v>63.443</v>
+        <v>63.442999999999998</v>
       </c>
       <c r="K4" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12">
-        <v>15.162</v>
+        <v>15.162000000000001</v>
       </c>
       <c r="P4" s="12">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="Q4" s="12">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="R4" s="12">
         <v>176.63</v>
       </c>
       <c r="S4" s="12">
-        <v>2.276</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="14"/>
@@ -1600,9 +1604,9 @@
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -1614,29 +1618,29 @@
         <v>14.504</v>
       </c>
       <c r="E5" s="1">
-        <v>15.309</v>
+        <v>15.308999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>18.014</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="1"/>
-        <v>15.94233333</v>
+        <f t="shared" si="0"/>
+        <v>15.942333333333332</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>18.95</v>
       </c>
       <c r="J5" s="1">
-        <v>85.051</v>
+        <v>85.051000000000002</v>
       </c>
       <c r="K5" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="L5" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1644,22 +1648,22 @@
         <v>15.14</v>
       </c>
       <c r="P5" s="1">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="Q5" s="1">
-        <v>1693.0</v>
+        <v>1693</v>
       </c>
       <c r="R5" s="1">
-        <v>176.704</v>
+        <v>176.70400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>2.259</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -1671,52 +1675,52 @@
         <v>43</v>
       </c>
       <c r="E6" s="1">
-        <v>14.015</v>
+        <v>14.015000000000001</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="1"/>
-        <v>14.015</v>
+        <f t="shared" si="0"/>
+        <v>14.015000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>2.345</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>96.042</v>
+        <v>96.042000000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1">
-        <v>3.565</v>
+        <v>3.5649999999999999</v>
       </c>
       <c r="P6" s="1">
-        <v>2234.0</v>
+        <v>2234</v>
       </c>
       <c r="Q6" s="1">
-        <v>1634.0</v>
+        <v>1634</v>
       </c>
       <c r="R6" s="1">
         <v>3.24</v>
       </c>
       <c r="S6" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
@@ -1734,34 +1738,34 @@
         <v>43</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.028</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>2.316</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>71.836</v>
+        <v>71.835999999999999</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
-        <v>3.561</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="P7" s="1">
-        <v>2226.0</v>
+        <v>2226</v>
       </c>
       <c r="Q7" s="1">
-        <v>1631.0</v>
+        <v>1631</v>
       </c>
       <c r="R7" s="1">
         <v>18.14</v>
@@ -1771,9 +1775,9 @@
       </c>
       <c r="T7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -1791,44 +1795,44 @@
         <v>43</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.698</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>2.283</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>85.172</v>
+        <v>85.171999999999997</v>
       </c>
       <c r="K8" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
-        <v>3.538</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="P8" s="1">
-        <v>2244.0</v>
+        <v>2244</v>
       </c>
       <c r="Q8" s="1">
-        <v>1633.0</v>
+        <v>1633</v>
       </c>
       <c r="R8" s="1">
         <v>18.619</v>
       </c>
       <c r="S8" s="1">
-        <v>1.656</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="T8" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1849,33 +1853,33 @@
       </c>
       <c r="T10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="S12" s="10">
         <f>STDEV(S3:S5)</f>
-        <v>0.02926317367</v>
+        <v>2.926317367158477E-2</v>
       </c>
       <c r="T12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S13" s="10">
         <f>_xlfn.STDEV.S(S3:S5)/SQRT(COUNT(S3:S5))</f>
-        <v>0.0168951012</v>
+        <v>1.6895101196632237E-2</v>
       </c>
       <c r="T13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S14" s="10">
         <f>(S13/AVERAGE(S3:S5))*100</f>
-        <v>0.7504486762</v>
+        <v>0.75044867619035704</v>
       </c>
       <c r="T14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1884,70 +1888,70 @@
       </c>
       <c r="G15" s="10">
         <f>STDEV(G3:G5)</f>
-        <v>0.8989154164</v>
+        <v>0.89891541644691475</v>
       </c>
       <c r="I15" s="10">
         <f>STDEV(I3:I5)</f>
-        <v>0.795805462</v>
+        <v>0.79580546199013547</v>
       </c>
       <c r="O15" s="10">
         <f>STDEV(O3:O5)</f>
-        <v>0.9498048922</v>
+        <v>0.94980489224541997</v>
       </c>
       <c r="T15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="10">
         <f>_xlfn.STDEV.S(G3:G5)/SQRT(COUNT(G3:G5))</f>
-        <v>0.5189890577</v>
+        <v>0.51898905766433079</v>
       </c>
       <c r="I16" s="10">
         <f>_xlfn.STDEV.S(I3:I5)/SQRT(COUNT(I3:I5))</f>
-        <v>0.4594584977</v>
+        <v>0.45945849770257924</v>
       </c>
       <c r="O16" s="10">
         <f>_xlfn.STDEV.S(O3:O5)/SQRT(COUNT(O3:O5))</f>
-        <v>0.5483701102</v>
+        <v>0.54837011021551674</v>
       </c>
       <c r="S16" s="10">
         <f>STDEV(S6:S8)</f>
-        <v>4.239194617</v>
+        <v>4.239194616905432</v>
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="10">
         <f>(G16/AVERAGE(G3:G5))*100</f>
-        <v>3.102372837</v>
+        <v>3.1023728365484482</v>
       </c>
       <c r="I17" s="10">
         <f>(I16/AVERAGE(I3:I5))*100</f>
-        <v>2.4638927</v>
+        <v>2.4638926999047919</v>
       </c>
       <c r="O17" s="10">
         <f>(O16/AVERAGE(O3:O5))*100</f>
-        <v>3.755273764</v>
+        <v>3.7552737642589262</v>
       </c>
       <c r="S17" s="10">
         <f>_xlfn.STDEV.S(S6:S8)/SQRT(COUNT(S6:S8))</f>
-        <v>2.447500153</v>
+        <v>2.4475001532175638</v>
       </c>
       <c r="T17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S18" s="10">
         <f>(S17/AVERAGE(S6:S8))*100</f>
-        <v>59.62241543</v>
+        <v>59.622415425519208</v>
       </c>
       <c r="T18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1956,105 +1960,105 @@
       </c>
       <c r="G19" s="10">
         <f>STDEV(G6:G8)</f>
-        <v>0.1868858832</v>
+        <v>0.18688588318365129</v>
       </c>
       <c r="I19" s="10">
         <f>STDEV(I6:I8)</f>
-        <v>0.03102149792</v>
+        <v>3.1021497922140085E-2</v>
       </c>
       <c r="O19" s="10">
         <f>STDEV(O6:O8)</f>
-        <v>0.014571662</v>
+        <v>1.4571661996263006E-2</v>
       </c>
       <c r="T19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="10">
         <f>_xlfn.STDEV.S(G6:G8)/SQRT(COUNT(G6:G8))</f>
-        <v>0.107898615</v>
+        <v>0.10789861496382204</v>
       </c>
       <c r="I20" s="10">
         <f>_xlfn.STDEV.S(I6:I8)/SQRT(COUNT(I6:I8))</f>
-        <v>0.01791027018</v>
+        <v>1.7910270176012995E-2</v>
       </c>
       <c r="O20" s="10">
         <f>_xlfn.STDEV.S(O6:O8)/SQRT(COUNT(O6:O8))</f>
-        <v>0.008412952976</v>
+        <v>8.4129529760826865E-3</v>
       </c>
       <c r="T20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="10">
         <f>(G20/AVERAGE(G6:G8))*100</f>
-        <v>0.7754865597</v>
+        <v>0.77548655971698366</v>
       </c>
       <c r="I21" s="10">
         <f>(I20/AVERAGE(I6:I8))*100</f>
-        <v>0.7737731931</v>
+        <v>0.7737731930881192</v>
       </c>
       <c r="O21" s="10">
         <f>(O20/AVERAGE(O6:O8))*100</f>
-        <v>0.2366734708</v>
+        <v>0.23667347082003057</v>
       </c>
       <c r="T21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S23" s="10">
         <f>AVERAGE(S18,S14)</f>
-        <v>30.18643205</v>
+        <v>30.186432050854783</v>
       </c>
       <c r="T23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="10">
         <f>AVERAGE(G21,G17)</f>
-        <v>1.938929698</v>
+        <v>1.938929698132716</v>
       </c>
       <c r="I26" s="10">
         <f>AVERAGE(I21,I17)</f>
-        <v>1.618832946</v>
+        <v>1.6188329464964555</v>
       </c>
       <c r="O26" s="10">
         <f>AVERAGE(O21,O17)</f>
-        <v>1.995973618</v>
+        <v>1.9959736175394784</v>
       </c>
       <c r="T26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F27" s="7">
         <f>AVERAGE(G17,G21,I17,I21,O17,S14,S18)</f>
-        <v>10.17766617</v>
+        <v>10.177666165032406</v>
       </c>
       <c r="T27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -2116,2372 +2120,2371 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="16">
-        <v>45876.0</v>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45876</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>43</v>
+      <c r="E32" s="1">
+        <v>14.015000000000001</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>43</v>
+      <c r="G32" s="10">
+        <f t="shared" ref="G32" si="1">AVERAGE(D32:F32)</f>
+        <v>14.015000000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>96.042000000000002</v>
+      </c>
+      <c r="K32" s="1">
+        <v>23</v>
+      </c>
+      <c r="L32" s="1">
+        <v>147</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="1">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2234</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1634</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="S32" s="1">
+        <v>9</v>
+      </c>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>45876</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15.478999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15.035</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19.091999999999999</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" ref="G33" si="2">AVERAGE(D33:F33)</f>
+        <v>16.53533333333333</v>
+      </c>
+      <c r="I33" s="1">
+        <v>17.745000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>93.156000000000006</v>
+      </c>
+      <c r="K33" s="1">
+        <v>26</v>
+      </c>
+      <c r="L33" s="1">
+        <v>132</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
+        <v>13.506</v>
+      </c>
+      <c r="P33" s="1">
+        <v>742</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1715</v>
+      </c>
+      <c r="R33" s="1">
+        <v>175.54400000000001</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>45876</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="16">
-        <v>45876.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
-        <v>13.691</v>
-      </c>
-      <c r="E33" s="1">
-        <v>13.926</v>
-      </c>
-      <c r="F33" s="1">
-        <v>13.691</v>
-      </c>
-      <c r="G33" s="10">
-        <f>AVERAGE(D33,E33,F33)</f>
-        <v>13.76933333</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4.559</v>
-      </c>
-      <c r="J33" s="1">
-        <v>110.522</v>
-      </c>
-      <c r="K33" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>253.0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>13.845</v>
-      </c>
-      <c r="N33" s="1">
-        <v>12.522</v>
-      </c>
-      <c r="O33" s="1">
-        <v>9.042</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1375.0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1904.0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>2.912</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1.288</v>
-      </c>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="16">
-        <v>45876.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1">
-        <v>16.849</v>
-      </c>
-      <c r="E34" s="1">
-        <v>13.212</v>
-      </c>
-      <c r="F34" s="1">
-        <v>15.818</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" ref="G34:G48" si="2">AVERAGE(D34:F34)</f>
-        <v>15.293</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="T34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1">
-        <v>14.5</v>
+        <v>13.691000000000001</v>
       </c>
       <c r="E35" s="1">
-        <v>14.1</v>
+        <v>13.926</v>
       </c>
       <c r="F35" s="1">
-        <v>14.05</v>
+        <v>13.691000000000001</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="2"/>
-        <v>14.21666667</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>43</v>
+        <f>AVERAGE(D35,E35,F35)</f>
+        <v>13.769333333333334</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="J35" s="1">
+        <v>110.52200000000001</v>
+      </c>
+      <c r="K35" s="1">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1">
+        <v>253</v>
+      </c>
+      <c r="M35" s="1">
+        <v>13.845000000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <v>12.522</v>
+      </c>
+      <c r="O35" s="1">
+        <v>9.0419999999999998</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1375</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1904</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1.288</v>
       </c>
       <c r="T35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>45907.0</v>
+        <v>45876</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1">
-        <v>13.067</v>
+        <v>16.849</v>
       </c>
       <c r="E36" s="1">
-        <v>13.576</v>
+        <v>13.212</v>
       </c>
       <c r="F36" s="1">
-        <v>14.898</v>
+        <v>15.818</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="2"/>
-        <v>13.847</v>
+        <f t="shared" ref="G36:G50" si="3">AVERAGE(D36:F36)</f>
+        <v>15.292999999999999</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <v>45907.0</v>
+        <v>45876</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1">
-        <v>15.442</v>
+        <v>14.5</v>
       </c>
       <c r="E37" s="1">
-        <v>14.822</v>
+        <v>14.1</v>
       </c>
       <c r="F37" s="1">
-        <v>17.426</v>
+        <v>14.05</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="2"/>
-        <v>15.89666667</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.727</v>
-      </c>
-      <c r="J37" s="1">
-        <v>85.597</v>
-      </c>
-      <c r="K37" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>185.0</v>
-      </c>
-      <c r="O37" s="18">
-        <v>2.113</v>
-      </c>
-      <c r="P37" s="18">
-        <v>1817.0</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>1600.0</v>
-      </c>
-      <c r="R37" s="18">
-        <v>11.64</v>
-      </c>
-      <c r="S37" s="18">
-        <v>0.589</v>
+        <f t="shared" si="3"/>
+        <v>14.216666666666669</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>45876.0</v>
+        <v>45907</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" s="1">
-        <v>15.263</v>
+        <v>13.067</v>
       </c>
       <c r="E38" s="1">
-        <v>14.122</v>
+        <v>13.576000000000001</v>
       </c>
       <c r="F38" s="1">
-        <v>14.281</v>
+        <v>14.898</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="2"/>
-        <v>14.55533333</v>
+        <f t="shared" si="3"/>
+        <v>13.847</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T38" s="8"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1">
-        <v>15.429</v>
+        <v>15.442</v>
       </c>
       <c r="E39" s="1">
-        <v>17.714</v>
+        <v>14.821999999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>15.492</v>
+        <v>17.425999999999998</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="2"/>
-        <v>16.21166667</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>15.896666666666667</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J39" s="1">
+        <v>85.596999999999994</v>
+      </c>
+      <c r="K39" s="1">
+        <v>85</v>
+      </c>
+      <c r="L39" s="1">
+        <v>185</v>
+      </c>
+      <c r="O39" s="18">
+        <v>2.113</v>
+      </c>
+      <c r="P39" s="18">
+        <v>1817</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>1600</v>
+      </c>
+      <c r="R39" s="18">
+        <v>11.64</v>
+      </c>
+      <c r="S39" s="18">
+        <v>0.58899999999999997</v>
       </c>
       <c r="T39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <v>45876.0</v>
+        <v>45876</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1">
-        <v>16.183</v>
+        <v>15.263</v>
       </c>
       <c r="E40" s="1">
-        <v>17.577</v>
+        <v>14.122</v>
       </c>
       <c r="F40" s="1">
-        <v>16.865</v>
+        <v>14.281000000000001</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="2"/>
-        <v>16.875</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="10">
-        <v>3.476</v>
-      </c>
-      <c r="J40" s="1">
-        <v>101.925</v>
-      </c>
-      <c r="K40" s="10">
-        <v>204.0</v>
-      </c>
-      <c r="L40" s="10">
-        <v>404.0</v>
-      </c>
-      <c r="O40" s="10">
-        <v>9.187999999999999</v>
-      </c>
-      <c r="P40" s="10">
-        <v>1284.0</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>5727.0</v>
-      </c>
-      <c r="R40" s="10">
-        <v>359.87</v>
-      </c>
-      <c r="S40" s="10">
-        <v>1.846</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41">
+        <f t="shared" si="3"/>
+        <v>14.555333333333332</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D41" s="1">
-        <v>15.61</v>
+        <v>15.429</v>
       </c>
       <c r="E41" s="1">
-        <v>13.138</v>
+        <v>17.713999999999999</v>
       </c>
       <c r="F41" s="1">
-        <v>12.553</v>
+        <v>15.492000000000001</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="2"/>
-        <v>13.767</v>
+        <f t="shared" si="3"/>
+        <v>16.21166666666667</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <v>45907.0</v>
+        <v>45876</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16.183</v>
+      </c>
+      <c r="E42" s="1">
+        <v>17.577000000000002</v>
+      </c>
+      <c r="F42" s="1">
+        <v>16.864999999999998</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="3"/>
+        <v>16.875</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>3.476</v>
+      </c>
+      <c r="J42" s="1">
+        <v>101.925</v>
+      </c>
+      <c r="K42" s="10">
+        <v>204</v>
+      </c>
+      <c r="L42" s="10">
+        <v>404</v>
+      </c>
+      <c r="O42" s="10">
+        <v>9.1879999999999988</v>
+      </c>
+      <c r="P42" s="10">
+        <v>1284</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>5727</v>
+      </c>
+      <c r="R42" s="10">
+        <v>359.87</v>
+      </c>
+      <c r="S42" s="10">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>45907</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15.61</v>
+      </c>
+      <c r="E43" s="1">
+        <v>13.138</v>
+      </c>
+      <c r="F43" s="1">
+        <v>12.553000000000001</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="3"/>
+        <v>13.767000000000001</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1">
-        <v>16.768</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="10">
-        <f t="shared" si="2"/>
-        <v>16.768</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16">
-        <v>45907.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="1">
-        <v>13.538</v>
-      </c>
-      <c r="E43" s="1">
-        <v>13.596</v>
-      </c>
-      <c r="F43" s="1">
-        <v>13.289</v>
-      </c>
-      <c r="G43" s="10">
-        <f t="shared" si="2"/>
-        <v>13.47433333</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="10">
-        <v>2.324</v>
-      </c>
-      <c r="J43" s="10">
-        <v>107.91833333333334</v>
-      </c>
-      <c r="K43" s="10">
-        <v>266.0</v>
-      </c>
-      <c r="L43" s="10">
-        <v>394.0</v>
-      </c>
-      <c r="O43" s="10">
-        <v>9.822</v>
-      </c>
-      <c r="P43" s="10">
-        <v>3150.0</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>5082.0</v>
-      </c>
-      <c r="R43" s="10">
-        <v>354.14</v>
-      </c>
-      <c r="S43" s="10">
-        <v>1.403</v>
-      </c>
-      <c r="T43" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1">
-        <v>16.839</v>
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E44" s="1">
-        <v>16.581</v>
-      </c>
-      <c r="F44" s="1">
-        <v>16.253</v>
+        <v>16.768000000000001</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="2"/>
-        <v>16.55766667</v>
+        <f t="shared" si="3"/>
+        <v>16.768000000000001</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1">
-        <v>16.756</v>
+        <v>13.538</v>
       </c>
       <c r="E45" s="1">
-        <v>17.071</v>
+        <v>13.596</v>
       </c>
       <c r="F45" s="1">
-        <v>17.701</v>
+        <v>13.289</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="2"/>
-        <v>17.176</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T45" s="8"/>
-    </row>
-    <row r="46">
+        <f t="shared" si="3"/>
+        <v>13.474333333333334</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="J45" s="10">
+        <v>107.91833333333334</v>
+      </c>
+      <c r="K45" s="10">
+        <v>266</v>
+      </c>
+      <c r="L45" s="10">
+        <v>394</v>
+      </c>
+      <c r="O45" s="10">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="P45" s="10">
+        <v>3150</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>5082</v>
+      </c>
+      <c r="R45" s="10">
+        <v>354.14</v>
+      </c>
+      <c r="S45" s="10">
+        <v>1.403</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1">
-        <v>17.03</v>
+        <v>16.838999999999999</v>
       </c>
       <c r="E46" s="1">
-        <v>16.667</v>
+        <v>16.581</v>
       </c>
       <c r="F46" s="1">
-        <v>17.636</v>
+        <v>16.253</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="2"/>
-        <v>17.111</v>
+        <f t="shared" si="3"/>
+        <v>16.557666666666666</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T46" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
-        <v>17.085</v>
+        <v>16.756</v>
       </c>
       <c r="E47" s="1">
-        <v>16.434</v>
+        <v>17.071000000000002</v>
       </c>
       <c r="F47" s="1">
-        <v>16.908</v>
+        <v>17.701000000000001</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="2"/>
-        <v>16.809</v>
+        <f t="shared" si="3"/>
+        <v>17.175999999999998</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T47" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1">
-        <v>17.612</v>
+        <v>17.03</v>
       </c>
       <c r="E48" s="1">
-        <v>17.488</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="F48" s="1">
-        <v>17.674</v>
+        <v>17.635999999999999</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="2"/>
-        <v>17.59133333</v>
+        <f t="shared" si="3"/>
+        <v>17.111000000000001</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1">
-        <v>16.998</v>
+        <v>17.085000000000001</v>
       </c>
       <c r="E49" s="1">
-        <v>17.542</v>
+        <v>16.434000000000001</v>
       </c>
       <c r="F49" s="1">
-        <v>18.165</v>
+        <v>16.908000000000001</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" ref="G49:G55" si="3">AVERAGE(D49,E49,F49)</f>
-        <v>17.56833333</v>
+        <f t="shared" si="3"/>
+        <v>16.809000000000001</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50">
+      <c r="T49" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1">
-        <v>15.64</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="E50" s="1">
-        <v>17.41</v>
+        <v>17.488</v>
       </c>
       <c r="F50" s="1">
-        <v>15.711</v>
+        <v>17.673999999999999</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="3"/>
-        <v>16.25366667</v>
-      </c>
-      <c r="I50" s="10">
-        <v>1.471</v>
-      </c>
-      <c r="J50" s="10">
+        <v>17.591333333333331</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>45907</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="1">
+        <v>16.998000000000001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>17.542000000000002</v>
+      </c>
+      <c r="F51" s="1">
+        <v>18.164999999999999</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" ref="G51:G57" si="4">AVERAGE(D51,E51,F51)</f>
+        <v>17.568333333333335</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>45907</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>15.64</v>
+      </c>
+      <c r="E52" s="1">
+        <v>17.41</v>
+      </c>
+      <c r="F52" s="1">
+        <v>15.711</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="4"/>
+        <v>16.253666666666664</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="J52" s="10">
         <v>115.57</v>
       </c>
-      <c r="K50" s="10">
-        <v>145.0</v>
-      </c>
-      <c r="L50" s="10">
-        <v>294.0</v>
-      </c>
-      <c r="O50" s="10">
-        <v>4.522</v>
-      </c>
-      <c r="P50" s="10">
-        <v>2042.0</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>3673.0</v>
-      </c>
-      <c r="R50" s="10">
+      <c r="K52" s="10">
+        <v>145</v>
+      </c>
+      <c r="L52" s="10">
+        <v>294</v>
+      </c>
+      <c r="O52" s="10">
+        <v>4.5220000000000002</v>
+      </c>
+      <c r="P52" s="10">
+        <v>2042</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>3673</v>
+      </c>
+      <c r="R52" s="10">
         <v>170.881</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S52" s="10">
         <v>1.284</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="T52" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="16">
-        <v>45907.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>45907</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="1">
-        <v>15.733</v>
-      </c>
-      <c r="F51" s="1">
-        <v>13.328</v>
-      </c>
-      <c r="G51" s="10">
-        <f t="shared" si="3"/>
+      <c r="E53" s="1">
+        <v>15.733000000000001</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="4"/>
         <v>14.5305</v>
       </c>
-      <c r="H51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
         <v>1.589</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J53" s="1">
         <v>101.904</v>
       </c>
-      <c r="K51" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>6.849</v>
-      </c>
-      <c r="P51" s="1">
-        <v>1166.0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>1874.0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>1.336</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0.595</v>
-      </c>
-      <c r="T51" s="17" t="s">
+      <c r="K53" s="1">
+        <v>54</v>
+      </c>
+      <c r="L53" s="1">
+        <v>125</v>
+      </c>
+      <c r="O53" s="1">
+        <v>6.8490000000000002</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1166</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1874</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="T53" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="16">
-        <v>45907.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="1">
-        <v>17.535</v>
-      </c>
-      <c r="E52" s="1">
-        <v>17.325</v>
-      </c>
-      <c r="F52" s="1">
-        <v>17.62</v>
-      </c>
-      <c r="G52" s="10">
-        <f t="shared" si="3"/>
-        <v>17.49333333</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T52" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="16">
-        <v>45907.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="1">
-        <v>16.889</v>
-      </c>
-      <c r="E53" s="1">
-        <v>16.553</v>
-      </c>
-      <c r="F53" s="1">
-        <v>16.83</v>
-      </c>
-      <c r="G53" s="10">
-        <f t="shared" si="3"/>
-        <v>16.75733333</v>
-      </c>
-      <c r="H53" s="19">
-        <v>45659.0</v>
-      </c>
-      <c r="I53" s="10">
-        <f>sum(I52)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="10" t="str">
-        <f>AVERAGE(J52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="10">
-        <f t="shared" ref="K53:Q53" si="4">sum(K52)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54">
+    <row r="54" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1">
-        <v>15.221</v>
+        <v>17.535</v>
       </c>
       <c r="E54" s="1">
-        <v>15.331</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="F54" s="1">
-        <v>18.574</v>
+        <v>17.62</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="3"/>
-        <v>16.37533333</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>48.105</v>
-      </c>
-      <c r="J54" s="1">
-        <v>51.554</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>210.0</v>
-      </c>
-      <c r="O54" s="1">
-        <v>21.423</v>
-      </c>
-      <c r="P54" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1669.0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>156.259</v>
-      </c>
-      <c r="S54" s="1">
-        <v>7.155</v>
-      </c>
-      <c r="T54" s="8"/>
-    </row>
-    <row r="55">
+        <f t="shared" si="4"/>
+        <v>17.493333333333336</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <v>45907.0</v>
+        <v>45907</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1">
-        <v>15.491</v>
+        <v>16.888999999999999</v>
       </c>
       <c r="E55" s="1">
-        <v>17.059</v>
+        <v>16.553000000000001</v>
       </c>
       <c r="F55" s="1">
-        <v>15.849</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="3"/>
-        <v>16.133</v>
-      </c>
-      <c r="H55" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="I55" s="20">
-        <v>3.507</v>
-      </c>
-      <c r="J55" s="20">
-        <v>91.3425</v>
-      </c>
-      <c r="K55" s="20">
-        <v>37.0</v>
-      </c>
-      <c r="L55" s="20">
-        <v>409.0</v>
-      </c>
-      <c r="O55" s="20">
-        <v>7.34</v>
-      </c>
-      <c r="P55" s="20">
-        <v>704.0</v>
-      </c>
-      <c r="Q55" s="20">
-        <v>3400.0</v>
-      </c>
-      <c r="R55" s="20">
-        <v>356.036</v>
-      </c>
-      <c r="S55" s="20">
-        <v>1.604</v>
+        <f t="shared" si="4"/>
+        <v>16.757333333333332</v>
+      </c>
+      <c r="H55" s="19">
+        <v>45659</v>
+      </c>
+      <c r="I55" s="10">
+        <f>SUM(I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="10" t="e">
+        <f>AVERAGE(J54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" ref="K55:Q55" si="5">SUM(K54)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <v>45937.0</v>
+        <v>45907</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15.221</v>
       </c>
       <c r="E56" s="1">
-        <v>15.938</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="1">
-        <v>15.938</v>
-      </c>
-      <c r="T56" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>15.331</v>
+      </c>
+      <c r="F56" s="1">
+        <v>18.574000000000002</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="4"/>
+        <v>16.375333333333334</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>48.104999999999997</v>
+      </c>
+      <c r="J56" s="1">
+        <v>51.554000000000002</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>210</v>
+      </c>
+      <c r="O56" s="1">
+        <v>21.422999999999998</v>
+      </c>
+      <c r="P56" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1669</v>
+      </c>
+      <c r="R56" s="1">
+        <v>156.25899999999999</v>
+      </c>
+      <c r="S56" s="1">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="16">
-        <v>45937.0</v>
+        <v>45907</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1">
+        <v>15.491</v>
+      </c>
+      <c r="E57" s="1">
+        <v>17.059000000000001</v>
+      </c>
+      <c r="F57" s="1">
+        <v>15.849</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="4"/>
+        <v>16.132999999999999</v>
+      </c>
+      <c r="H57" s="20">
+        <v>2</v>
+      </c>
+      <c r="I57" s="20">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="J57" s="20">
+        <v>91.342500000000001</v>
+      </c>
+      <c r="K57" s="20">
+        <v>37</v>
+      </c>
+      <c r="L57" s="20">
+        <v>409</v>
+      </c>
+      <c r="O57" s="20">
+        <v>7.34</v>
+      </c>
+      <c r="P57" s="20">
+        <v>704</v>
+      </c>
+      <c r="Q57" s="20">
+        <v>3400</v>
+      </c>
+      <c r="R57" s="20">
+        <v>356.036</v>
+      </c>
+      <c r="S57" s="20">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="1">
+        <v>15.938000000000001</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="1">
+        <v>15.938000000000001</v>
+      </c>
+      <c r="T58" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D59" s="1">
         <v>15.355</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E59" s="1">
         <v>14.323</v>
       </c>
-      <c r="F57" s="1">
-        <v>14.194</v>
-      </c>
-      <c r="G57" s="10">
-        <f t="shared" ref="G57:G68" si="5">AVERAGE(D57,E57,F57)</f>
-        <v>14.624</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="F59" s="1">
+        <v>14.194000000000001</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" ref="G59:G70" si="6">AVERAGE(D59,E59,F59)</f>
+        <v>14.624000000000001</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="1">
-        <v>16.73</v>
-      </c>
-      <c r="E58" s="1">
-        <v>16.433</v>
-      </c>
-      <c r="F58" s="1">
-        <v>16.374</v>
-      </c>
-      <c r="G58" s="10">
-        <f t="shared" si="5"/>
-        <v>16.51233333</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>5.898</v>
-      </c>
-      <c r="J58" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="O58" s="1">
-        <v>17.188</v>
-      </c>
-      <c r="P58" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>1951.0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>1.625</v>
-      </c>
-      <c r="S58" s="1">
-        <v>1.625</v>
-      </c>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="1">
-        <v>13.769</v>
-      </c>
-      <c r="F59" s="1">
-        <v>13.333</v>
-      </c>
-      <c r="G59" s="10">
-        <f t="shared" si="5"/>
-        <v>13.551</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>16.358</v>
-      </c>
-      <c r="J59" s="1">
-        <v>85.013</v>
-      </c>
-      <c r="K59" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="O59" s="18">
-        <v>12.609</v>
-      </c>
-      <c r="P59" s="18">
-        <v>1183.0</v>
-      </c>
-      <c r="Q59" s="18">
-        <v>1823.0</v>
-      </c>
-      <c r="R59" s="18">
-        <v>18.953</v>
-      </c>
-      <c r="S59" s="18">
-        <v>4.262</v>
-      </c>
       <c r="T59" s="8"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1">
-        <v>15.712</v>
+        <v>16.73</v>
       </c>
       <c r="E60" s="1">
-        <v>18.649</v>
+        <v>16.433</v>
       </c>
       <c r="F60" s="1">
-        <v>13.649</v>
+        <v>16.373999999999999</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="5"/>
-        <v>16.00333333</v>
-      </c>
-      <c r="H60" s="1" t="s">
+        <f t="shared" si="6"/>
+        <v>16.512333333333331</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5.8979999999999997</v>
+      </c>
+      <c r="J60" s="1">
+        <v>255</v>
+      </c>
+      <c r="K60" s="1">
+        <v>255</v>
+      </c>
+      <c r="L60" s="1">
+        <v>255</v>
+      </c>
+      <c r="O60" s="1">
+        <v>17.187999999999999</v>
+      </c>
+      <c r="P60" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1951</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="S60" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="T60" s="8"/>
+    </row>
+    <row r="61" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="1">
-        <v>16.891</v>
-      </c>
       <c r="E61" s="1">
-        <v>17.355</v>
+        <v>13.769</v>
       </c>
       <c r="F61" s="1">
-        <v>17.09</v>
+        <v>13.333</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="5"/>
-        <v>17.112</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>43</v>
+        <f t="shared" si="6"/>
+        <v>13.551</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>16.358000000000001</v>
+      </c>
+      <c r="J61" s="1">
+        <v>85.013000000000005</v>
+      </c>
+      <c r="K61" s="1">
+        <v>85</v>
+      </c>
+      <c r="L61" s="1">
+        <v>175</v>
+      </c>
+      <c r="O61" s="18">
+        <v>12.609</v>
+      </c>
+      <c r="P61" s="18">
+        <v>1183</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>1823</v>
+      </c>
+      <c r="R61" s="18">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="S61" s="18">
+        <v>4.2619999999999996</v>
       </c>
       <c r="T61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1">
-        <v>19.422</v>
+        <v>15.712</v>
       </c>
       <c r="E62" s="1">
-        <v>18.015</v>
+        <v>18.649000000000001</v>
       </c>
       <c r="F62" s="1">
-        <v>13.793</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="5"/>
-        <v>17.07666667</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>3.971</v>
-      </c>
-      <c r="J62" s="1">
-        <v>94.031</v>
-      </c>
-      <c r="K62" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>152.0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>8.587</v>
-      </c>
-      <c r="P62" s="1">
-        <v>1173.0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>1742.0</v>
-      </c>
-      <c r="R62" s="1">
-        <v>1.087</v>
-      </c>
-      <c r="S62" s="1">
-        <v>0.982</v>
+        <f t="shared" si="6"/>
+        <v>16.003333333333334</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
-        <v>12.83</v>
+        <v>16.890999999999998</v>
       </c>
       <c r="E63" s="1">
-        <v>13.378</v>
+        <v>17.355</v>
       </c>
       <c r="F63" s="1">
-        <v>13.021</v>
+        <v>17.09</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="5"/>
-        <v>13.07633333</v>
-      </c>
-      <c r="I63" s="10">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="J63" s="10">
-        <v>118.4856</v>
-      </c>
-      <c r="K63" s="10">
-        <v>450.0</v>
-      </c>
-      <c r="L63" s="10">
-        <v>763.0</v>
-      </c>
-      <c r="O63" s="10">
-        <v>10.084</v>
-      </c>
-      <c r="P63" s="10">
-        <v>7357.0</v>
-      </c>
-      <c r="Q63" s="10">
-        <v>8974.0</v>
-      </c>
-      <c r="R63" s="10">
-        <v>189.332</v>
-      </c>
-      <c r="S63" s="10">
-        <v>1.5300000000000002</v>
+        <f t="shared" si="6"/>
+        <v>17.111999999999998</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1">
-        <v>14.78</v>
+        <v>19.422000000000001</v>
       </c>
       <c r="E64" s="1">
-        <v>14.03</v>
+        <v>18.015000000000001</v>
       </c>
       <c r="F64" s="1">
-        <v>14.052</v>
+        <v>13.792999999999999</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" si="5"/>
-        <v>14.28733333</v>
+        <f t="shared" si="6"/>
+        <v>17.076666666666664</v>
       </c>
       <c r="H64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1">
-        <v>2.736</v>
+        <v>3.9710000000000001</v>
       </c>
       <c r="J64" s="1">
-        <v>83.744</v>
+        <v>94.031000000000006</v>
       </c>
       <c r="K64" s="1">
-        <v>23.0</v>
+        <v>32</v>
       </c>
       <c r="L64" s="1">
-        <v>126.0</v>
+        <v>152</v>
       </c>
       <c r="O64" s="1">
-        <v>8.087</v>
+        <v>8.5869999999999997</v>
       </c>
       <c r="P64" s="1">
-        <v>654.0</v>
+        <v>1173</v>
       </c>
       <c r="Q64" s="1">
-        <v>1692.0</v>
+        <v>1742</v>
       </c>
       <c r="R64" s="1">
-        <v>175.219</v>
+        <v>1.087</v>
       </c>
       <c r="S64" s="1">
-        <v>1.884</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D65" s="1">
-        <v>16.412</v>
+        <v>12.83</v>
       </c>
       <c r="E65" s="1">
-        <v>16.043</v>
+        <v>13.378</v>
       </c>
       <c r="F65" s="1">
-        <v>16.932</v>
+        <v>13.021000000000001</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" si="5"/>
-        <v>16.46233333</v>
+        <f t="shared" si="6"/>
+        <v>13.076333333333332</v>
       </c>
       <c r="I65" s="10">
-        <v>0.33399999999999996</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J65" s="10">
-        <v>118.4425</v>
+        <v>118.48560000000001</v>
       </c>
       <c r="K65" s="10">
-        <v>171.0</v>
+        <v>450</v>
       </c>
       <c r="L65" s="10">
-        <v>340.0</v>
+        <v>763</v>
       </c>
       <c r="O65" s="10">
-        <v>2.452</v>
+        <v>10.084</v>
       </c>
       <c r="P65" s="10">
-        <v>896.0</v>
+        <v>7357</v>
       </c>
       <c r="Q65" s="10">
-        <v>3600.0</v>
+        <v>8974</v>
       </c>
       <c r="R65" s="10">
-        <v>345.343</v>
+        <v>189.33199999999999</v>
       </c>
       <c r="S65" s="10">
-        <v>0.617</v>
-      </c>
-      <c r="T65" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D66" s="1">
-        <v>16.329</v>
+        <v>14.78</v>
       </c>
       <c r="E66" s="1">
-        <v>16.11</v>
+        <v>14.03</v>
       </c>
       <c r="F66" s="1">
-        <v>16.767</v>
+        <v>14.052</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" si="5"/>
-        <v>16.402</v>
+        <f t="shared" si="6"/>
+        <v>14.287333333333331</v>
       </c>
       <c r="H66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
-        <v>1.312</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="J66" s="1">
-        <v>87.087</v>
+        <v>83.744</v>
       </c>
       <c r="K66" s="1">
-        <v>80.0</v>
+        <v>23</v>
       </c>
       <c r="L66" s="1">
-        <v>189.0</v>
+        <v>126</v>
       </c>
       <c r="O66" s="1">
-        <v>3.885</v>
+        <v>8.0869999999999997</v>
       </c>
       <c r="P66" s="1">
-        <v>0.0</v>
+        <v>654</v>
       </c>
       <c r="Q66" s="1">
-        <v>1888.0</v>
+        <v>1692</v>
       </c>
       <c r="R66" s="1">
-        <v>176.361</v>
+        <v>175.21899999999999</v>
       </c>
       <c r="S66" s="1">
-        <v>0.924</v>
-      </c>
-      <c r="T66" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="T66" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="1">
+        <v>16.411999999999999</v>
+      </c>
+      <c r="E67" s="1">
+        <v>16.042999999999999</v>
+      </c>
+      <c r="F67" s="1">
+        <v>16.931999999999999</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="6"/>
+        <v>16.462333333333333</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="J67" s="10">
+        <v>118.4425</v>
+      </c>
+      <c r="K67" s="10">
+        <v>171</v>
+      </c>
+      <c r="L67" s="10">
+        <v>340</v>
+      </c>
+      <c r="O67" s="10">
+        <v>2.452</v>
+      </c>
+      <c r="P67" s="10">
+        <v>896</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>3600</v>
+      </c>
+      <c r="R67" s="10">
+        <v>345.34300000000002</v>
+      </c>
+      <c r="S67" s="10">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="T67" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="1">
+        <v>16.329000000000001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>16.11</v>
+      </c>
+      <c r="F68" s="1">
+        <v>16.766999999999999</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="6"/>
+        <v>16.402000000000001</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="J68" s="1">
+        <v>87.087000000000003</v>
+      </c>
+      <c r="K68" s="1">
+        <v>80</v>
+      </c>
+      <c r="L68" s="1">
+        <v>189</v>
+      </c>
+      <c r="O68" s="1">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1888</v>
+      </c>
+      <c r="R68" s="1">
+        <v>176.36099999999999</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="T68" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D69" s="1">
         <v>18.314</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E69" s="1">
         <v>16.962</v>
       </c>
-      <c r="F67" s="1">
-        <v>17.108</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" si="5"/>
-        <v>17.46133333</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="F69" s="1">
+        <v>17.108000000000001</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="6"/>
+        <v>17.461333333333332</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="T69" s="8"/>
+    </row>
+    <row r="70" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="1">
-        <v>16.466</v>
-      </c>
-      <c r="E68" s="1">
-        <v>16.889</v>
-      </c>
-      <c r="F68" s="1">
+      <c r="D70" s="1">
+        <v>16.466000000000001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>16.888999999999999</v>
+      </c>
+      <c r="F70" s="1">
         <v>15.773</v>
       </c>
-      <c r="G68" s="10">
-        <f t="shared" si="5"/>
-        <v>16.376</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>6.506</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="G70" s="10">
+        <f t="shared" si="6"/>
+        <v>16.376000000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="J70" s="1">
         <v>119.395</v>
       </c>
-      <c r="K68" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>184.0</v>
-      </c>
-      <c r="O68" s="1">
-        <v>16.662</v>
-      </c>
-      <c r="P68" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1770.0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>2.417</v>
-      </c>
-      <c r="S68" s="1">
-        <v>1.562</v>
-      </c>
-      <c r="T68" s="17" t="s">
+      <c r="K70" s="1">
+        <v>57</v>
+      </c>
+      <c r="L70" s="1">
+        <v>184</v>
+      </c>
+      <c r="O70" s="1">
+        <v>16.661999999999999</v>
+      </c>
+      <c r="P70" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1770</v>
+      </c>
+      <c r="R70" s="1">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="T70" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="1">
-        <v>16.427</v>
-      </c>
-      <c r="G69" s="10">
-        <f>AVERAGE(E69,F69)</f>
-        <v>16.427</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.763</v>
-      </c>
-      <c r="J69" s="1">
-        <v>86.0555</v>
-      </c>
-      <c r="K69" s="1">
-        <v>170.0</v>
-      </c>
-      <c r="L69" s="1">
-        <v>395.0</v>
-      </c>
-      <c r="O69" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="P69" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="R69" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="S69" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="T69" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="1">
-        <v>14.961</v>
-      </c>
-      <c r="E70" s="1">
-        <v>14.053</v>
-      </c>
-      <c r="F70" s="1">
-        <v>13.527</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" ref="G70:G76" si="6">AVERAGE(D70,E70,F70)</f>
-        <v>14.18033333</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>4.662</v>
-      </c>
-      <c r="J70" s="1">
-        <v>16.901</v>
-      </c>
-      <c r="K70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>174.0</v>
-      </c>
-      <c r="O70" s="1">
-        <v>8.852</v>
-      </c>
-      <c r="P70" s="1">
-        <v>1217.0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>1915.0</v>
-      </c>
-      <c r="R70" s="1">
-        <v>1.448</v>
-      </c>
-      <c r="S70" s="1">
-        <v>1.169</v>
-      </c>
-      <c r="T70" s="8"/>
-    </row>
-    <row r="71">
+    <row r="71" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="1">
+        <v>16.427</v>
+      </c>
+      <c r="G71" s="10">
+        <f>AVERAGE(E71,F71)</f>
+        <v>16.427</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J71" s="1">
+        <v>86.055499999999995</v>
+      </c>
+      <c r="K71" s="1">
+        <v>170</v>
+      </c>
+      <c r="L71" s="1">
+        <v>395</v>
+      </c>
+      <c r="O71" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="P71" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="R71" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="S71" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="T71" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="1">
+        <v>14.961</v>
+      </c>
+      <c r="E72" s="1">
+        <v>14.053000000000001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>13.526999999999999</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" ref="G72:G78" si="7">AVERAGE(D72,E72,F72)</f>
+        <v>14.180333333333335</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="J72" s="1">
+        <v>16.901</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>174</v>
+      </c>
+      <c r="O72" s="1">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1217</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1915</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1.448</v>
+      </c>
+      <c r="S72" s="1">
+        <v>1.169</v>
+      </c>
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="1">
-        <v>16.667</v>
-      </c>
-      <c r="E71" s="1">
-        <v>16.303</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="D73" s="1">
+        <v>16.667000000000002</v>
+      </c>
+      <c r="E73" s="1">
+        <v>16.303000000000001</v>
+      </c>
+      <c r="F73" s="1">
         <v>16.727</v>
       </c>
-      <c r="G71" s="10">
-        <f t="shared" si="6"/>
-        <v>16.56566667</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.626</v>
-      </c>
-      <c r="J71" s="1">
-        <v>85.7905</v>
-      </c>
-      <c r="K71" s="1">
-        <v>168.0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>314.0</v>
-      </c>
-      <c r="O71" s="1">
-        <v>5.164</v>
-      </c>
-      <c r="P71" s="1">
-        <v>412.0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>3402.0</v>
-      </c>
-      <c r="R71" s="1">
-        <v>183.669</v>
-      </c>
-      <c r="S71" s="1">
-        <v>1.691</v>
-      </c>
-      <c r="T71" s="17" t="s">
+      <c r="G73" s="10">
+        <f t="shared" si="7"/>
+        <v>16.565666666666669</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="J73" s="1">
+        <v>85.790499999999994</v>
+      </c>
+      <c r="K73" s="1">
+        <v>168</v>
+      </c>
+      <c r="L73" s="1">
+        <v>314</v>
+      </c>
+      <c r="O73" s="1">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="P73" s="1">
+        <v>412</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>3402</v>
+      </c>
+      <c r="R73" s="1">
+        <v>183.66900000000001</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="T73" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D74" s="1">
         <v>15.843</v>
       </c>
-      <c r="E72" s="1">
-        <v>16.799</v>
-      </c>
-      <c r="F72" s="1">
-        <v>23.123</v>
-      </c>
-      <c r="G72" s="10">
-        <f t="shared" si="6"/>
-        <v>18.58833333</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>70.062</v>
-      </c>
-      <c r="J72" s="1">
-        <v>69.359</v>
-      </c>
-      <c r="K72" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L72" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="O72" s="1">
-        <v>23.295</v>
-      </c>
-      <c r="P72" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>1902.0</v>
-      </c>
-      <c r="R72" s="1">
-        <v>148.912</v>
-      </c>
-      <c r="S72" s="1">
-        <v>9.989</v>
-      </c>
-      <c r="T72" s="17" t="s">
+      <c r="E74" s="1">
+        <v>16.798999999999999</v>
+      </c>
+      <c r="F74" s="1">
+        <v>23.123000000000001</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="7"/>
+        <v>18.588333333333335</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>70.061999999999998</v>
+      </c>
+      <c r="J74" s="1">
+        <v>69.358999999999995</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>138</v>
+      </c>
+      <c r="O74" s="1">
+        <v>23.295000000000002</v>
+      </c>
+      <c r="P74" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1902</v>
+      </c>
+      <c r="R74" s="1">
+        <v>148.91200000000001</v>
+      </c>
+      <c r="S74" s="1">
+        <v>9.9890000000000008</v>
+      </c>
+      <c r="T74" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="1">
-        <v>15.236</v>
-      </c>
-      <c r="E73" s="1">
-        <v>19.313</v>
-      </c>
-      <c r="F73" s="1">
-        <v>13.486</v>
-      </c>
-      <c r="G73" s="10">
-        <f t="shared" si="6"/>
-        <v>16.01166667</v>
-      </c>
-      <c r="H73" s="1" t="s">
+      <c r="D75" s="1">
+        <v>15.236000000000001</v>
+      </c>
+      <c r="E75" s="1">
+        <v>19.312999999999999</v>
+      </c>
+      <c r="F75" s="1">
+        <v>13.486000000000001</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="7"/>
+        <v>16.011666666666667</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T73" s="17" t="s">
+      <c r="T75" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="1">
-        <v>16.707</v>
-      </c>
-      <c r="E74" s="1">
-        <v>16.49</v>
-      </c>
-      <c r="F74" s="1">
-        <v>16.762</v>
-      </c>
-      <c r="G74" s="10">
-        <f t="shared" si="6"/>
-        <v>16.653</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="J74" s="1">
-        <v>86.496</v>
-      </c>
-      <c r="K74" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="L74" s="1">
-        <v>205.0</v>
-      </c>
-      <c r="O74" s="1">
-        <v>9.28</v>
-      </c>
-      <c r="P74" s="1">
-        <v>9.28</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>9.28</v>
-      </c>
-      <c r="R74" s="1">
-        <v>9.28</v>
-      </c>
-      <c r="S74" s="1">
-        <v>9.28</v>
-      </c>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="1">
-        <v>13.787</v>
-      </c>
-      <c r="E75" s="1">
-        <v>13.47</v>
-      </c>
-      <c r="F75" s="1">
-        <v>13.203</v>
-      </c>
-      <c r="G75" s="10">
-        <f t="shared" si="6"/>
-        <v>13.48666667</v>
-      </c>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76">
+    <row r="76" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16.707000000000001</v>
+      </c>
+      <c r="E76" s="1">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="F76" s="1">
+        <v>16.762</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="7"/>
+        <v>16.653000000000002</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J76" s="1">
+        <v>86.495999999999995</v>
+      </c>
+      <c r="K76" s="1">
+        <v>85</v>
+      </c>
+      <c r="L76" s="1">
+        <v>205</v>
+      </c>
+      <c r="O76" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="P76" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="R76" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="S76" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="T76" s="8"/>
+    </row>
+    <row r="77" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1">
+        <v>13.787000000000001</v>
+      </c>
+      <c r="E77" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="F77" s="1">
+        <v>13.202999999999999</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="7"/>
+        <v>13.486666666666666</v>
+      </c>
+      <c r="T77" s="8"/>
+    </row>
+    <row r="78" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D78" s="1">
         <v>14.228</v>
       </c>
-      <c r="E76" s="1">
-        <v>15.893</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E78" s="1">
+        <v>15.893000000000001</v>
+      </c>
+      <c r="F78" s="1">
         <v>21.96</v>
-      </c>
-      <c r="G76" s="10">
-        <f t="shared" si="6"/>
-        <v>17.36033333</v>
-      </c>
-      <c r="H76" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>67.64</v>
-      </c>
-      <c r="J76" s="1">
-        <v>84.95</v>
-      </c>
-      <c r="K76" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>211.0</v>
-      </c>
-      <c r="O76" s="1">
-        <v>21.265</v>
-      </c>
-      <c r="P76" s="1">
-        <v>21.265</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>21.265</v>
-      </c>
-      <c r="R76" s="1">
-        <v>21.265</v>
-      </c>
-      <c r="S76" s="1">
-        <v>21.265</v>
-      </c>
-      <c r="T76" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="1">
-        <v>15.83</v>
-      </c>
-      <c r="F77" s="1">
-        <v>14.411</v>
-      </c>
-      <c r="G77" s="10">
-        <f t="shared" ref="G77:G94" si="7">AVERAGE(E77,F77)</f>
-        <v>15.1205</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I77" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="J77" s="1">
-        <v>86.107</v>
-      </c>
-      <c r="K77" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L77" s="1">
-        <v>163.0</v>
-      </c>
-      <c r="O77" s="1">
-        <v>4.631</v>
-      </c>
-      <c r="P77" s="1">
-        <v>4.631</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>4.631</v>
-      </c>
-      <c r="R77" s="1">
-        <v>4.631</v>
-      </c>
-      <c r="S77" s="1">
-        <v>4.631</v>
-      </c>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="1">
-        <v>17.719</v>
-      </c>
-      <c r="E78" s="1">
-        <v>17.719</v>
-      </c>
-      <c r="F78" s="1">
-        <v>16.877</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="7"/>
-        <v>17.298</v>
-      </c>
-      <c r="H78" s="1" t="s">
+        <v>17.360333333333333</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>67.64</v>
+      </c>
+      <c r="J78" s="1">
+        <v>84.95</v>
+      </c>
+      <c r="K78" s="1">
+        <v>45</v>
+      </c>
+      <c r="L78" s="1">
+        <v>211</v>
+      </c>
+      <c r="O78" s="1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="P78" s="1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="R78" s="1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="S78" s="1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="T78" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16">
-        <v>45937.0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="1">
-        <v>17.666</v>
-      </c>
       <c r="E79" s="1">
-        <v>18.103</v>
+        <v>15.83</v>
       </c>
       <c r="F79" s="1">
-        <v>17.451</v>
+        <v>14.411</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="7"/>
-        <v>17.777</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>43</v>
+        <f t="shared" ref="G79:G96" si="8">AVERAGE(E79,F79)</f>
+        <v>15.1205</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="J79" s="1">
+        <v>86.106999999999999</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>163</v>
+      </c>
+      <c r="O79" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="P79" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="R79" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="S79" s="1">
+        <v>4.6310000000000002</v>
       </c>
       <c r="T79" s="8"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1">
-        <v>19.368</v>
+        <v>17.719000000000001</v>
       </c>
       <c r="E80" s="1">
-        <v>18.926</v>
+        <v>17.719000000000001</v>
       </c>
       <c r="F80" s="1">
-        <v>19.985</v>
+        <v>16.876999999999999</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="7"/>
-        <v>19.4555</v>
+        <f t="shared" si="8"/>
+        <v>17.298000000000002</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T80" s="8"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="18">
-        <v>18.155</v>
-      </c>
-      <c r="E81" s="18">
-        <v>18.351</v>
+        <v>117</v>
+      </c>
+      <c r="D81" s="1">
+        <v>17.666</v>
+      </c>
+      <c r="E81" s="1">
+        <v>18.103000000000002</v>
       </c>
       <c r="F81" s="1">
-        <v>19.185</v>
+        <v>17.451000000000001</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="7"/>
-        <v>18.768</v>
+        <f t="shared" si="8"/>
+        <v>17.777000000000001</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T81" s="8"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
-        <v>45968.0</v>
+        <v>45937</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1">
-        <v>19.833</v>
+        <v>19.367999999999999</v>
       </c>
       <c r="E82" s="1">
-        <v>19.71</v>
+        <v>18.925999999999998</v>
       </c>
       <c r="F82" s="1">
-        <v>20.333</v>
+        <v>19.984999999999999</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="7"/>
-        <v>20.0215</v>
+        <f t="shared" si="8"/>
+        <v>19.455500000000001</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T82" s="8"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
-        <v>45968.0</v>
+        <v>45937</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" s="1">
-        <v>15.804</v>
-      </c>
-      <c r="E83" s="1">
-        <v>18.482</v>
+        <v>119</v>
+      </c>
+      <c r="D83" s="18">
+        <v>18.155000000000001</v>
+      </c>
+      <c r="E83" s="18">
+        <v>18.350999999999999</v>
       </c>
       <c r="F83" s="1">
-        <v>25.367</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="7"/>
-        <v>21.9245</v>
-      </c>
-      <c r="H83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>109.476</v>
-      </c>
-      <c r="J83" s="1">
-        <v>60.495</v>
-      </c>
-      <c r="K83" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L83" s="1">
-        <v>211.0</v>
-      </c>
-      <c r="O83" s="1">
-        <v>24.751</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>1843.0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>143.688</v>
-      </c>
-      <c r="S83" s="1">
-        <v>11.56</v>
+        <f t="shared" si="8"/>
+        <v>18.768000000000001</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
-        <v>45968.0</v>
+        <v>45968</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D84" s="1">
-        <v>16.298</v>
+        <v>19.832999999999998</v>
       </c>
       <c r="E84" s="1">
-        <v>18.849</v>
+        <v>19.71</v>
       </c>
       <c r="F84" s="1">
-        <v>17.577</v>
+        <v>20.332999999999998</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="7"/>
-        <v>18.213</v>
-      </c>
-      <c r="H84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>3.656</v>
-      </c>
-      <c r="J84" s="1">
-        <v>107.075</v>
-      </c>
-      <c r="K84" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="O84" s="1">
-        <v>6.105</v>
-      </c>
-      <c r="P84" s="1">
-        <v>738.0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>1981.0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>177.606</v>
-      </c>
-      <c r="S84" s="1">
-        <v>1.364</v>
+        <f t="shared" si="8"/>
+        <v>20.0215</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T84" s="8"/>
     </row>
-    <row r="85">
-      <c r="A85" s="23" t="s">
-        <v>123</v>
+    <row r="85" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>45968</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1">
-        <v>14.056</v>
+        <v>15.804</v>
       </c>
       <c r="E85" s="1">
-        <v>13.846</v>
+        <v>18.481999999999999</v>
       </c>
       <c r="F85" s="1">
-        <v>13.469</v>
+        <v>25.367000000000001</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="7"/>
-        <v>13.6575</v>
+        <f t="shared" si="8"/>
+        <v>21.924500000000002</v>
       </c>
       <c r="H85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="1">
-        <v>31.387</v>
+        <v>109.476</v>
       </c>
       <c r="J85" s="1">
-        <v>58.372</v>
+        <v>60.494999999999997</v>
       </c>
       <c r="K85" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>210.0</v>
+        <v>211</v>
       </c>
       <c r="O85" s="1">
-        <v>17.777</v>
+        <v>24.751000000000001</v>
       </c>
       <c r="P85" s="1">
-        <v>360.0</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <v>1783.0</v>
+        <v>1843</v>
       </c>
       <c r="R85" s="1">
-        <v>15.726</v>
+        <v>143.68799999999999</v>
       </c>
       <c r="S85" s="1">
-        <v>5.248</v>
+        <v>11.56</v>
       </c>
       <c r="T85" s="8"/>
     </row>
-    <row r="86">
-      <c r="A86" s="23" t="s">
-        <v>123</v>
+    <row r="86" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>45968</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1">
-        <v>13.744</v>
+        <v>16.297999999999998</v>
       </c>
       <c r="E86" s="1">
-        <v>13.66</v>
+        <v>18.849</v>
       </c>
       <c r="F86" s="1">
-        <v>13.574</v>
+        <v>17.577000000000002</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="7"/>
-        <v>13.617</v>
+        <f t="shared" si="8"/>
+        <v>18.213000000000001</v>
       </c>
       <c r="H86" s="1">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="1">
-        <v>0.415</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="J86" s="1">
-        <v>90.409</v>
+        <v>107.075</v>
       </c>
       <c r="K86" s="1">
-        <v>103.0</v>
+        <v>34</v>
       </c>
       <c r="L86" s="1">
-        <v>315.0</v>
+        <v>255</v>
       </c>
       <c r="O86" s="1">
-        <v>2.122</v>
+        <v>6.1050000000000004</v>
       </c>
       <c r="P86" s="1">
-        <v>2616.0</v>
+        <v>738</v>
       </c>
       <c r="Q86" s="1">
-        <v>3416.0</v>
+        <v>1981</v>
       </c>
       <c r="R86" s="1">
-        <v>319.903</v>
+        <v>177.60599999999999</v>
       </c>
       <c r="S86" s="1">
-        <v>0.951</v>
-      </c>
-      <c r="T86" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>123</v>
       </c>
@@ -4489,30 +4492,54 @@
         <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1">
-        <v>17.44</v>
+        <v>14.055999999999999</v>
       </c>
       <c r="E87" s="1">
-        <v>17.27</v>
+        <v>13.846</v>
       </c>
       <c r="F87" s="1">
-        <v>18.243</v>
+        <v>13.468999999999999</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="7"/>
-        <v>17.7565</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>128</v>
+        <f t="shared" si="8"/>
+        <v>13.657499999999999</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>31.387</v>
+      </c>
+      <c r="J87" s="1">
+        <v>58.372</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>210</v>
+      </c>
+      <c r="O87" s="1">
+        <v>17.777000000000001</v>
+      </c>
+      <c r="P87" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1783</v>
+      </c>
+      <c r="R87" s="1">
+        <v>15.726000000000001</v>
+      </c>
+      <c r="S87" s="1">
+        <v>5.2480000000000002</v>
       </c>
       <c r="T87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>123</v>
       </c>
@@ -4520,56 +4547,56 @@
         <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D88" s="1">
-        <v>16.942</v>
+        <v>13.744</v>
       </c>
       <c r="E88" s="1">
-        <v>17.238</v>
+        <v>13.66</v>
       </c>
       <c r="F88" s="1">
-        <v>16.393</v>
+        <v>13.574</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="7"/>
-        <v>16.8155</v>
+        <f t="shared" si="8"/>
+        <v>13.617000000000001</v>
       </c>
       <c r="H88" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1">
-        <v>8.049</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="J88" s="1">
-        <v>72.441</v>
+        <v>90.409000000000006</v>
       </c>
       <c r="K88" s="1">
-        <v>31.0</v>
+        <v>103</v>
       </c>
       <c r="L88" s="1">
-        <v>398.0</v>
+        <v>315</v>
       </c>
       <c r="O88" s="1">
-        <v>16.239</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="P88" s="1">
-        <v>1390.0</v>
+        <v>2616</v>
       </c>
       <c r="Q88" s="1">
-        <v>3832.0</v>
+        <v>3416</v>
       </c>
       <c r="R88" s="1">
-        <v>180.39</v>
+        <v>319.90300000000002</v>
       </c>
       <c r="S88" s="1">
-        <v>2.68</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>123</v>
       </c>
@@ -4577,54 +4604,30 @@
         <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1">
-        <v>15.729</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E89" s="1">
-        <v>16.757</v>
+        <v>17.27</v>
       </c>
       <c r="F89" s="1">
-        <v>17.1</v>
+        <v>18.242999999999999</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="7"/>
-        <v>16.9285</v>
-      </c>
-      <c r="H89" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1.434</v>
-      </c>
-      <c r="J89" s="1">
-        <v>66.186</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L89" s="1">
-        <v>225.0</v>
-      </c>
-      <c r="O89" s="1">
-        <v>4.214</v>
-      </c>
-      <c r="P89" s="1">
-        <v>220.0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>1825.0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>179.514</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0.749</v>
+        <f t="shared" si="8"/>
+        <v>17.756499999999999</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="T89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>123</v>
       </c>
@@ -4632,54 +4635,56 @@
         <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1">
-        <v>16.959</v>
+        <v>16.942</v>
       </c>
       <c r="E90" s="1">
-        <v>16.36</v>
+        <v>17.238</v>
       </c>
       <c r="F90" s="1">
-        <v>17.347</v>
+        <v>16.393000000000001</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="7"/>
-        <v>16.8535</v>
+        <f t="shared" si="8"/>
+        <v>16.8155</v>
       </c>
       <c r="H90" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I90" s="1">
-        <v>2.729</v>
+        <v>8.0489999999999995</v>
       </c>
       <c r="J90" s="1">
-        <v>71.1465</v>
+        <v>72.441000000000003</v>
       </c>
       <c r="K90" s="1">
-        <v>49.0</v>
+        <v>31</v>
       </c>
       <c r="L90" s="1">
-        <v>217.0</v>
+        <v>398</v>
       </c>
       <c r="O90" s="1">
-        <v>5.797</v>
+        <v>16.239000000000001</v>
       </c>
       <c r="P90" s="1">
-        <v>529.0</v>
+        <v>1390</v>
       </c>
       <c r="Q90" s="1">
-        <v>4227.0</v>
+        <v>3832</v>
       </c>
       <c r="R90" s="1">
-        <v>215.398</v>
+        <v>180.39</v>
       </c>
       <c r="S90" s="1">
-        <v>2.322</v>
-      </c>
-      <c r="T90" s="8"/>
-    </row>
-    <row r="91">
+        <v>2.68</v>
+      </c>
+      <c r="T90" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>123</v>
       </c>
@@ -4687,54 +4692,54 @@
         <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
+      </c>
+      <c r="D91" s="1">
+        <v>15.728999999999999</v>
       </c>
       <c r="E91" s="1">
-        <v>19.0</v>
+        <v>16.757000000000001</v>
       </c>
       <c r="F91" s="1">
-        <v>15.333</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="7"/>
-        <v>17.1665</v>
+        <f t="shared" si="8"/>
+        <v>16.9285</v>
       </c>
       <c r="H91" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="1">
-        <v>5.624</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="J91" s="1">
-        <v>68.356</v>
+        <v>66.186000000000007</v>
       </c>
       <c r="K91" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1">
-        <v>255.0</v>
+        <v>225</v>
       </c>
       <c r="O91" s="1">
-        <v>8.329</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="P91" s="1">
-        <v>942.0</v>
+        <v>220</v>
       </c>
       <c r="Q91" s="1">
-        <v>1932.0</v>
+        <v>1825</v>
       </c>
       <c r="R91" s="1">
-        <v>2.668</v>
+        <v>179.51400000000001</v>
       </c>
       <c r="S91" s="1">
-        <v>1.37</v>
+        <v>0.749</v>
       </c>
       <c r="T91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>123</v>
       </c>
@@ -4742,54 +4747,54 @@
         <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="D92" s="1">
+        <v>16.959</v>
       </c>
       <c r="E92" s="1">
-        <v>17.086</v>
+        <v>16.36</v>
       </c>
       <c r="F92" s="1">
-        <v>15.371</v>
+        <v>17.347000000000001</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="7"/>
-        <v>16.2285</v>
+        <f t="shared" si="8"/>
+        <v>16.8535</v>
       </c>
       <c r="H92" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
-        <v>3.447</v>
+        <v>2.7290000000000001</v>
       </c>
       <c r="J92" s="1">
-        <v>69.65</v>
+        <v>71.146500000000003</v>
       </c>
       <c r="K92" s="1">
-        <v>10.0</v>
+        <v>49</v>
       </c>
       <c r="L92" s="1">
-        <v>121.0</v>
+        <v>217</v>
       </c>
       <c r="O92" s="1">
-        <v>4.547</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="P92" s="1">
-        <v>0.0</v>
+        <v>529</v>
       </c>
       <c r="Q92" s="1">
-        <v>1735.0</v>
+        <v>4227</v>
       </c>
       <c r="R92" s="1">
-        <v>170.049</v>
+        <v>215.398</v>
       </c>
       <c r="S92" s="1">
-        <v>1.973</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="T92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>123</v>
       </c>
@@ -4797,27 +4802,54 @@
         <v>40</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="1">
-        <v>14.872</v>
+        <v>133</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E93" s="1">
-        <v>14.122</v>
+        <v>19</v>
       </c>
       <c r="F93" s="1">
-        <v>14.98</v>
+        <v>15.333</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="7"/>
-        <v>14.551</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>43</v>
+        <f t="shared" si="8"/>
+        <v>17.166499999999999</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="J93" s="1">
+        <v>68.355999999999995</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>255</v>
+      </c>
+      <c r="O93" s="1">
+        <v>8.3290000000000006</v>
+      </c>
+      <c r="P93" s="1">
+        <v>942</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>1932</v>
+      </c>
+      <c r="R93" s="1">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1.37</v>
       </c>
       <c r="T93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>123</v>
       </c>
@@ -4825,2747 +4857,2831 @@
         <v>40</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="1">
+        <v>17.085999999999999</v>
+      </c>
+      <c r="F94" s="1">
+        <v>15.371</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" si="8"/>
+        <v>16.2285</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>3.4470000000000001</v>
+      </c>
+      <c r="J94" s="1">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="K94" s="1">
+        <v>10</v>
+      </c>
+      <c r="L94" s="1">
+        <v>121</v>
+      </c>
+      <c r="O94" s="1">
+        <v>4.5469999999999997</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>1735</v>
+      </c>
+      <c r="R94" s="1">
+        <v>170.04900000000001</v>
+      </c>
+      <c r="S94" s="1">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="T94" s="8"/>
+    </row>
+    <row r="95" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="1">
+        <v>14.872</v>
+      </c>
+      <c r="E95" s="1">
+        <v>14.122</v>
+      </c>
+      <c r="F95" s="1">
+        <v>14.98</v>
+      </c>
+      <c r="G95" s="10">
+        <f t="shared" si="8"/>
+        <v>14.551</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T95" s="8"/>
+    </row>
+    <row r="96" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D96" s="1">
         <v>13.314</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E96" s="1">
         <v>14.073</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F96" s="1">
         <v>13.664</v>
       </c>
-      <c r="G94" s="10">
-        <f t="shared" si="7"/>
-        <v>13.8685</v>
-      </c>
-      <c r="T94" s="8"/>
-    </row>
-    <row r="95">
-      <c r="T95" s="8"/>
-    </row>
-    <row r="96">
+      <c r="G96" s="10">
+        <f t="shared" si="8"/>
+        <v>13.868500000000001</v>
+      </c>
       <c r="T96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T102" s="8"/>
     </row>
-    <row r="103">
+    <row r="103" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T113" s="8"/>
     </row>
-    <row r="114">
+    <row r="114" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T114" s="8"/>
     </row>
-    <row r="115">
+    <row r="115" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T115" s="8"/>
     </row>
-    <row r="116">
+    <row r="116" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T116" s="8"/>
     </row>
-    <row r="117">
+    <row r="117" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T117" s="8"/>
     </row>
-    <row r="118">
+    <row r="118" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T118" s="8"/>
     </row>
-    <row r="119">
+    <row r="119" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T119" s="8"/>
     </row>
-    <row r="120">
+    <row r="120" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T120" s="8"/>
     </row>
-    <row r="121">
+    <row r="121" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T121" s="8"/>
     </row>
-    <row r="122">
+    <row r="122" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T122" s="8"/>
     </row>
-    <row r="123">
+    <row r="123" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T123" s="8"/>
     </row>
-    <row r="124">
+    <row r="124" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T124" s="8"/>
     </row>
-    <row r="125">
+    <row r="125" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T125" s="8"/>
     </row>
-    <row r="126">
+    <row r="126" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T126" s="8"/>
     </row>
-    <row r="127">
+    <row r="127" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T127" s="8"/>
     </row>
-    <row r="128">
+    <row r="128" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T128" s="8"/>
     </row>
-    <row r="129">
+    <row r="129" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T129" s="8"/>
     </row>
-    <row r="130">
+    <row r="130" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T130" s="8"/>
     </row>
-    <row r="131">
+    <row r="131" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T131" s="8"/>
     </row>
-    <row r="132">
+    <row r="132" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T132" s="8"/>
     </row>
-    <row r="133">
+    <row r="133" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T133" s="8"/>
     </row>
-    <row r="134">
+    <row r="134" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T134" s="8"/>
     </row>
-    <row r="135">
+    <row r="135" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T135" s="8"/>
     </row>
-    <row r="136">
+    <row r="136" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T136" s="8"/>
     </row>
-    <row r="137">
+    <row r="137" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T137" s="8"/>
     </row>
-    <row r="138">
+    <row r="138" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T138" s="8"/>
     </row>
-    <row r="139">
+    <row r="139" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T139" s="8"/>
     </row>
-    <row r="140">
+    <row r="140" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T140" s="8"/>
     </row>
-    <row r="141">
+    <row r="141" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T141" s="8"/>
     </row>
-    <row r="142">
+    <row r="142" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T142" s="8"/>
     </row>
-    <row r="143">
+    <row r="143" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T143" s="8"/>
     </row>
-    <row r="144">
+    <row r="144" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T144" s="8"/>
     </row>
-    <row r="145">
+    <row r="145" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T145" s="8"/>
     </row>
-    <row r="146">
+    <row r="146" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T146" s="8"/>
     </row>
-    <row r="147">
+    <row r="147" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T147" s="8"/>
     </row>
-    <row r="148">
+    <row r="148" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T148" s="8"/>
     </row>
-    <row r="149">
+    <row r="149" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T149" s="8"/>
     </row>
-    <row r="150">
+    <row r="150" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T150" s="8"/>
     </row>
-    <row r="151">
+    <row r="151" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T151" s="8"/>
     </row>
-    <row r="152">
+    <row r="152" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T152" s="8"/>
     </row>
-    <row r="153">
+    <row r="153" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T153" s="8"/>
     </row>
-    <row r="154">
+    <row r="154" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T154" s="8"/>
     </row>
-    <row r="155">
+    <row r="155" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T155" s="8"/>
     </row>
-    <row r="156">
+    <row r="156" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T156" s="8"/>
     </row>
-    <row r="157">
+    <row r="157" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T157" s="8"/>
     </row>
-    <row r="158">
+    <row r="158" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T158" s="8"/>
     </row>
-    <row r="159">
+    <row r="159" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T159" s="8"/>
     </row>
-    <row r="160">
+    <row r="160" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T160" s="8"/>
     </row>
-    <row r="161">
+    <row r="161" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T161" s="8"/>
     </row>
-    <row r="162">
+    <row r="162" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T162" s="8"/>
     </row>
-    <row r="163">
+    <row r="163" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T163" s="8"/>
     </row>
-    <row r="164">
+    <row r="164" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T164" s="8"/>
     </row>
-    <row r="165">
+    <row r="165" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T165" s="8"/>
     </row>
-    <row r="166">
+    <row r="166" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T166" s="8"/>
     </row>
-    <row r="167">
+    <row r="167" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T167" s="8"/>
     </row>
-    <row r="168">
+    <row r="168" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T168" s="8"/>
     </row>
-    <row r="169">
+    <row r="169" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T169" s="8"/>
     </row>
-    <row r="170">
+    <row r="170" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T170" s="8"/>
     </row>
-    <row r="171">
+    <row r="171" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T171" s="8"/>
     </row>
-    <row r="172">
+    <row r="172" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T172" s="8"/>
     </row>
-    <row r="173">
+    <row r="173" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T173" s="8"/>
     </row>
-    <row r="174">
+    <row r="174" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T174" s="8"/>
     </row>
-    <row r="175">
+    <row r="175" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T175" s="8"/>
     </row>
-    <row r="176">
+    <row r="176" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T176" s="8"/>
     </row>
-    <row r="177">
+    <row r="177" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T177" s="8"/>
     </row>
-    <row r="178">
+    <row r="178" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T178" s="8"/>
     </row>
-    <row r="179">
+    <row r="179" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T179" s="8"/>
     </row>
-    <row r="180">
+    <row r="180" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T180" s="8"/>
     </row>
-    <row r="181">
+    <row r="181" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T181" s="8"/>
     </row>
-    <row r="182">
+    <row r="182" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T182" s="8"/>
     </row>
-    <row r="183">
+    <row r="183" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T183" s="8"/>
     </row>
-    <row r="184">
+    <row r="184" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T184" s="8"/>
     </row>
-    <row r="185">
+    <row r="185" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T185" s="8"/>
     </row>
-    <row r="186">
+    <row r="186" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T186" s="8"/>
     </row>
-    <row r="187">
+    <row r="187" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T187" s="8"/>
     </row>
-    <row r="188">
+    <row r="188" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T188" s="8"/>
     </row>
-    <row r="189">
+    <row r="189" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T189" s="8"/>
     </row>
-    <row r="190">
+    <row r="190" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T190" s="8"/>
     </row>
-    <row r="191">
+    <row r="191" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T191" s="8"/>
     </row>
-    <row r="192">
+    <row r="192" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T192" s="8"/>
     </row>
-    <row r="193">
+    <row r="193" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T193" s="8"/>
     </row>
-    <row r="194">
+    <row r="194" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T194" s="8"/>
     </row>
-    <row r="195">
+    <row r="195" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T195" s="8"/>
     </row>
-    <row r="196">
+    <row r="196" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T196" s="8"/>
     </row>
-    <row r="197">
+    <row r="197" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T197" s="8"/>
     </row>
-    <row r="198">
+    <row r="198" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T198" s="8"/>
     </row>
-    <row r="199">
+    <row r="199" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T199" s="8"/>
     </row>
-    <row r="200">
+    <row r="200" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T200" s="8"/>
     </row>
-    <row r="201">
+    <row r="201" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T201" s="8"/>
     </row>
-    <row r="202">
+    <row r="202" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T202" s="8"/>
     </row>
-    <row r="203">
+    <row r="203" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T203" s="8"/>
     </row>
-    <row r="204">
+    <row r="204" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T204" s="8"/>
     </row>
-    <row r="205">
+    <row r="205" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T205" s="8"/>
     </row>
-    <row r="206">
+    <row r="206" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T206" s="8"/>
     </row>
-    <row r="207">
+    <row r="207" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T207" s="8"/>
     </row>
-    <row r="208">
+    <row r="208" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T208" s="8"/>
     </row>
-    <row r="209">
+    <row r="209" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T209" s="8"/>
     </row>
-    <row r="210">
+    <row r="210" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T210" s="8"/>
     </row>
-    <row r="211">
+    <row r="211" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T211" s="8"/>
     </row>
-    <row r="212">
+    <row r="212" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T212" s="8"/>
     </row>
-    <row r="213">
+    <row r="213" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T213" s="8"/>
     </row>
-    <row r="214">
+    <row r="214" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T214" s="8"/>
     </row>
-    <row r="215">
+    <row r="215" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T215" s="8"/>
     </row>
-    <row r="216">
+    <row r="216" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T216" s="8"/>
     </row>
-    <row r="217">
+    <row r="217" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T217" s="8"/>
     </row>
-    <row r="218">
+    <row r="218" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T218" s="8"/>
     </row>
-    <row r="219">
+    <row r="219" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T219" s="8"/>
     </row>
-    <row r="220">
+    <row r="220" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T220" s="8"/>
     </row>
-    <row r="221">
+    <row r="221" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T221" s="8"/>
     </row>
-    <row r="222">
+    <row r="222" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T222" s="8"/>
     </row>
-    <row r="223">
+    <row r="223" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T223" s="8"/>
     </row>
-    <row r="224">
+    <row r="224" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T224" s="8"/>
     </row>
-    <row r="225">
+    <row r="225" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T225" s="8"/>
     </row>
-    <row r="226">
+    <row r="226" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T226" s="8"/>
     </row>
-    <row r="227">
+    <row r="227" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T227" s="8"/>
     </row>
-    <row r="228">
+    <row r="228" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T228" s="8"/>
     </row>
-    <row r="229">
+    <row r="229" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T229" s="8"/>
     </row>
-    <row r="230">
+    <row r="230" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T230" s="8"/>
     </row>
-    <row r="231">
+    <row r="231" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T231" s="8"/>
     </row>
-    <row r="232">
+    <row r="232" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T232" s="8"/>
     </row>
-    <row r="233">
+    <row r="233" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T233" s="8"/>
     </row>
-    <row r="234">
+    <row r="234" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T234" s="8"/>
     </row>
-    <row r="235">
+    <row r="235" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T235" s="8"/>
     </row>
-    <row r="236">
+    <row r="236" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T236" s="8"/>
     </row>
-    <row r="237">
+    <row r="237" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T237" s="8"/>
     </row>
-    <row r="238">
+    <row r="238" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T238" s="8"/>
     </row>
-    <row r="239">
+    <row r="239" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T239" s="8"/>
     </row>
-    <row r="240">
+    <row r="240" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T240" s="8"/>
     </row>
-    <row r="241">
+    <row r="241" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T241" s="8"/>
     </row>
-    <row r="242">
+    <row r="242" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T242" s="8"/>
     </row>
-    <row r="243">
+    <row r="243" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T243" s="8"/>
     </row>
-    <row r="244">
+    <row r="244" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T244" s="8"/>
     </row>
-    <row r="245">
+    <row r="245" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T245" s="8"/>
     </row>
-    <row r="246">
+    <row r="246" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T246" s="8"/>
     </row>
-    <row r="247">
+    <row r="247" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T247" s="8"/>
     </row>
-    <row r="248">
+    <row r="248" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T248" s="8"/>
     </row>
-    <row r="249">
+    <row r="249" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T249" s="8"/>
     </row>
-    <row r="250">
+    <row r="250" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T250" s="8"/>
     </row>
-    <row r="251">
+    <row r="251" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T251" s="8"/>
     </row>
-    <row r="252">
+    <row r="252" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T252" s="8"/>
     </row>
-    <row r="253">
+    <row r="253" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T253" s="8"/>
     </row>
-    <row r="254">
+    <row r="254" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T254" s="8"/>
     </row>
-    <row r="255">
+    <row r="255" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T255" s="8"/>
     </row>
-    <row r="256">
+    <row r="256" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T256" s="8"/>
     </row>
-    <row r="257">
+    <row r="257" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T257" s="8"/>
     </row>
-    <row r="258">
+    <row r="258" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T258" s="8"/>
     </row>
-    <row r="259">
+    <row r="259" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T259" s="8"/>
     </row>
-    <row r="260">
+    <row r="260" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T260" s="8"/>
     </row>
-    <row r="261">
+    <row r="261" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T261" s="8"/>
     </row>
-    <row r="262">
+    <row r="262" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T262" s="8"/>
     </row>
-    <row r="263">
+    <row r="263" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T263" s="8"/>
     </row>
-    <row r="264">
+    <row r="264" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T264" s="8"/>
     </row>
-    <row r="265">
+    <row r="265" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T265" s="8"/>
     </row>
-    <row r="266">
+    <row r="266" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T266" s="8"/>
     </row>
-    <row r="267">
+    <row r="267" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T267" s="8"/>
     </row>
-    <row r="268">
+    <row r="268" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T268" s="8"/>
     </row>
-    <row r="269">
+    <row r="269" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T269" s="8"/>
     </row>
-    <row r="270">
+    <row r="270" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T270" s="8"/>
     </row>
-    <row r="271">
+    <row r="271" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T271" s="8"/>
     </row>
-    <row r="272">
+    <row r="272" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T272" s="8"/>
     </row>
-    <row r="273">
+    <row r="273" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T273" s="8"/>
     </row>
-    <row r="274">
+    <row r="274" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T274" s="8"/>
     </row>
-    <row r="275">
+    <row r="275" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T275" s="8"/>
     </row>
-    <row r="276">
+    <row r="276" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T276" s="8"/>
     </row>
-    <row r="277">
+    <row r="277" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T277" s="8"/>
     </row>
-    <row r="278">
+    <row r="278" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T278" s="8"/>
     </row>
-    <row r="279">
+    <row r="279" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T279" s="8"/>
     </row>
-    <row r="280">
+    <row r="280" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T280" s="8"/>
     </row>
-    <row r="281">
+    <row r="281" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T281" s="8"/>
     </row>
-    <row r="282">
+    <row r="282" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T282" s="8"/>
     </row>
-    <row r="283">
+    <row r="283" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T283" s="8"/>
     </row>
-    <row r="284">
+    <row r="284" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T284" s="8"/>
     </row>
-    <row r="285">
+    <row r="285" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T285" s="8"/>
     </row>
-    <row r="286">
+    <row r="286" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T286" s="8"/>
     </row>
-    <row r="287">
+    <row r="287" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T287" s="8"/>
     </row>
-    <row r="288">
+    <row r="288" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T288" s="8"/>
     </row>
-    <row r="289">
+    <row r="289" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T289" s="8"/>
     </row>
-    <row r="290">
+    <row r="290" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T290" s="8"/>
     </row>
-    <row r="291">
+    <row r="291" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T291" s="8"/>
     </row>
-    <row r="292">
+    <row r="292" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T292" s="8"/>
     </row>
-    <row r="293">
+    <row r="293" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T293" s="8"/>
     </row>
-    <row r="294">
+    <row r="294" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T294" s="8"/>
     </row>
-    <row r="295">
+    <row r="295" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T295" s="8"/>
     </row>
-    <row r="296">
+    <row r="296" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T296" s="8"/>
     </row>
-    <row r="297">
+    <row r="297" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T297" s="8"/>
     </row>
-    <row r="298">
+    <row r="298" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T298" s="8"/>
     </row>
-    <row r="299">
+    <row r="299" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T299" s="8"/>
     </row>
-    <row r="300">
+    <row r="300" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T300" s="8"/>
     </row>
-    <row r="301">
+    <row r="301" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T301" s="8"/>
     </row>
-    <row r="302">
+    <row r="302" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T302" s="8"/>
     </row>
-    <row r="303">
+    <row r="303" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T303" s="8"/>
     </row>
-    <row r="304">
+    <row r="304" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T304" s="8"/>
     </row>
-    <row r="305">
+    <row r="305" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T305" s="8"/>
     </row>
-    <row r="306">
+    <row r="306" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T306" s="8"/>
     </row>
-    <row r="307">
+    <row r="307" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T307" s="8"/>
     </row>
-    <row r="308">
+    <row r="308" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T308" s="8"/>
     </row>
-    <row r="309">
+    <row r="309" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T309" s="8"/>
     </row>
-    <row r="310">
+    <row r="310" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T310" s="8"/>
     </row>
-    <row r="311">
+    <row r="311" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T311" s="8"/>
     </row>
-    <row r="312">
+    <row r="312" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T312" s="8"/>
     </row>
-    <row r="313">
+    <row r="313" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T313" s="8"/>
     </row>
-    <row r="314">
+    <row r="314" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T314" s="8"/>
     </row>
-    <row r="315">
+    <row r="315" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T315" s="8"/>
     </row>
-    <row r="316">
+    <row r="316" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T316" s="8"/>
     </row>
-    <row r="317">
+    <row r="317" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T317" s="8"/>
     </row>
-    <row r="318">
+    <row r="318" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T318" s="8"/>
     </row>
-    <row r="319">
+    <row r="319" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T319" s="8"/>
     </row>
-    <row r="320">
+    <row r="320" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T320" s="8"/>
     </row>
-    <row r="321">
+    <row r="321" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T321" s="8"/>
     </row>
-    <row r="322">
+    <row r="322" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T322" s="8"/>
     </row>
-    <row r="323">
+    <row r="323" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T323" s="8"/>
     </row>
-    <row r="324">
+    <row r="324" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T324" s="8"/>
     </row>
-    <row r="325">
+    <row r="325" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T325" s="8"/>
     </row>
-    <row r="326">
+    <row r="326" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T326" s="8"/>
     </row>
-    <row r="327">
+    <row r="327" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T327" s="8"/>
     </row>
-    <row r="328">
+    <row r="328" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T328" s="8"/>
     </row>
-    <row r="329">
+    <row r="329" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T329" s="8"/>
     </row>
-    <row r="330">
+    <row r="330" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T330" s="8"/>
     </row>
-    <row r="331">
+    <row r="331" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T331" s="8"/>
     </row>
-    <row r="332">
+    <row r="332" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T332" s="8"/>
     </row>
-    <row r="333">
+    <row r="333" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T333" s="8"/>
     </row>
-    <row r="334">
+    <row r="334" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T334" s="8"/>
     </row>
-    <row r="335">
+    <row r="335" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T335" s="8"/>
     </row>
-    <row r="336">
+    <row r="336" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T336" s="8"/>
     </row>
-    <row r="337">
+    <row r="337" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T337" s="8"/>
     </row>
-    <row r="338">
+    <row r="338" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T338" s="8"/>
     </row>
-    <row r="339">
+    <row r="339" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T339" s="8"/>
     </row>
-    <row r="340">
+    <row r="340" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T340" s="8"/>
     </row>
-    <row r="341">
+    <row r="341" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T341" s="8"/>
     </row>
-    <row r="342">
+    <row r="342" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T342" s="8"/>
     </row>
-    <row r="343">
+    <row r="343" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T343" s="8"/>
     </row>
-    <row r="344">
+    <row r="344" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T344" s="8"/>
     </row>
-    <row r="345">
+    <row r="345" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T345" s="8"/>
     </row>
-    <row r="346">
+    <row r="346" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T346" s="8"/>
     </row>
-    <row r="347">
+    <row r="347" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T347" s="8"/>
     </row>
-    <row r="348">
+    <row r="348" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T348" s="8"/>
     </row>
-    <row r="349">
+    <row r="349" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T349" s="8"/>
     </row>
-    <row r="350">
+    <row r="350" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T350" s="8"/>
     </row>
-    <row r="351">
+    <row r="351" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T351" s="8"/>
     </row>
-    <row r="352">
+    <row r="352" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T352" s="8"/>
     </row>
-    <row r="353">
+    <row r="353" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T353" s="8"/>
     </row>
-    <row r="354">
+    <row r="354" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T354" s="8"/>
     </row>
-    <row r="355">
+    <row r="355" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T355" s="8"/>
     </row>
-    <row r="356">
+    <row r="356" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T356" s="8"/>
     </row>
-    <row r="357">
+    <row r="357" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T357" s="8"/>
     </row>
-    <row r="358">
+    <row r="358" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T358" s="8"/>
     </row>
-    <row r="359">
+    <row r="359" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T359" s="8"/>
     </row>
-    <row r="360">
+    <row r="360" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T360" s="8"/>
     </row>
-    <row r="361">
+    <row r="361" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T361" s="8"/>
     </row>
-    <row r="362">
+    <row r="362" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T362" s="8"/>
     </row>
-    <row r="363">
+    <row r="363" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T363" s="8"/>
     </row>
-    <row r="364">
+    <row r="364" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T364" s="8"/>
     </row>
-    <row r="365">
+    <row r="365" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T365" s="8"/>
     </row>
-    <row r="366">
+    <row r="366" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T366" s="8"/>
     </row>
-    <row r="367">
+    <row r="367" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T367" s="8"/>
     </row>
-    <row r="368">
+    <row r="368" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T368" s="8"/>
     </row>
-    <row r="369">
+    <row r="369" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T369" s="8"/>
     </row>
-    <row r="370">
+    <row r="370" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T370" s="8"/>
     </row>
-    <row r="371">
+    <row r="371" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T371" s="8"/>
     </row>
-    <row r="372">
+    <row r="372" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T372" s="8"/>
     </row>
-    <row r="373">
+    <row r="373" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T373" s="8"/>
     </row>
-    <row r="374">
+    <row r="374" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T374" s="8"/>
     </row>
-    <row r="375">
+    <row r="375" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T375" s="8"/>
     </row>
-    <row r="376">
+    <row r="376" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T376" s="8"/>
     </row>
-    <row r="377">
+    <row r="377" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T377" s="8"/>
     </row>
-    <row r="378">
+    <row r="378" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T378" s="8"/>
     </row>
-    <row r="379">
+    <row r="379" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T379" s="8"/>
     </row>
-    <row r="380">
+    <row r="380" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T380" s="8"/>
     </row>
-    <row r="381">
+    <row r="381" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T381" s="8"/>
     </row>
-    <row r="382">
+    <row r="382" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T382" s="8"/>
     </row>
-    <row r="383">
+    <row r="383" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T383" s="8"/>
     </row>
-    <row r="384">
+    <row r="384" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T384" s="8"/>
     </row>
-    <row r="385">
+    <row r="385" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T385" s="8"/>
     </row>
-    <row r="386">
+    <row r="386" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T386" s="8"/>
     </row>
-    <row r="387">
+    <row r="387" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T387" s="8"/>
     </row>
-    <row r="388">
+    <row r="388" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T388" s="8"/>
     </row>
-    <row r="389">
+    <row r="389" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T389" s="8"/>
     </row>
-    <row r="390">
+    <row r="390" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T390" s="8"/>
     </row>
-    <row r="391">
+    <row r="391" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T391" s="8"/>
     </row>
-    <row r="392">
+    <row r="392" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T392" s="8"/>
     </row>
-    <row r="393">
+    <row r="393" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T393" s="8"/>
     </row>
-    <row r="394">
+    <row r="394" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T394" s="8"/>
     </row>
-    <row r="395">
+    <row r="395" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T395" s="8"/>
     </row>
-    <row r="396">
+    <row r="396" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T396" s="8"/>
     </row>
-    <row r="397">
+    <row r="397" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T397" s="8"/>
     </row>
-    <row r="398">
+    <row r="398" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T398" s="8"/>
     </row>
-    <row r="399">
+    <row r="399" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T399" s="8"/>
     </row>
-    <row r="400">
+    <row r="400" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T400" s="8"/>
     </row>
-    <row r="401">
+    <row r="401" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T401" s="8"/>
     </row>
-    <row r="402">
+    <row r="402" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T402" s="8"/>
     </row>
-    <row r="403">
+    <row r="403" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T403" s="8"/>
     </row>
-    <row r="404">
+    <row r="404" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T404" s="8"/>
     </row>
-    <row r="405">
+    <row r="405" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T405" s="8"/>
     </row>
-    <row r="406">
+    <row r="406" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T406" s="8"/>
     </row>
-    <row r="407">
+    <row r="407" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T407" s="8"/>
     </row>
-    <row r="408">
+    <row r="408" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T408" s="8"/>
     </row>
-    <row r="409">
+    <row r="409" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T409" s="8"/>
     </row>
-    <row r="410">
+    <row r="410" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T410" s="8"/>
     </row>
-    <row r="411">
+    <row r="411" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T411" s="8"/>
     </row>
-    <row r="412">
+    <row r="412" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T412" s="8"/>
     </row>
-    <row r="413">
+    <row r="413" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T413" s="8"/>
     </row>
-    <row r="414">
+    <row r="414" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T414" s="8"/>
     </row>
-    <row r="415">
+    <row r="415" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T415" s="8"/>
     </row>
-    <row r="416">
+    <row r="416" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T416" s="8"/>
     </row>
-    <row r="417">
+    <row r="417" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T417" s="8"/>
     </row>
-    <row r="418">
+    <row r="418" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T418" s="8"/>
     </row>
-    <row r="419">
+    <row r="419" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T419" s="8"/>
     </row>
-    <row r="420">
+    <row r="420" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T420" s="8"/>
     </row>
-    <row r="421">
+    <row r="421" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T421" s="8"/>
     </row>
-    <row r="422">
+    <row r="422" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T422" s="8"/>
     </row>
-    <row r="423">
+    <row r="423" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T423" s="8"/>
     </row>
-    <row r="424">
+    <row r="424" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T424" s="8"/>
     </row>
-    <row r="425">
+    <row r="425" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T425" s="8"/>
     </row>
-    <row r="426">
+    <row r="426" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T426" s="8"/>
     </row>
-    <row r="427">
+    <row r="427" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T427" s="8"/>
     </row>
-    <row r="428">
+    <row r="428" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T428" s="8"/>
     </row>
-    <row r="429">
+    <row r="429" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T429" s="8"/>
     </row>
-    <row r="430">
+    <row r="430" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T430" s="8"/>
     </row>
-    <row r="431">
+    <row r="431" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T431" s="8"/>
     </row>
-    <row r="432">
+    <row r="432" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T432" s="8"/>
     </row>
-    <row r="433">
+    <row r="433" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T433" s="8"/>
     </row>
-    <row r="434">
+    <row r="434" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T434" s="8"/>
     </row>
-    <row r="435">
+    <row r="435" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T435" s="8"/>
     </row>
-    <row r="436">
+    <row r="436" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T436" s="8"/>
     </row>
-    <row r="437">
+    <row r="437" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T437" s="8"/>
     </row>
-    <row r="438">
+    <row r="438" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T438" s="8"/>
     </row>
-    <row r="439">
+    <row r="439" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T439" s="8"/>
     </row>
-    <row r="440">
+    <row r="440" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T440" s="8"/>
     </row>
-    <row r="441">
+    <row r="441" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T441" s="8"/>
     </row>
-    <row r="442">
+    <row r="442" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T442" s="8"/>
     </row>
-    <row r="443">
+    <row r="443" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T443" s="8"/>
     </row>
-    <row r="444">
+    <row r="444" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T444" s="8"/>
     </row>
-    <row r="445">
+    <row r="445" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T445" s="8"/>
     </row>
-    <row r="446">
+    <row r="446" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T446" s="8"/>
     </row>
-    <row r="447">
+    <row r="447" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T447" s="8"/>
     </row>
-    <row r="448">
+    <row r="448" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T448" s="8"/>
     </row>
-    <row r="449">
+    <row r="449" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T449" s="8"/>
     </row>
-    <row r="450">
+    <row r="450" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T450" s="8"/>
     </row>
-    <row r="451">
+    <row r="451" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T451" s="8"/>
     </row>
-    <row r="452">
+    <row r="452" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T452" s="8"/>
     </row>
-    <row r="453">
+    <row r="453" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T453" s="8"/>
     </row>
-    <row r="454">
+    <row r="454" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T454" s="8"/>
     </row>
-    <row r="455">
+    <row r="455" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T455" s="8"/>
     </row>
-    <row r="456">
+    <row r="456" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T456" s="8"/>
     </row>
-    <row r="457">
+    <row r="457" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T457" s="8"/>
     </row>
-    <row r="458">
+    <row r="458" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T458" s="8"/>
     </row>
-    <row r="459">
+    <row r="459" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T459" s="8"/>
     </row>
-    <row r="460">
+    <row r="460" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T460" s="8"/>
     </row>
-    <row r="461">
+    <row r="461" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T461" s="8"/>
     </row>
-    <row r="462">
+    <row r="462" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T462" s="8"/>
     </row>
-    <row r="463">
+    <row r="463" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T463" s="8"/>
     </row>
-    <row r="464">
+    <row r="464" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T464" s="8"/>
     </row>
-    <row r="465">
+    <row r="465" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T465" s="8"/>
     </row>
-    <row r="466">
+    <row r="466" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T466" s="8"/>
     </row>
-    <row r="467">
+    <row r="467" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T467" s="8"/>
     </row>
-    <row r="468">
+    <row r="468" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T468" s="8"/>
     </row>
-    <row r="469">
+    <row r="469" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T469" s="8"/>
     </row>
-    <row r="470">
+    <row r="470" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T470" s="8"/>
     </row>
-    <row r="471">
+    <row r="471" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T471" s="8"/>
     </row>
-    <row r="472">
+    <row r="472" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T472" s="8"/>
     </row>
-    <row r="473">
+    <row r="473" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T473" s="8"/>
     </row>
-    <row r="474">
+    <row r="474" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T474" s="8"/>
     </row>
-    <row r="475">
+    <row r="475" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T475" s="8"/>
     </row>
-    <row r="476">
+    <row r="476" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T476" s="8"/>
     </row>
-    <row r="477">
+    <row r="477" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T477" s="8"/>
     </row>
-    <row r="478">
+    <row r="478" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T478" s="8"/>
     </row>
-    <row r="479">
+    <row r="479" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T479" s="8"/>
     </row>
-    <row r="480">
+    <row r="480" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T480" s="8"/>
     </row>
-    <row r="481">
+    <row r="481" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T481" s="8"/>
     </row>
-    <row r="482">
+    <row r="482" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T482" s="8"/>
     </row>
-    <row r="483">
+    <row r="483" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T483" s="8"/>
     </row>
-    <row r="484">
+    <row r="484" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T484" s="8"/>
     </row>
-    <row r="485">
+    <row r="485" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T485" s="8"/>
     </row>
-    <row r="486">
+    <row r="486" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T486" s="8"/>
     </row>
-    <row r="487">
+    <row r="487" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T487" s="8"/>
     </row>
-    <row r="488">
+    <row r="488" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T488" s="8"/>
     </row>
-    <row r="489">
+    <row r="489" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T489" s="8"/>
     </row>
-    <row r="490">
+    <row r="490" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T490" s="8"/>
     </row>
-    <row r="491">
+    <row r="491" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T491" s="8"/>
     </row>
-    <row r="492">
+    <row r="492" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T492" s="8"/>
     </row>
-    <row r="493">
+    <row r="493" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T493" s="8"/>
     </row>
-    <row r="494">
+    <row r="494" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T494" s="8"/>
     </row>
-    <row r="495">
+    <row r="495" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T495" s="8"/>
     </row>
-    <row r="496">
+    <row r="496" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T496" s="8"/>
     </row>
-    <row r="497">
+    <row r="497" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T497" s="8"/>
     </row>
-    <row r="498">
+    <row r="498" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T498" s="8"/>
     </row>
-    <row r="499">
+    <row r="499" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T499" s="8"/>
     </row>
-    <row r="500">
+    <row r="500" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T500" s="8"/>
     </row>
-    <row r="501">
+    <row r="501" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T501" s="8"/>
     </row>
-    <row r="502">
+    <row r="502" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T502" s="8"/>
     </row>
-    <row r="503">
+    <row r="503" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T503" s="8"/>
     </row>
-    <row r="504">
+    <row r="504" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T504" s="8"/>
     </row>
-    <row r="505">
+    <row r="505" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T505" s="8"/>
     </row>
-    <row r="506">
+    <row r="506" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T506" s="8"/>
     </row>
-    <row r="507">
+    <row r="507" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T507" s="8"/>
     </row>
-    <row r="508">
+    <row r="508" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T508" s="8"/>
     </row>
-    <row r="509">
+    <row r="509" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T509" s="8"/>
     </row>
-    <row r="510">
+    <row r="510" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T510" s="8"/>
     </row>
-    <row r="511">
+    <row r="511" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T511" s="8"/>
     </row>
-    <row r="512">
+    <row r="512" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T512" s="8"/>
     </row>
-    <row r="513">
+    <row r="513" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T513" s="8"/>
     </row>
-    <row r="514">
+    <row r="514" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T514" s="8"/>
     </row>
-    <row r="515">
+    <row r="515" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T515" s="8"/>
     </row>
-    <row r="516">
+    <row r="516" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T516" s="8"/>
     </row>
-    <row r="517">
+    <row r="517" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T517" s="8"/>
     </row>
-    <row r="518">
+    <row r="518" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T518" s="8"/>
     </row>
-    <row r="519">
+    <row r="519" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T519" s="8"/>
     </row>
-    <row r="520">
+    <row r="520" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T520" s="8"/>
     </row>
-    <row r="521">
+    <row r="521" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T521" s="8"/>
     </row>
-    <row r="522">
+    <row r="522" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T522" s="8"/>
     </row>
-    <row r="523">
+    <row r="523" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T523" s="8"/>
     </row>
-    <row r="524">
+    <row r="524" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T524" s="8"/>
     </row>
-    <row r="525">
+    <row r="525" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T525" s="8"/>
     </row>
-    <row r="526">
+    <row r="526" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T526" s="8"/>
     </row>
-    <row r="527">
+    <row r="527" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T527" s="8"/>
     </row>
-    <row r="528">
+    <row r="528" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T528" s="8"/>
     </row>
-    <row r="529">
+    <row r="529" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T529" s="8"/>
     </row>
-    <row r="530">
+    <row r="530" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T530" s="8"/>
     </row>
-    <row r="531">
+    <row r="531" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T531" s="8"/>
     </row>
-    <row r="532">
+    <row r="532" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T532" s="8"/>
     </row>
-    <row r="533">
+    <row r="533" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T533" s="8"/>
     </row>
-    <row r="534">
+    <row r="534" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T534" s="8"/>
     </row>
-    <row r="535">
+    <row r="535" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T535" s="8"/>
     </row>
-    <row r="536">
+    <row r="536" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T536" s="8"/>
     </row>
-    <row r="537">
+    <row r="537" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T537" s="8"/>
     </row>
-    <row r="538">
+    <row r="538" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T538" s="8"/>
     </row>
-    <row r="539">
+    <row r="539" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T539" s="8"/>
     </row>
-    <row r="540">
+    <row r="540" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T540" s="8"/>
     </row>
-    <row r="541">
+    <row r="541" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T541" s="8"/>
     </row>
-    <row r="542">
+    <row r="542" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T542" s="8"/>
     </row>
-    <row r="543">
+    <row r="543" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T543" s="8"/>
     </row>
-    <row r="544">
+    <row r="544" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T544" s="8"/>
     </row>
-    <row r="545">
+    <row r="545" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T545" s="8"/>
     </row>
-    <row r="546">
+    <row r="546" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T546" s="8"/>
     </row>
-    <row r="547">
+    <row r="547" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T547" s="8"/>
     </row>
-    <row r="548">
+    <row r="548" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T548" s="8"/>
     </row>
-    <row r="549">
+    <row r="549" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T549" s="8"/>
     </row>
-    <row r="550">
+    <row r="550" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T550" s="8"/>
     </row>
-    <row r="551">
+    <row r="551" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T551" s="8"/>
     </row>
-    <row r="552">
+    <row r="552" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T552" s="8"/>
     </row>
-    <row r="553">
+    <row r="553" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T553" s="8"/>
     </row>
-    <row r="554">
+    <row r="554" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T554" s="8"/>
     </row>
-    <row r="555">
+    <row r="555" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T555" s="8"/>
     </row>
-    <row r="556">
+    <row r="556" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T556" s="8"/>
     </row>
-    <row r="557">
+    <row r="557" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T557" s="8"/>
     </row>
-    <row r="558">
+    <row r="558" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T558" s="8"/>
     </row>
-    <row r="559">
+    <row r="559" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T559" s="8"/>
     </row>
-    <row r="560">
+    <row r="560" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T560" s="8"/>
     </row>
-    <row r="561">
+    <row r="561" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T561" s="8"/>
     </row>
-    <row r="562">
+    <row r="562" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T562" s="8"/>
     </row>
-    <row r="563">
+    <row r="563" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T563" s="8"/>
     </row>
-    <row r="564">
+    <row r="564" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T564" s="8"/>
     </row>
-    <row r="565">
+    <row r="565" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T565" s="8"/>
     </row>
-    <row r="566">
+    <row r="566" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T566" s="8"/>
     </row>
-    <row r="567">
+    <row r="567" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T567" s="8"/>
     </row>
-    <row r="568">
+    <row r="568" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T568" s="8"/>
     </row>
-    <row r="569">
+    <row r="569" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T569" s="8"/>
     </row>
-    <row r="570">
+    <row r="570" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T570" s="8"/>
     </row>
-    <row r="571">
+    <row r="571" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T571" s="8"/>
     </row>
-    <row r="572">
+    <row r="572" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T572" s="8"/>
     </row>
-    <row r="573">
+    <row r="573" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T573" s="8"/>
     </row>
-    <row r="574">
+    <row r="574" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T574" s="8"/>
     </row>
-    <row r="575">
+    <row r="575" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T575" s="8"/>
     </row>
-    <row r="576">
+    <row r="576" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T576" s="8"/>
     </row>
-    <row r="577">
+    <row r="577" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T577" s="8"/>
     </row>
-    <row r="578">
+    <row r="578" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T578" s="8"/>
     </row>
-    <row r="579">
+    <row r="579" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T579" s="8"/>
     </row>
-    <row r="580">
+    <row r="580" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T580" s="8"/>
     </row>
-    <row r="581">
+    <row r="581" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T581" s="8"/>
     </row>
-    <row r="582">
+    <row r="582" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T582" s="8"/>
     </row>
-    <row r="583">
+    <row r="583" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T583" s="8"/>
     </row>
-    <row r="584">
+    <row r="584" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T584" s="8"/>
     </row>
-    <row r="585">
+    <row r="585" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T585" s="8"/>
     </row>
-    <row r="586">
+    <row r="586" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T586" s="8"/>
     </row>
-    <row r="587">
+    <row r="587" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T587" s="8"/>
     </row>
-    <row r="588">
+    <row r="588" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T588" s="8"/>
     </row>
-    <row r="589">
+    <row r="589" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T589" s="8"/>
     </row>
-    <row r="590">
+    <row r="590" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T590" s="8"/>
     </row>
-    <row r="591">
+    <row r="591" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T591" s="8"/>
     </row>
-    <row r="592">
+    <row r="592" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T592" s="8"/>
     </row>
-    <row r="593">
+    <row r="593" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T593" s="8"/>
     </row>
-    <row r="594">
+    <row r="594" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T594" s="8"/>
     </row>
-    <row r="595">
+    <row r="595" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T595" s="8"/>
     </row>
-    <row r="596">
+    <row r="596" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T596" s="8"/>
     </row>
-    <row r="597">
+    <row r="597" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T597" s="8"/>
     </row>
-    <row r="598">
+    <row r="598" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T598" s="8"/>
     </row>
-    <row r="599">
+    <row r="599" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T599" s="8"/>
     </row>
-    <row r="600">
+    <row r="600" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T600" s="8"/>
     </row>
-    <row r="601">
+    <row r="601" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T601" s="8"/>
     </row>
-    <row r="602">
+    <row r="602" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T602" s="8"/>
     </row>
-    <row r="603">
+    <row r="603" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T603" s="8"/>
     </row>
-    <row r="604">
+    <row r="604" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T604" s="8"/>
     </row>
-    <row r="605">
+    <row r="605" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T605" s="8"/>
     </row>
-    <row r="606">
+    <row r="606" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T606" s="8"/>
     </row>
-    <row r="607">
+    <row r="607" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T607" s="8"/>
     </row>
-    <row r="608">
+    <row r="608" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T608" s="8"/>
     </row>
-    <row r="609">
+    <row r="609" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T609" s="8"/>
     </row>
-    <row r="610">
+    <row r="610" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T610" s="8"/>
     </row>
-    <row r="611">
+    <row r="611" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T611" s="8"/>
     </row>
-    <row r="612">
+    <row r="612" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T612" s="8"/>
     </row>
-    <row r="613">
+    <row r="613" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T613" s="8"/>
     </row>
-    <row r="614">
+    <row r="614" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T614" s="8"/>
     </row>
-    <row r="615">
+    <row r="615" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T615" s="8"/>
     </row>
-    <row r="616">
+    <row r="616" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T616" s="8"/>
     </row>
-    <row r="617">
+    <row r="617" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T617" s="8"/>
     </row>
-    <row r="618">
+    <row r="618" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T618" s="8"/>
     </row>
-    <row r="619">
+    <row r="619" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T619" s="8"/>
     </row>
-    <row r="620">
+    <row r="620" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T620" s="8"/>
     </row>
-    <row r="621">
+    <row r="621" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T621" s="8"/>
     </row>
-    <row r="622">
+    <row r="622" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T622" s="8"/>
     </row>
-    <row r="623">
+    <row r="623" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T623" s="8"/>
     </row>
-    <row r="624">
+    <row r="624" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T624" s="8"/>
     </row>
-    <row r="625">
+    <row r="625" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T625" s="8"/>
     </row>
-    <row r="626">
+    <row r="626" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T626" s="8"/>
     </row>
-    <row r="627">
+    <row r="627" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T627" s="8"/>
     </row>
-    <row r="628">
+    <row r="628" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T628" s="8"/>
     </row>
-    <row r="629">
+    <row r="629" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T629" s="8"/>
     </row>
-    <row r="630">
+    <row r="630" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T630" s="8"/>
     </row>
-    <row r="631">
+    <row r="631" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T631" s="8"/>
     </row>
-    <row r="632">
+    <row r="632" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T632" s="8"/>
     </row>
-    <row r="633">
+    <row r="633" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T633" s="8"/>
     </row>
-    <row r="634">
+    <row r="634" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T634" s="8"/>
     </row>
-    <row r="635">
+    <row r="635" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T635" s="8"/>
     </row>
-    <row r="636">
+    <row r="636" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T636" s="8"/>
     </row>
-    <row r="637">
+    <row r="637" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T637" s="8"/>
     </row>
-    <row r="638">
+    <row r="638" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T638" s="8"/>
     </row>
-    <row r="639">
+    <row r="639" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T639" s="8"/>
     </row>
-    <row r="640">
+    <row r="640" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T640" s="8"/>
     </row>
-    <row r="641">
+    <row r="641" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T641" s="8"/>
     </row>
-    <row r="642">
+    <row r="642" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T642" s="8"/>
     </row>
-    <row r="643">
+    <row r="643" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T643" s="8"/>
     </row>
-    <row r="644">
+    <row r="644" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T644" s="8"/>
     </row>
-    <row r="645">
+    <row r="645" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T645" s="8"/>
     </row>
-    <row r="646">
+    <row r="646" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T646" s="8"/>
     </row>
-    <row r="647">
+    <row r="647" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T647" s="8"/>
     </row>
-    <row r="648">
+    <row r="648" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T648" s="8"/>
     </row>
-    <row r="649">
+    <row r="649" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T649" s="8"/>
     </row>
-    <row r="650">
+    <row r="650" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T650" s="8"/>
     </row>
-    <row r="651">
+    <row r="651" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T651" s="8"/>
     </row>
-    <row r="652">
+    <row r="652" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T652" s="8"/>
     </row>
-    <row r="653">
+    <row r="653" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T653" s="8"/>
     </row>
-    <row r="654">
+    <row r="654" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T654" s="8"/>
     </row>
-    <row r="655">
+    <row r="655" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T655" s="8"/>
     </row>
-    <row r="656">
+    <row r="656" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T656" s="8"/>
     </row>
-    <row r="657">
+    <row r="657" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T657" s="8"/>
     </row>
-    <row r="658">
+    <row r="658" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T658" s="8"/>
     </row>
-    <row r="659">
+    <row r="659" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T659" s="8"/>
     </row>
-    <row r="660">
+    <row r="660" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T660" s="8"/>
     </row>
-    <row r="661">
+    <row r="661" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T661" s="8"/>
     </row>
-    <row r="662">
+    <row r="662" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T662" s="8"/>
     </row>
-    <row r="663">
+    <row r="663" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T663" s="8"/>
     </row>
-    <row r="664">
+    <row r="664" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T664" s="8"/>
     </row>
-    <row r="665">
+    <row r="665" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T665" s="8"/>
     </row>
-    <row r="666">
+    <row r="666" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T666" s="8"/>
     </row>
-    <row r="667">
+    <row r="667" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T667" s="8"/>
     </row>
-    <row r="668">
+    <row r="668" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T668" s="8"/>
     </row>
-    <row r="669">
+    <row r="669" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T669" s="8"/>
     </row>
-    <row r="670">
+    <row r="670" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T670" s="8"/>
     </row>
-    <row r="671">
+    <row r="671" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T671" s="8"/>
     </row>
-    <row r="672">
+    <row r="672" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T672" s="8"/>
     </row>
-    <row r="673">
+    <row r="673" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T673" s="8"/>
     </row>
-    <row r="674">
+    <row r="674" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T674" s="8"/>
     </row>
-    <row r="675">
+    <row r="675" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T675" s="8"/>
     </row>
-    <row r="676">
+    <row r="676" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T676" s="8"/>
     </row>
-    <row r="677">
+    <row r="677" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T677" s="8"/>
     </row>
-    <row r="678">
+    <row r="678" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T678" s="8"/>
     </row>
-    <row r="679">
+    <row r="679" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T679" s="8"/>
     </row>
-    <row r="680">
+    <row r="680" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T680" s="8"/>
     </row>
-    <row r="681">
+    <row r="681" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T681" s="8"/>
     </row>
-    <row r="682">
+    <row r="682" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T682" s="8"/>
     </row>
-    <row r="683">
+    <row r="683" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T683" s="8"/>
     </row>
-    <row r="684">
+    <row r="684" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T684" s="8"/>
     </row>
-    <row r="685">
+    <row r="685" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T685" s="8"/>
     </row>
-    <row r="686">
+    <row r="686" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T686" s="8"/>
     </row>
-    <row r="687">
+    <row r="687" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T687" s="8"/>
     </row>
-    <row r="688">
+    <row r="688" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T688" s="8"/>
     </row>
-    <row r="689">
+    <row r="689" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T689" s="8"/>
     </row>
-    <row r="690">
+    <row r="690" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T690" s="8"/>
     </row>
-    <row r="691">
+    <row r="691" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T691" s="8"/>
     </row>
-    <row r="692">
+    <row r="692" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T692" s="8"/>
     </row>
-    <row r="693">
+    <row r="693" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T693" s="8"/>
     </row>
-    <row r="694">
+    <row r="694" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T694" s="8"/>
     </row>
-    <row r="695">
+    <row r="695" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T695" s="8"/>
     </row>
-    <row r="696">
+    <row r="696" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T696" s="8"/>
     </row>
-    <row r="697">
+    <row r="697" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T697" s="8"/>
     </row>
-    <row r="698">
+    <row r="698" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T698" s="8"/>
     </row>
-    <row r="699">
+    <row r="699" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T699" s="8"/>
     </row>
-    <row r="700">
+    <row r="700" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T700" s="8"/>
     </row>
-    <row r="701">
+    <row r="701" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T701" s="8"/>
     </row>
-    <row r="702">
+    <row r="702" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T702" s="8"/>
     </row>
-    <row r="703">
+    <row r="703" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T703" s="8"/>
     </row>
-    <row r="704">
+    <row r="704" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T704" s="8"/>
     </row>
-    <row r="705">
+    <row r="705" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T705" s="8"/>
     </row>
-    <row r="706">
+    <row r="706" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T706" s="8"/>
     </row>
-    <row r="707">
+    <row r="707" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T707" s="8"/>
     </row>
-    <row r="708">
+    <row r="708" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T708" s="8"/>
     </row>
-    <row r="709">
+    <row r="709" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T709" s="8"/>
     </row>
-    <row r="710">
+    <row r="710" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T710" s="8"/>
     </row>
-    <row r="711">
+    <row r="711" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T711" s="8"/>
     </row>
-    <row r="712">
+    <row r="712" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T712" s="8"/>
     </row>
-    <row r="713">
+    <row r="713" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T713" s="8"/>
     </row>
-    <row r="714">
+    <row r="714" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T714" s="8"/>
     </row>
-    <row r="715">
+    <row r="715" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T715" s="8"/>
     </row>
-    <row r="716">
+    <row r="716" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T716" s="8"/>
     </row>
-    <row r="717">
+    <row r="717" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T717" s="8"/>
     </row>
-    <row r="718">
+    <row r="718" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T718" s="8"/>
     </row>
-    <row r="719">
+    <row r="719" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T719" s="8"/>
     </row>
-    <row r="720">
+    <row r="720" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T720" s="8"/>
     </row>
-    <row r="721">
+    <row r="721" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T721" s="8"/>
     </row>
-    <row r="722">
+    <row r="722" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T722" s="8"/>
     </row>
-    <row r="723">
+    <row r="723" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T723" s="8"/>
     </row>
-    <row r="724">
+    <row r="724" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T724" s="8"/>
     </row>
-    <row r="725">
+    <row r="725" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T725" s="8"/>
     </row>
-    <row r="726">
+    <row r="726" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T726" s="8"/>
     </row>
-    <row r="727">
+    <row r="727" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T727" s="8"/>
     </row>
-    <row r="728">
+    <row r="728" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T728" s="8"/>
     </row>
-    <row r="729">
+    <row r="729" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T729" s="8"/>
     </row>
-    <row r="730">
+    <row r="730" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T730" s="8"/>
     </row>
-    <row r="731">
+    <row r="731" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T731" s="8"/>
     </row>
-    <row r="732">
+    <row r="732" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T732" s="8"/>
     </row>
-    <row r="733">
+    <row r="733" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T733" s="8"/>
     </row>
-    <row r="734">
+    <row r="734" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T734" s="8"/>
     </row>
-    <row r="735">
+    <row r="735" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T735" s="8"/>
     </row>
-    <row r="736">
+    <row r="736" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T736" s="8"/>
     </row>
-    <row r="737">
+    <row r="737" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T737" s="8"/>
     </row>
-    <row r="738">
+    <row r="738" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T738" s="8"/>
     </row>
-    <row r="739">
+    <row r="739" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T739" s="8"/>
     </row>
-    <row r="740">
+    <row r="740" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T740" s="8"/>
     </row>
-    <row r="741">
+    <row r="741" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T741" s="8"/>
     </row>
-    <row r="742">
+    <row r="742" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T742" s="8"/>
     </row>
-    <row r="743">
+    <row r="743" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T743" s="8"/>
     </row>
-    <row r="744">
+    <row r="744" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T744" s="8"/>
     </row>
-    <row r="745">
+    <row r="745" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T745" s="8"/>
     </row>
-    <row r="746">
+    <row r="746" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T746" s="8"/>
     </row>
-    <row r="747">
+    <row r="747" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T747" s="8"/>
     </row>
-    <row r="748">
+    <row r="748" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T748" s="8"/>
     </row>
-    <row r="749">
+    <row r="749" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T749" s="8"/>
     </row>
-    <row r="750">
+    <row r="750" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T750" s="8"/>
     </row>
-    <row r="751">
+    <row r="751" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T751" s="8"/>
     </row>
-    <row r="752">
+    <row r="752" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T752" s="8"/>
     </row>
-    <row r="753">
+    <row r="753" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T753" s="8"/>
     </row>
-    <row r="754">
+    <row r="754" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T754" s="8"/>
     </row>
-    <row r="755">
+    <row r="755" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T755" s="8"/>
     </row>
-    <row r="756">
+    <row r="756" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T756" s="8"/>
     </row>
-    <row r="757">
+    <row r="757" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T757" s="8"/>
     </row>
-    <row r="758">
+    <row r="758" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T758" s="8"/>
     </row>
-    <row r="759">
+    <row r="759" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T759" s="8"/>
     </row>
-    <row r="760">
+    <row r="760" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T760" s="8"/>
     </row>
-    <row r="761">
+    <row r="761" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T761" s="8"/>
     </row>
-    <row r="762">
+    <row r="762" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T762" s="8"/>
     </row>
-    <row r="763">
+    <row r="763" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T763" s="8"/>
     </row>
-    <row r="764">
+    <row r="764" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T764" s="8"/>
     </row>
-    <row r="765">
+    <row r="765" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T765" s="8"/>
     </row>
-    <row r="766">
+    <row r="766" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T766" s="8"/>
     </row>
-    <row r="767">
+    <row r="767" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T767" s="8"/>
     </row>
-    <row r="768">
+    <row r="768" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T768" s="8"/>
     </row>
-    <row r="769">
+    <row r="769" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T769" s="8"/>
     </row>
-    <row r="770">
+    <row r="770" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T770" s="8"/>
     </row>
-    <row r="771">
+    <row r="771" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T771" s="8"/>
     </row>
-    <row r="772">
+    <row r="772" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T772" s="8"/>
     </row>
-    <row r="773">
+    <row r="773" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T773" s="8"/>
     </row>
-    <row r="774">
+    <row r="774" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T774" s="8"/>
     </row>
-    <row r="775">
+    <row r="775" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T775" s="8"/>
     </row>
-    <row r="776">
+    <row r="776" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T776" s="8"/>
     </row>
-    <row r="777">
+    <row r="777" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T777" s="8"/>
     </row>
-    <row r="778">
+    <row r="778" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T778" s="8"/>
     </row>
-    <row r="779">
+    <row r="779" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T779" s="8"/>
     </row>
-    <row r="780">
+    <row r="780" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T780" s="8"/>
     </row>
-    <row r="781">
+    <row r="781" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T781" s="8"/>
     </row>
-    <row r="782">
+    <row r="782" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T782" s="8"/>
     </row>
-    <row r="783">
+    <row r="783" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T783" s="8"/>
     </row>
-    <row r="784">
+    <row r="784" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T784" s="8"/>
     </row>
-    <row r="785">
+    <row r="785" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T785" s="8"/>
     </row>
-    <row r="786">
+    <row r="786" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T786" s="8"/>
     </row>
-    <row r="787">
+    <row r="787" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T787" s="8"/>
     </row>
-    <row r="788">
+    <row r="788" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T788" s="8"/>
     </row>
-    <row r="789">
+    <row r="789" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T789" s="8"/>
     </row>
-    <row r="790">
+    <row r="790" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T790" s="8"/>
     </row>
-    <row r="791">
+    <row r="791" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T791" s="8"/>
     </row>
-    <row r="792">
+    <row r="792" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T792" s="8"/>
     </row>
-    <row r="793">
+    <row r="793" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T793" s="8"/>
     </row>
-    <row r="794">
+    <row r="794" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T794" s="8"/>
     </row>
-    <row r="795">
+    <row r="795" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T795" s="8"/>
     </row>
-    <row r="796">
+    <row r="796" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T796" s="8"/>
     </row>
-    <row r="797">
+    <row r="797" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T797" s="8"/>
     </row>
-    <row r="798">
+    <row r="798" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T798" s="8"/>
     </row>
-    <row r="799">
+    <row r="799" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T799" s="8"/>
     </row>
-    <row r="800">
+    <row r="800" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T800" s="8"/>
     </row>
-    <row r="801">
+    <row r="801" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T801" s="8"/>
     </row>
-    <row r="802">
+    <row r="802" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T802" s="8"/>
     </row>
-    <row r="803">
+    <row r="803" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T803" s="8"/>
     </row>
-    <row r="804">
+    <row r="804" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T804" s="8"/>
     </row>
-    <row r="805">
+    <row r="805" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T805" s="8"/>
     </row>
-    <row r="806">
+    <row r="806" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T806" s="8"/>
     </row>
-    <row r="807">
+    <row r="807" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T807" s="8"/>
     </row>
-    <row r="808">
+    <row r="808" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T808" s="8"/>
     </row>
-    <row r="809">
+    <row r="809" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T809" s="8"/>
     </row>
-    <row r="810">
+    <row r="810" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T810" s="8"/>
     </row>
-    <row r="811">
+    <row r="811" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T811" s="8"/>
     </row>
-    <row r="812">
+    <row r="812" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T812" s="8"/>
     </row>
-    <row r="813">
+    <row r="813" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T813" s="8"/>
     </row>
-    <row r="814">
+    <row r="814" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T814" s="8"/>
     </row>
-    <row r="815">
+    <row r="815" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T815" s="8"/>
     </row>
-    <row r="816">
+    <row r="816" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T816" s="8"/>
     </row>
-    <row r="817">
+    <row r="817" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T817" s="8"/>
     </row>
-    <row r="818">
+    <row r="818" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T818" s="8"/>
     </row>
-    <row r="819">
+    <row r="819" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T819" s="8"/>
     </row>
-    <row r="820">
+    <row r="820" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T820" s="8"/>
     </row>
-    <row r="821">
+    <row r="821" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T821" s="8"/>
     </row>
-    <row r="822">
+    <row r="822" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T822" s="8"/>
     </row>
-    <row r="823">
+    <row r="823" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T823" s="8"/>
     </row>
-    <row r="824">
+    <row r="824" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T824" s="8"/>
     </row>
-    <row r="825">
+    <row r="825" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T825" s="8"/>
     </row>
-    <row r="826">
+    <row r="826" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T826" s="8"/>
     </row>
-    <row r="827">
+    <row r="827" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T827" s="8"/>
     </row>
-    <row r="828">
+    <row r="828" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T828" s="8"/>
     </row>
-    <row r="829">
+    <row r="829" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T829" s="8"/>
     </row>
-    <row r="830">
+    <row r="830" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T830" s="8"/>
     </row>
-    <row r="831">
+    <row r="831" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T831" s="8"/>
     </row>
-    <row r="832">
+    <row r="832" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T832" s="8"/>
     </row>
-    <row r="833">
+    <row r="833" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T833" s="8"/>
     </row>
-    <row r="834">
+    <row r="834" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T834" s="8"/>
     </row>
-    <row r="835">
+    <row r="835" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T835" s="8"/>
     </row>
-    <row r="836">
+    <row r="836" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T836" s="8"/>
     </row>
-    <row r="837">
+    <row r="837" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T837" s="8"/>
     </row>
-    <row r="838">
+    <row r="838" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T838" s="8"/>
     </row>
-    <row r="839">
+    <row r="839" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T839" s="8"/>
     </row>
-    <row r="840">
+    <row r="840" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T840" s="8"/>
     </row>
-    <row r="841">
+    <row r="841" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T841" s="8"/>
     </row>
-    <row r="842">
+    <row r="842" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T842" s="8"/>
     </row>
-    <row r="843">
+    <row r="843" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T843" s="8"/>
     </row>
-    <row r="844">
+    <row r="844" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T844" s="8"/>
     </row>
-    <row r="845">
+    <row r="845" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T845" s="8"/>
     </row>
-    <row r="846">
+    <row r="846" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T846" s="8"/>
     </row>
-    <row r="847">
+    <row r="847" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T847" s="8"/>
     </row>
-    <row r="848">
+    <row r="848" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T848" s="8"/>
     </row>
-    <row r="849">
+    <row r="849" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T849" s="8"/>
     </row>
-    <row r="850">
+    <row r="850" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T850" s="8"/>
     </row>
-    <row r="851">
+    <row r="851" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T851" s="8"/>
     </row>
-    <row r="852">
+    <row r="852" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T852" s="8"/>
     </row>
-    <row r="853">
+    <row r="853" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T853" s="8"/>
     </row>
-    <row r="854">
+    <row r="854" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T854" s="8"/>
     </row>
-    <row r="855">
+    <row r="855" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T855" s="8"/>
     </row>
-    <row r="856">
+    <row r="856" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T856" s="8"/>
     </row>
-    <row r="857">
+    <row r="857" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T857" s="8"/>
     </row>
-    <row r="858">
+    <row r="858" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T858" s="8"/>
     </row>
-    <row r="859">
+    <row r="859" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T859" s="8"/>
     </row>
-    <row r="860">
+    <row r="860" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T860" s="8"/>
     </row>
-    <row r="861">
+    <row r="861" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T861" s="8"/>
     </row>
-    <row r="862">
+    <row r="862" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T862" s="8"/>
     </row>
-    <row r="863">
+    <row r="863" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T863" s="8"/>
     </row>
-    <row r="864">
+    <row r="864" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T864" s="8"/>
     </row>
-    <row r="865">
+    <row r="865" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T865" s="8"/>
     </row>
-    <row r="866">
+    <row r="866" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T866" s="8"/>
     </row>
-    <row r="867">
+    <row r="867" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T867" s="8"/>
     </row>
-    <row r="868">
+    <row r="868" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T868" s="8"/>
     </row>
-    <row r="869">
+    <row r="869" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T869" s="8"/>
     </row>
-    <row r="870">
+    <row r="870" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T870" s="8"/>
     </row>
-    <row r="871">
+    <row r="871" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T871" s="8"/>
     </row>
-    <row r="872">
+    <row r="872" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T872" s="8"/>
     </row>
-    <row r="873">
+    <row r="873" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T873" s="8"/>
     </row>
-    <row r="874">
+    <row r="874" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T874" s="8"/>
     </row>
-    <row r="875">
+    <row r="875" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T875" s="8"/>
     </row>
-    <row r="876">
+    <row r="876" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T876" s="8"/>
     </row>
-    <row r="877">
+    <row r="877" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T877" s="8"/>
     </row>
-    <row r="878">
+    <row r="878" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T878" s="8"/>
     </row>
-    <row r="879">
+    <row r="879" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T879" s="8"/>
     </row>
-    <row r="880">
+    <row r="880" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T880" s="8"/>
     </row>
-    <row r="881">
+    <row r="881" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T881" s="8"/>
     </row>
-    <row r="882">
+    <row r="882" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T882" s="8"/>
     </row>
-    <row r="883">
+    <row r="883" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T883" s="8"/>
     </row>
-    <row r="884">
+    <row r="884" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T884" s="8"/>
     </row>
-    <row r="885">
+    <row r="885" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T885" s="8"/>
     </row>
-    <row r="886">
+    <row r="886" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T886" s="8"/>
     </row>
-    <row r="887">
+    <row r="887" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T887" s="8"/>
     </row>
-    <row r="888">
+    <row r="888" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T888" s="8"/>
     </row>
-    <row r="889">
+    <row r="889" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T889" s="8"/>
     </row>
-    <row r="890">
+    <row r="890" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T890" s="8"/>
     </row>
-    <row r="891">
+    <row r="891" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T891" s="8"/>
     </row>
-    <row r="892">
+    <row r="892" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T892" s="8"/>
     </row>
-    <row r="893">
+    <row r="893" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T893" s="8"/>
     </row>
-    <row r="894">
+    <row r="894" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T894" s="8"/>
     </row>
-    <row r="895">
+    <row r="895" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T895" s="8"/>
     </row>
-    <row r="896">
+    <row r="896" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T896" s="8"/>
     </row>
-    <row r="897">
+    <row r="897" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T897" s="8"/>
     </row>
-    <row r="898">
+    <row r="898" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T898" s="8"/>
     </row>
-    <row r="899">
+    <row r="899" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T899" s="8"/>
     </row>
-    <row r="900">
+    <row r="900" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T900" s="8"/>
     </row>
-    <row r="901">
+    <row r="901" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T901" s="8"/>
     </row>
-    <row r="902">
+    <row r="902" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T902" s="8"/>
     </row>
-    <row r="903">
+    <row r="903" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T903" s="8"/>
     </row>
-    <row r="904">
+    <row r="904" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T904" s="8"/>
     </row>
-    <row r="905">
+    <row r="905" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T905" s="8"/>
     </row>
-    <row r="906">
+    <row r="906" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T906" s="8"/>
     </row>
-    <row r="907">
+    <row r="907" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T907" s="8"/>
     </row>
-    <row r="908">
+    <row r="908" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T908" s="8"/>
     </row>
-    <row r="909">
+    <row r="909" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T909" s="8"/>
     </row>
-    <row r="910">
+    <row r="910" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T910" s="8"/>
     </row>
-    <row r="911">
+    <row r="911" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T911" s="8"/>
     </row>
-    <row r="912">
+    <row r="912" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T912" s="8"/>
     </row>
-    <row r="913">
+    <row r="913" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T913" s="8"/>
     </row>
-    <row r="914">
+    <row r="914" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T914" s="8"/>
     </row>
-    <row r="915">
+    <row r="915" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T915" s="8"/>
     </row>
-    <row r="916">
+    <row r="916" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T916" s="8"/>
     </row>
-    <row r="917">
+    <row r="917" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T917" s="8"/>
     </row>
-    <row r="918">
+    <row r="918" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T918" s="8"/>
     </row>
-    <row r="919">
+    <row r="919" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T919" s="8"/>
     </row>
-    <row r="920">
+    <row r="920" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T920" s="8"/>
     </row>
-    <row r="921">
+    <row r="921" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T921" s="8"/>
     </row>
-    <row r="922">
+    <row r="922" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T922" s="8"/>
     </row>
-    <row r="923">
+    <row r="923" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T923" s="8"/>
     </row>
-    <row r="924">
+    <row r="924" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T924" s="8"/>
     </row>
-    <row r="925">
+    <row r="925" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T925" s="8"/>
     </row>
-    <row r="926">
+    <row r="926" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T926" s="8"/>
     </row>
-    <row r="927">
+    <row r="927" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T927" s="8"/>
     </row>
-    <row r="928">
+    <row r="928" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T928" s="8"/>
     </row>
-    <row r="929">
+    <row r="929" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T929" s="8"/>
     </row>
-    <row r="930">
+    <row r="930" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T930" s="8"/>
     </row>
-    <row r="931">
+    <row r="931" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T931" s="8"/>
     </row>
-    <row r="932">
+    <row r="932" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T932" s="8"/>
     </row>
-    <row r="933">
+    <row r="933" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T933" s="8"/>
     </row>
-    <row r="934">
+    <row r="934" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T934" s="8"/>
     </row>
-    <row r="935">
+    <row r="935" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T935" s="8"/>
     </row>
-    <row r="936">
+    <row r="936" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T936" s="8"/>
     </row>
-    <row r="937">
+    <row r="937" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T937" s="8"/>
     </row>
-    <row r="938">
+    <row r="938" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T938" s="8"/>
     </row>
-    <row r="939">
+    <row r="939" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T939" s="8"/>
     </row>
-    <row r="940">
+    <row r="940" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T940" s="8"/>
     </row>
-    <row r="941">
+    <row r="941" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T941" s="8"/>
     </row>
-    <row r="942">
+    <row r="942" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T942" s="8"/>
     </row>
-    <row r="943">
+    <row r="943" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T943" s="8"/>
     </row>
-    <row r="944">
+    <row r="944" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T944" s="8"/>
     </row>
-    <row r="945">
+    <row r="945" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T945" s="8"/>
     </row>
-    <row r="946">
+    <row r="946" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T946" s="8"/>
     </row>
-    <row r="947">
+    <row r="947" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T947" s="8"/>
     </row>
-    <row r="948">
+    <row r="948" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T948" s="8"/>
     </row>
-    <row r="949">
+    <row r="949" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T949" s="8"/>
     </row>
-    <row r="950">
+    <row r="950" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T950" s="8"/>
     </row>
-    <row r="951">
+    <row r="951" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T951" s="8"/>
     </row>
-    <row r="952">
+    <row r="952" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T952" s="8"/>
     </row>
-    <row r="953">
+    <row r="953" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T953" s="8"/>
     </row>
-    <row r="954">
+    <row r="954" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T954" s="8"/>
     </row>
-    <row r="955">
+    <row r="955" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T955" s="8"/>
     </row>
-    <row r="956">
+    <row r="956" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T956" s="8"/>
     </row>
-    <row r="957">
+    <row r="957" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T957" s="8"/>
     </row>
-    <row r="958">
+    <row r="958" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T958" s="8"/>
     </row>
-    <row r="959">
+    <row r="959" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T959" s="8"/>
     </row>
-    <row r="960">
+    <row r="960" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T960" s="8"/>
     </row>
-    <row r="961">
+    <row r="961" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T961" s="8"/>
     </row>
-    <row r="962">
+    <row r="962" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T962" s="8"/>
     </row>
-    <row r="963">
+    <row r="963" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T963" s="8"/>
     </row>
-    <row r="964">
+    <row r="964" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T964" s="8"/>
     </row>
-    <row r="965">
+    <row r="965" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T965" s="8"/>
     </row>
-    <row r="966">
+    <row r="966" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T966" s="8"/>
     </row>
-    <row r="967">
+    <row r="967" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T967" s="8"/>
     </row>
-    <row r="968">
+    <row r="968" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T968" s="8"/>
     </row>
-    <row r="969">
+    <row r="969" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T969" s="8"/>
     </row>
-    <row r="970">
+    <row r="970" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T970" s="8"/>
     </row>
-    <row r="971">
+    <row r="971" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T971" s="8"/>
     </row>
-    <row r="972">
+    <row r="972" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T972" s="8"/>
     </row>
-    <row r="973">
+    <row r="973" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T973" s="8"/>
     </row>
-    <row r="974">
+    <row r="974" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T974" s="8"/>
     </row>
-    <row r="975">
+    <row r="975" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T975" s="8"/>
     </row>
-    <row r="976">
+    <row r="976" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T976" s="8"/>
     </row>
-    <row r="977">
+    <row r="977" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T977" s="8"/>
     </row>
-    <row r="978">
+    <row r="978" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T978" s="8"/>
     </row>
-    <row r="979">
+    <row r="979" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T979" s="8"/>
     </row>
-    <row r="980">
+    <row r="980" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T980" s="8"/>
     </row>
-    <row r="981">
+    <row r="981" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T981" s="8"/>
     </row>
-    <row r="982">
+    <row r="982" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T982" s="8"/>
     </row>
-    <row r="983">
+    <row r="983" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T983" s="8"/>
     </row>
-    <row r="984">
+    <row r="984" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T984" s="8"/>
     </row>
-    <row r="985">
+    <row r="985" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T985" s="8"/>
     </row>
-    <row r="986">
+    <row r="986" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T986" s="8"/>
     </row>
-    <row r="987">
+    <row r="987" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T987" s="8"/>
     </row>
-    <row r="988">
+    <row r="988" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T988" s="8"/>
     </row>
-    <row r="989">
+    <row r="989" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T989" s="8"/>
     </row>
-    <row r="990">
+    <row r="990" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T990" s="8"/>
     </row>
-    <row r="991">
+    <row r="991" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T991" s="8"/>
     </row>
-    <row r="992">
+    <row r="992" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T992" s="8"/>
     </row>
-    <row r="993">
+    <row r="993" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T993" s="8"/>
     </row>
-    <row r="994">
+    <row r="994" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T994" s="8"/>
     </row>
-    <row r="995">
+    <row r="995" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T995" s="8"/>
     </row>
-    <row r="996">
+    <row r="996" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T996" s="8"/>
     </row>
-    <row r="997">
+    <row r="997" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T997" s="8"/>
     </row>
+    <row r="998" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="T998" s="8"/>
+    </row>
+    <row r="999" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="T999" s="8"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Ant Farm/ImageJ_Analysis.xlsx
+++ b/Data/Ant Farm/ImageJ_Analysis.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="138">
   <si>
     <t>Time Series</t>
   </si>
@@ -281,9 +281,6 @@
     <t>t168_5B</t>
   </si>
   <si>
-    <t>burial - pending- difficulty in selecting sediment- too tiny</t>
-  </si>
-  <si>
     <t>t168_6A</t>
   </si>
   <si>
@@ -432,6 +429,12 @@
   </si>
   <si>
     <t>t_336_6B</t>
+  </si>
+  <si>
+    <t>t56_5B</t>
+  </si>
+  <si>
+    <t>t168_1A</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A1:AI999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1407,7 @@
     <col min="20" max="20" width="59.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="13" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="13" x14ac:dyDescent="0.3">
       <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1922,7 +1925,7 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1951,7 +1954,7 @@
       </c>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
@@ -1990,7 +1993,7 @@
       </c>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F21" s="4" t="s">
         <v>47</v>
       </c>
@@ -2121,394 +2124,391 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>45876</v>
+      <c r="A32" s="16">
+        <v>45907</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13.067</v>
+      </c>
+      <c r="E32" s="1">
+        <v>13.576000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>14.898</v>
+      </c>
+      <c r="G32" s="10">
+        <f>AVERAGE(D32:F32)</f>
+        <v>13.847</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1">
-        <v>14.015000000000001</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>45907</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16.756</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17.071000000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <v>17.701000000000001</v>
+      </c>
+      <c r="G33" s="10">
+        <f>AVERAGE(D33:F33)</f>
+        <v>17.175999999999998</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="10">
-        <f t="shared" ref="G32" si="1">AVERAGE(D32:F32)</f>
-        <v>14.015000000000001</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="J32" s="1">
-        <v>96.042000000000002</v>
-      </c>
-      <c r="K32" s="1">
-        <v>23</v>
-      </c>
-      <c r="L32" s="1">
-        <v>147</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1">
-        <v>3.5649999999999999</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2234</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>1634</v>
-      </c>
-      <c r="R32" s="1">
-        <v>3.24</v>
-      </c>
-      <c r="S32" s="1">
-        <v>9</v>
-      </c>
-      <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>45876</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1">
-        <v>15.478999999999999</v>
-      </c>
-      <c r="E33" s="1">
-        <v>15.035</v>
-      </c>
-      <c r="F33" s="1">
-        <v>19.091999999999999</v>
-      </c>
-      <c r="G33" s="10">
-        <f t="shared" ref="G33" si="2">AVERAGE(D33:F33)</f>
-        <v>16.53533333333333</v>
-      </c>
-      <c r="I33" s="1">
-        <v>17.745000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>93.156000000000006</v>
-      </c>
-      <c r="K33" s="1">
-        <v>26</v>
-      </c>
-      <c r="L33" s="1">
-        <v>132</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1">
-        <v>13.506</v>
-      </c>
-      <c r="P33" s="1">
-        <v>742</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1715</v>
-      </c>
-      <c r="R33" s="1">
-        <v>175.54400000000001</v>
-      </c>
-      <c r="S33" s="1">
-        <v>2.2189999999999999</v>
-      </c>
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>45876</v>
+      <c r="A34" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
+      </c>
+      <c r="D34" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>17.27</v>
+      </c>
+      <c r="F34" s="1">
+        <v>18.242999999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" ref="G34:G39" si="1">AVERAGE(E34,F34)</f>
+        <v>17.756499999999999</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>45876</v>
+      <c r="A35" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1">
-        <v>13.691000000000001</v>
+        <v>16.942</v>
       </c>
       <c r="E35" s="1">
-        <v>13.926</v>
+        <v>17.238</v>
       </c>
       <c r="F35" s="1">
-        <v>13.691000000000001</v>
+        <v>16.393000000000001</v>
       </c>
       <c r="G35" s="10">
-        <f>AVERAGE(D35,E35,F35)</f>
-        <v>13.769333333333334</v>
+        <f t="shared" si="1"/>
+        <v>16.8155</v>
       </c>
       <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>8.0489999999999995</v>
+      </c>
+      <c r="J35" s="1">
+        <v>72.441000000000003</v>
+      </c>
+      <c r="K35" s="1">
+        <v>31</v>
+      </c>
+      <c r="L35" s="1">
+        <v>398</v>
+      </c>
+      <c r="O35" s="1">
+        <v>16.239000000000001</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1390</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3832</v>
+      </c>
+      <c r="R35" s="1">
+        <v>180.39</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15.728999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16.757000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="1"/>
+        <v>16.9285</v>
+      </c>
+      <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="J35" s="1">
-        <v>110.52200000000001</v>
-      </c>
-      <c r="K35" s="1">
-        <v>17</v>
-      </c>
-      <c r="L35" s="1">
-        <v>253</v>
-      </c>
-      <c r="M35" s="1">
-        <v>13.845000000000001</v>
-      </c>
-      <c r="N35" s="1">
-        <v>12.522</v>
-      </c>
-      <c r="O35" s="1">
-        <v>9.0419999999999998</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1375</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1904</v>
-      </c>
-      <c r="R35" s="1">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="S35" s="1">
-        <v>1.288</v>
-      </c>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>45876</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="1">
-        <v>16.849</v>
-      </c>
-      <c r="E36" s="1">
-        <v>13.212</v>
-      </c>
-      <c r="F36" s="1">
-        <v>15.818</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" ref="G36:G50" si="3">AVERAGE(D36:F36)</f>
-        <v>15.292999999999999</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="J36" s="1">
+        <v>66.186000000000007</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>225</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="P36" s="1">
+        <v>220</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1825</v>
+      </c>
+      <c r="R36" s="1">
+        <v>179.51400000000001</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.749</v>
+      </c>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16.959</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16.36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>17.347000000000001</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="1"/>
+        <v>16.8535</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>71.146500000000003</v>
+      </c>
+      <c r="K37" s="1">
+        <v>49</v>
+      </c>
+      <c r="L37" s="1">
+        <v>217</v>
+      </c>
+      <c r="O37" s="1">
+        <v>5.7969999999999997</v>
+      </c>
+      <c r="P37" s="1">
+        <v>529</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4227</v>
+      </c>
+      <c r="R37" s="1">
+        <v>215.398</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>45876</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>14.05</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="3"/>
-        <v>14.216666666666669</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="E38" s="1">
+        <v>19</v>
+      </c>
+      <c r="F38" s="1">
+        <v>15.333</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="1"/>
+        <v>17.166499999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="J38" s="1">
+        <v>68.355999999999995</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>255</v>
+      </c>
+      <c r="O38" s="1">
+        <v>8.3290000000000006</v>
+      </c>
+      <c r="P38" s="1">
+        <v>942</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1932</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>45907</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1">
-        <v>13.067</v>
-      </c>
-      <c r="E38" s="1">
-        <v>13.576000000000001</v>
-      </c>
-      <c r="F38" s="1">
-        <v>14.898</v>
-      </c>
-      <c r="G38" s="10">
-        <f t="shared" si="3"/>
-        <v>13.847</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <v>45907</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1">
-        <v>15.442</v>
-      </c>
       <c r="E39" s="1">
-        <v>14.821999999999999</v>
+        <v>17.085999999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>17.425999999999998</v>
+        <v>15.371</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="3"/>
-        <v>15.896666666666667</v>
+        <f t="shared" si="1"/>
+        <v>16.2285</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>0.72699999999999998</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="J39" s="1">
-        <v>85.596999999999994</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="K39" s="1">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1">
-        <v>185</v>
-      </c>
-      <c r="O39" s="18">
-        <v>2.113</v>
-      </c>
-      <c r="P39" s="18">
-        <v>1817</v>
-      </c>
-      <c r="Q39" s="18">
-        <v>1600</v>
-      </c>
-      <c r="R39" s="18">
-        <v>11.64</v>
-      </c>
-      <c r="S39" s="18">
-        <v>0.58899999999999997</v>
+        <v>121</v>
+      </c>
+      <c r="O39" s="1">
+        <v>4.5469999999999997</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1735</v>
+      </c>
+      <c r="R39" s="1">
+        <v>170.04900000000001</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1.9730000000000001</v>
       </c>
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <v>45876</v>
+        <v>45907</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1">
-        <v>15.263</v>
+        <v>15.61</v>
       </c>
       <c r="E40" s="1">
-        <v>14.122</v>
+        <v>13.138</v>
       </c>
       <c r="F40" s="1">
-        <v>14.281000000000001</v>
+        <v>12.553000000000001</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="3"/>
-        <v>14.555333333333332</v>
+        <f t="shared" ref="G40:G45" si="2">AVERAGE(D40:F40)</f>
+        <v>13.767000000000001</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>43</v>
@@ -2523,20 +2523,20 @@
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1">
-        <v>15.429</v>
+        <v>16.838999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>17.713999999999999</v>
+        <v>16.581</v>
       </c>
       <c r="F41" s="1">
-        <v>15.492000000000001</v>
+        <v>16.253</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="3"/>
-        <v>16.21166666666667</v>
+        <f t="shared" si="2"/>
+        <v>16.557666666666666</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>43</v>
@@ -2545,60 +2545,58 @@
     </row>
     <row r="42" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <v>45876</v>
+        <v>45907</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1">
-        <v>16.183</v>
+        <v>15.442</v>
       </c>
       <c r="E42" s="1">
-        <v>17.577000000000002</v>
+        <v>14.821999999999999</v>
       </c>
       <c r="F42" s="1">
-        <v>16.864999999999998</v>
+        <v>17.425999999999998</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="3"/>
-        <v>16.875</v>
+        <f t="shared" si="2"/>
+        <v>15.896666666666667</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="10">
-        <v>3.476</v>
+      <c r="I42" s="1">
+        <v>0.72699999999999998</v>
       </c>
       <c r="J42" s="1">
-        <v>101.925</v>
-      </c>
-      <c r="K42" s="10">
-        <v>204</v>
-      </c>
-      <c r="L42" s="10">
-        <v>404</v>
-      </c>
-      <c r="O42" s="10">
-        <v>9.1879999999999988</v>
-      </c>
-      <c r="P42" s="10">
-        <v>1284</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>5727</v>
-      </c>
-      <c r="R42" s="10">
-        <v>359.87</v>
-      </c>
-      <c r="S42" s="10">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>63</v>
-      </c>
+        <v>85.596999999999994</v>
+      </c>
+      <c r="K42" s="1">
+        <v>85</v>
+      </c>
+      <c r="L42" s="1">
+        <v>185</v>
+      </c>
+      <c r="O42" s="18">
+        <v>2.113</v>
+      </c>
+      <c r="P42" s="18">
+        <v>1817</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>1600</v>
+      </c>
+      <c r="R42" s="18">
+        <v>11.64</v>
+      </c>
+      <c r="S42" s="18">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="T42" s="17"/>
     </row>
     <row r="43" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -2608,27 +2606,27 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1">
-        <v>15.61</v>
+        <v>15.429</v>
       </c>
       <c r="E43" s="1">
-        <v>13.138</v>
+        <v>17.713999999999999</v>
       </c>
       <c r="F43" s="1">
-        <v>12.553000000000001</v>
+        <v>15.492000000000001</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="3"/>
-        <v>13.767000000000001</v>
+        <f t="shared" si="2"/>
+        <v>16.21166666666667</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>45907</v>
       </c>
@@ -2636,107 +2634,110 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="D44" s="1">
+        <v>17.03</v>
       </c>
       <c r="E44" s="1">
-        <v>16.768000000000001</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>43</v>
+        <v>16.667000000000002</v>
+      </c>
+      <c r="F44" s="1">
+        <v>17.635999999999999</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="3"/>
-        <v>16.768000000000001</v>
+        <f t="shared" si="2"/>
+        <v>17.111000000000001</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="T44" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>45907</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1">
-        <v>13.538</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="E45" s="1">
-        <v>13.596</v>
+        <v>17.488</v>
       </c>
       <c r="F45" s="1">
-        <v>13.289</v>
+        <v>17.673999999999999</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="3"/>
-        <v>13.474333333333334</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="J45" s="10">
-        <v>107.91833333333334</v>
-      </c>
-      <c r="K45" s="10">
-        <v>266</v>
-      </c>
-      <c r="L45" s="10">
-        <v>394</v>
-      </c>
-      <c r="O45" s="10">
-        <v>9.8219999999999992</v>
-      </c>
-      <c r="P45" s="10">
-        <v>3150</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>5082</v>
-      </c>
-      <c r="R45" s="10">
-        <v>354.14</v>
-      </c>
-      <c r="S45" s="10">
-        <v>1.403</v>
+        <f t="shared" si="2"/>
+        <v>17.591333333333331</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>45907</v>
+        <v>45876</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="1">
-        <v>16.838999999999999</v>
-      </c>
-      <c r="E46" s="1">
-        <v>16.581</v>
-      </c>
-      <c r="F46" s="1">
-        <v>16.253</v>
-      </c>
-      <c r="G46" s="10">
-        <f t="shared" si="3"/>
-        <v>16.557666666666666</v>
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T46" s="8"/>
@@ -2749,256 +2750,255 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="1">
-        <v>16.756</v>
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="1">
-        <v>17.071000000000002</v>
-      </c>
-      <c r="F47" s="1">
-        <v>17.701000000000001</v>
+        <v>16.768000000000001</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="3"/>
-        <v>17.175999999999998</v>
+        <f>AVERAGE(D47:F47)</f>
+        <v>16.768000000000001</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <v>45907</v>
+        <v>45876</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
-        <v>17.03</v>
+        <v>14.5</v>
       </c>
       <c r="E48" s="1">
-        <v>16.667000000000002</v>
+        <v>14.1</v>
       </c>
       <c r="F48" s="1">
-        <v>17.635999999999999</v>
+        <v>14.05</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="3"/>
-        <v>17.111000000000001</v>
+        <f>AVERAGE(D48:F48)</f>
+        <v>14.216666666666669</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T48" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <v>45907</v>
+        <v>45876</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1">
-        <v>17.085000000000001</v>
+        <v>16.849</v>
       </c>
       <c r="E49" s="1">
-        <v>16.434000000000001</v>
+        <v>13.212</v>
       </c>
       <c r="F49" s="1">
-        <v>16.908000000000001</v>
+        <v>15.818</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="3"/>
-        <v>16.809000000000001</v>
+        <f>AVERAGE(D49:F49)</f>
+        <v>15.292999999999999</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T49" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <v>45907</v>
+        <v>45937</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1">
-        <v>17.611999999999998</v>
+        <v>17.719000000000001</v>
       </c>
       <c r="E50" s="1">
-        <v>17.488</v>
+        <v>17.719000000000001</v>
       </c>
       <c r="F50" s="1">
-        <v>17.673999999999999</v>
+        <v>16.876999999999999</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="3"/>
-        <v>17.591333333333331</v>
+        <f>AVERAGE(E50,F50)</f>
+        <v>17.298000000000002</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T50" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="T50" s="17"/>
     </row>
     <row r="51" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>45907</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1">
-        <v>16.998000000000001</v>
+        <v>13.538</v>
       </c>
       <c r="E51" s="1">
-        <v>17.542000000000002</v>
+        <v>13.596</v>
       </c>
       <c r="F51" s="1">
-        <v>18.164999999999999</v>
+        <v>13.289</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" ref="G51:G57" si="4">AVERAGE(D51,E51,F51)</f>
-        <v>17.568333333333335</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+        <f>AVERAGE(D51:F51)</f>
+        <v>13.474333333333334</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="J51" s="10">
+        <v>107.91833333333334</v>
+      </c>
+      <c r="K51" s="10">
+        <v>266</v>
+      </c>
+      <c r="L51" s="10">
+        <v>394</v>
+      </c>
+      <c r="O51" s="10">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="P51" s="10">
+        <v>3150</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>5082</v>
+      </c>
+      <c r="R51" s="10">
+        <v>354.14</v>
+      </c>
+      <c r="S51" s="10">
+        <v>1.403</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>45907</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
-        <v>15.64</v>
+        <v>17.535</v>
       </c>
       <c r="E52" s="1">
-        <v>17.41</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="F52" s="1">
-        <v>15.711</v>
+        <v>17.62</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="4"/>
-        <v>16.253666666666664</v>
-      </c>
-      <c r="I52" s="10">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="J52" s="10">
-        <v>115.57</v>
-      </c>
-      <c r="K52" s="10">
-        <v>145</v>
-      </c>
-      <c r="L52" s="10">
-        <v>294</v>
-      </c>
-      <c r="O52" s="10">
-        <v>4.5220000000000002</v>
-      </c>
-      <c r="P52" s="10">
-        <v>2042</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>3673</v>
-      </c>
-      <c r="R52" s="10">
-        <v>170.881</v>
-      </c>
-      <c r="S52" s="10">
-        <v>1.284</v>
+        <f>AVERAGE(D52,E52,F52)</f>
+        <v>17.493333333333336</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <v>45907</v>
+        <v>45937</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="D53" s="1">
+        <v>16.466000000000001</v>
       </c>
       <c r="E53" s="1">
-        <v>15.733000000000001</v>
+        <v>16.888999999999999</v>
       </c>
       <c r="F53" s="1">
-        <v>13.327999999999999</v>
+        <v>15.773</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="4"/>
-        <v>14.5305</v>
+        <f>AVERAGE(D53,E53,F53)</f>
+        <v>16.376000000000001</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
       </c>
       <c r="I53" s="1">
-        <v>1.589</v>
+        <v>6.5060000000000002</v>
       </c>
       <c r="J53" s="1">
-        <v>101.904</v>
+        <v>119.395</v>
       </c>
       <c r="K53" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L53" s="1">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="O53" s="1">
-        <v>6.8490000000000002</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="P53" s="1">
-        <v>1166</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="1">
-        <v>1874</v>
+        <v>1770</v>
       </c>
       <c r="R53" s="1">
-        <v>1.3360000000000001</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="S53" s="1">
-        <v>0.59499999999999997</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>45907</v>
       </c>
@@ -3006,92 +3006,108 @@
         <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
-        <v>17.535</v>
+        <v>15.221</v>
       </c>
       <c r="E54" s="1">
-        <v>17.324999999999999</v>
+        <v>15.331</v>
       </c>
       <c r="F54" s="1">
-        <v>17.62</v>
+        <v>18.574000000000002</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="4"/>
-        <v>17.493333333333336</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T54" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+        <f>AVERAGE(D54,E54,F54)</f>
+        <v>16.375333333333334</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>48.104999999999997</v>
+      </c>
+      <c r="J54" s="1">
+        <v>51.554000000000002</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>210</v>
+      </c>
+      <c r="O54" s="1">
+        <v>21.422999999999998</v>
+      </c>
+      <c r="P54" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1669</v>
+      </c>
+      <c r="R54" s="1">
+        <v>156.25899999999999</v>
+      </c>
+      <c r="S54" s="1">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="T54" s="17"/>
+    </row>
+    <row r="55" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="16">
         <v>45907</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D55" s="1">
-        <v>16.888999999999999</v>
+        <v>15.491</v>
       </c>
       <c r="E55" s="1">
-        <v>16.553000000000001</v>
+        <v>17.059000000000001</v>
       </c>
       <c r="F55" s="1">
-        <v>16.829999999999998</v>
+        <v>15.849</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="4"/>
-        <v>16.757333333333332</v>
-      </c>
-      <c r="H55" s="19">
-        <v>45659</v>
-      </c>
-      <c r="I55" s="10">
-        <f>SUM(I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="10" t="e">
-        <f>AVERAGE(J54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="10">
-        <f t="shared" ref="K55:Q55" si="5">SUM(K54)</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(D55,E55,F55)</f>
+        <v>16.132999999999999</v>
+      </c>
+      <c r="H55" s="20">
+        <v>2</v>
+      </c>
+      <c r="I55" s="20">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="J55" s="20">
+        <v>91.342500000000001</v>
+      </c>
+      <c r="K55" s="20">
+        <v>37</v>
+      </c>
+      <c r="L55" s="20">
+        <v>409</v>
+      </c>
+      <c r="O55" s="20">
+        <v>7.34</v>
+      </c>
+      <c r="P55" s="20">
+        <v>704</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>3400</v>
+      </c>
+      <c r="R55" s="20">
+        <v>356.036</v>
+      </c>
+      <c r="S55" s="20">
+        <v>1.6040000000000001</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
@@ -3099,111 +3115,122 @@
         <v>45907</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1">
-        <v>15.221</v>
+        <v>16.888999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>15.331</v>
+        <v>16.553000000000001</v>
       </c>
       <c r="F56" s="1">
-        <v>18.574000000000002</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="4"/>
-        <v>16.375333333333334</v>
-      </c>
-      <c r="H56" s="1">
+        <f>AVERAGE(D56,E56,F56)</f>
+        <v>16.757333333333332</v>
+      </c>
+      <c r="H56" s="19">
+        <v>45659</v>
+      </c>
+      <c r="I56" s="10">
+        <f>SUM(I55)</f>
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="J56" s="10">
+        <f>AVERAGE(J55)</f>
+        <v>91.342500000000001</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" ref="K56:Q56" si="3">SUM(K55)</f>
+        <v>37</v>
+      </c>
+      <c r="L56" s="10">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="10">
+        <f t="shared" si="3"/>
+        <v>7.34</v>
+      </c>
+      <c r="P56" s="10">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="Q56" s="10">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>45937</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16.427</v>
+      </c>
+      <c r="G57" s="10">
+        <f>AVERAGE(E57,F57)</f>
+        <v>16.427</v>
+      </c>
+      <c r="H57" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="1">
-        <v>48.104999999999997</v>
-      </c>
-      <c r="J56" s="1">
-        <v>51.554000000000002</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>210</v>
-      </c>
-      <c r="O56" s="1">
-        <v>21.422999999999998</v>
-      </c>
-      <c r="P56" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>1669</v>
-      </c>
-      <c r="R56" s="1">
-        <v>156.25899999999999</v>
-      </c>
-      <c r="S56" s="1">
-        <v>7.1550000000000002</v>
-      </c>
-      <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16">
-        <v>45907</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="1">
-        <v>15.491</v>
-      </c>
-      <c r="E57" s="1">
-        <v>17.059000000000001</v>
-      </c>
-      <c r="F57" s="1">
-        <v>15.849</v>
-      </c>
-      <c r="G57" s="10">
-        <f t="shared" si="4"/>
-        <v>16.132999999999999</v>
-      </c>
-      <c r="H57" s="20">
-        <v>2</v>
-      </c>
-      <c r="I57" s="20">
-        <v>3.5070000000000001</v>
-      </c>
-      <c r="J57" s="20">
-        <v>91.342500000000001</v>
-      </c>
-      <c r="K57" s="20">
-        <v>37</v>
-      </c>
-      <c r="L57" s="20">
-        <v>409</v>
-      </c>
-      <c r="O57" s="20">
-        <v>7.34</v>
-      </c>
-      <c r="P57" s="20">
-        <v>704</v>
-      </c>
-      <c r="Q57" s="20">
-        <v>3400</v>
-      </c>
-      <c r="R57" s="20">
-        <v>356.036</v>
-      </c>
-      <c r="S57" s="20">
-        <v>1.6040000000000001</v>
+      <c r="I57" s="1">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J57" s="1">
+        <v>86.055499999999995</v>
+      </c>
+      <c r="K57" s="1">
+        <v>170</v>
+      </c>
+      <c r="L57" s="1">
+        <v>395</v>
+      </c>
+      <c r="O57" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="P57" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="R57" s="1">
+        <v>5.851</v>
+      </c>
+      <c r="S57" s="1">
+        <v>5.851</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
@@ -3228,9 +3255,37 @@
       <c r="G58" s="1">
         <v>15.938000000000001</v>
       </c>
-      <c r="T58" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="J58">
+        <v>69.587999999999994</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>117</v>
+      </c>
+      <c r="O58">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <v>1835</v>
+      </c>
+      <c r="R58">
+        <v>11.335000000000001</v>
+      </c>
+      <c r="S58">
+        <v>1.034</v>
+      </c>
+      <c r="T58" s="21"/>
     </row>
     <row r="59" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -3240,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1">
         <v>15.355</v>
@@ -3252,7 +3307,7 @@
         <v>14.194000000000001</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" ref="G59:G70" si="6">AVERAGE(D59,E59,F59)</f>
+        <f>AVERAGE(D59,E59,F59)</f>
         <v>14.624000000000001</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -3268,54 +3323,54 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1">
-        <v>16.73</v>
+        <v>19.422000000000001</v>
       </c>
       <c r="E60" s="1">
-        <v>16.433</v>
+        <v>18.015000000000001</v>
       </c>
       <c r="F60" s="1">
-        <v>16.373999999999999</v>
+        <v>13.792999999999999</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="6"/>
-        <v>16.512333333333331</v>
+        <f>AVERAGE(D60,E60,F60)</f>
+        <v>17.076666666666664</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
       </c>
       <c r="I60" s="1">
-        <v>5.8979999999999997</v>
+        <v>3.9710000000000001</v>
       </c>
       <c r="J60" s="1">
-        <v>255</v>
+        <v>94.031000000000006</v>
       </c>
       <c r="K60" s="1">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="L60" s="1">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="O60" s="1">
-        <v>17.187999999999999</v>
+        <v>8.5869999999999997</v>
       </c>
       <c r="P60" s="1">
-        <v>39</v>
+        <v>1173</v>
       </c>
       <c r="Q60" s="1">
-        <v>1951</v>
+        <v>1742</v>
       </c>
       <c r="R60" s="1">
-        <v>1.625</v>
+        <v>1.087</v>
       </c>
       <c r="S60" s="1">
-        <v>1.625</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>45937</v>
       </c>
@@ -3323,75 +3378,77 @@
         <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+      <c r="D61" s="1">
+        <v>16.667000000000002</v>
       </c>
       <c r="E61" s="1">
-        <v>13.769</v>
+        <v>16.303000000000001</v>
       </c>
       <c r="F61" s="1">
-        <v>13.333</v>
+        <v>16.727</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="6"/>
-        <v>13.551</v>
+        <f>AVERAGE(D61,E61,F61)</f>
+        <v>16.565666666666669</v>
       </c>
       <c r="H61" s="1">
         <v>1</v>
       </c>
       <c r="I61" s="1">
-        <v>16.358000000000001</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="J61" s="1">
-        <v>85.013000000000005</v>
+        <v>85.790499999999994</v>
       </c>
       <c r="K61" s="1">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="L61" s="1">
-        <v>175</v>
-      </c>
-      <c r="O61" s="18">
-        <v>12.609</v>
-      </c>
-      <c r="P61" s="18">
-        <v>1183</v>
-      </c>
-      <c r="Q61" s="18">
-        <v>1823</v>
-      </c>
-      <c r="R61" s="18">
-        <v>18.952999999999999</v>
-      </c>
-      <c r="S61" s="18">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="T61" s="8"/>
+        <v>314</v>
+      </c>
+      <c r="O61" s="1">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="P61" s="1">
+        <v>412</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>3402</v>
+      </c>
+      <c r="R61" s="1">
+        <v>183.66900000000001</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>45937</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D62" s="1">
-        <v>15.712</v>
+        <v>19.367999999999999</v>
       </c>
       <c r="E62" s="1">
-        <v>18.649000000000001</v>
+        <v>18.925999999999998</v>
       </c>
       <c r="F62" s="1">
-        <v>13.648999999999999</v>
+        <v>19.984999999999999</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="6"/>
-        <v>16.003333333333334</v>
+        <f>AVERAGE(E62,F62)</f>
+        <v>19.455500000000001</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>43</v>
@@ -3403,26 +3460,53 @@
         <v>45937</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="1">
-        <v>16.890999999999998</v>
+        <v>88</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E63" s="1">
-        <v>17.355</v>
+        <v>13.769</v>
       </c>
       <c r="F63" s="1">
-        <v>17.09</v>
+        <v>13.333</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="6"/>
-        <v>17.111999999999998</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>43</v>
+        <f>AVERAGE(D63,E63,F63)</f>
+        <v>13.551</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>16.358000000000001</v>
+      </c>
+      <c r="J63" s="1">
+        <v>85.013000000000005</v>
+      </c>
+      <c r="K63" s="1">
+        <v>85</v>
+      </c>
+      <c r="L63" s="1">
+        <v>175</v>
+      </c>
+      <c r="O63" s="18">
+        <v>12.609</v>
+      </c>
+      <c r="P63" s="18">
+        <v>1183</v>
+      </c>
+      <c r="Q63" s="18">
+        <v>1823</v>
+      </c>
+      <c r="R63" s="18">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="S63" s="18">
+        <v>4.2619999999999996</v>
       </c>
       <c r="T63" s="8"/>
     </row>
@@ -3431,53 +3515,23 @@
         <v>45937</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D64" s="1">
-        <v>19.422000000000001</v>
+        <v>13.787000000000001</v>
       </c>
       <c r="E64" s="1">
-        <v>18.015000000000001</v>
+        <v>13.47</v>
       </c>
       <c r="F64" s="1">
-        <v>13.792999999999999</v>
+        <v>13.202999999999999</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" si="6"/>
-        <v>17.076666666666664</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1">
-        <v>3.9710000000000001</v>
-      </c>
-      <c r="J64" s="1">
-        <v>94.031000000000006</v>
-      </c>
-      <c r="K64" s="1">
-        <v>32</v>
-      </c>
-      <c r="L64" s="1">
-        <v>152</v>
-      </c>
-      <c r="O64" s="1">
-        <v>8.5869999999999997</v>
-      </c>
-      <c r="P64" s="1">
-        <v>1173</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>1742</v>
-      </c>
-      <c r="R64" s="1">
-        <v>1.087</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0.98199999999999998</v>
+        <f>AVERAGE(D64,E64,F64)</f>
+        <v>13.486666666666666</v>
       </c>
       <c r="T64" s="8"/>
     </row>
@@ -3489,51 +3543,27 @@
         <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1">
-        <v>12.83</v>
+        <v>16.890999999999998</v>
       </c>
       <c r="E65" s="1">
-        <v>13.378</v>
+        <v>17.355</v>
       </c>
       <c r="F65" s="1">
-        <v>13.021000000000001</v>
+        <v>17.09</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" si="6"/>
-        <v>13.076333333333332</v>
-      </c>
-      <c r="I65" s="10">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="J65" s="10">
-        <v>118.48560000000001</v>
-      </c>
-      <c r="K65" s="10">
-        <v>450</v>
-      </c>
-      <c r="L65" s="10">
-        <v>763</v>
-      </c>
-      <c r="O65" s="10">
-        <v>10.084</v>
-      </c>
-      <c r="P65" s="10">
-        <v>7357</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>8974</v>
-      </c>
-      <c r="R65" s="10">
-        <v>189.33199999999999</v>
-      </c>
-      <c r="S65" s="10">
-        <v>1.5300000000000002</v>
+        <f>AVERAGE(D65,E65,F65)</f>
+        <v>17.111999999999998</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>45937</v>
       </c>
@@ -3541,54 +3571,52 @@
         <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D66" s="1">
-        <v>14.78</v>
+        <v>16.73</v>
       </c>
       <c r="E66" s="1">
-        <v>14.03</v>
+        <v>16.433</v>
       </c>
       <c r="F66" s="1">
-        <v>14.052</v>
+        <v>16.373999999999999</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" si="6"/>
-        <v>14.287333333333331</v>
+        <f>AVERAGE(D66,E66,F66)</f>
+        <v>16.512333333333331</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
       </c>
       <c r="I66" s="1">
-        <v>2.7360000000000002</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="J66" s="1">
-        <v>83.744</v>
+        <v>255</v>
       </c>
       <c r="K66" s="1">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="L66" s="1">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="O66" s="1">
-        <v>8.0869999999999997</v>
+        <v>17.187999999999999</v>
       </c>
       <c r="P66" s="1">
-        <v>654</v>
+        <v>39</v>
       </c>
       <c r="Q66" s="1">
-        <v>1692</v>
+        <v>1951</v>
       </c>
       <c r="R66" s="1">
-        <v>175.21899999999999</v>
+        <v>1.625</v>
       </c>
       <c r="S66" s="1">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="T66" s="22" t="s">
-        <v>95</v>
-      </c>
+        <v>1.625</v>
+      </c>
+      <c r="T66" s="17"/>
     </row>
     <row r="67" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
@@ -3598,107 +3626,110 @@
         <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D67" s="1">
-        <v>16.411999999999999</v>
+        <v>15.843</v>
       </c>
       <c r="E67" s="1">
-        <v>16.042999999999999</v>
+        <v>16.798999999999999</v>
       </c>
       <c r="F67" s="1">
-        <v>16.931999999999999</v>
+        <v>23.123000000000001</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="6"/>
-        <v>16.462333333333333</v>
-      </c>
-      <c r="I67" s="10">
-        <v>0.33399999999999996</v>
-      </c>
-      <c r="J67" s="10">
-        <v>118.4425</v>
-      </c>
-      <c r="K67" s="10">
-        <v>171</v>
-      </c>
-      <c r="L67" s="10">
-        <v>340</v>
-      </c>
-      <c r="O67" s="10">
-        <v>2.452</v>
-      </c>
-      <c r="P67" s="10">
-        <v>896</v>
-      </c>
-      <c r="Q67" s="10">
-        <v>3600</v>
-      </c>
-      <c r="R67" s="10">
-        <v>345.34300000000002</v>
-      </c>
-      <c r="S67" s="10">
-        <v>0.61699999999999999</v>
+        <f>AVERAGE(D67,E67,F67)</f>
+        <v>18.588333333333335</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>70.061999999999998</v>
+      </c>
+      <c r="J67" s="1">
+        <v>69.358999999999995</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>138</v>
+      </c>
+      <c r="O67" s="1">
+        <v>23.295000000000002</v>
+      </c>
+      <c r="P67" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1902</v>
+      </c>
+      <c r="R67" s="1">
+        <v>148.91200000000001</v>
+      </c>
+      <c r="S67" s="1">
+        <v>9.9890000000000008</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
-        <v>45937</v>
+        <v>45876</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>16.329000000000001</v>
+        <v>16.183</v>
       </c>
       <c r="E68" s="1">
-        <v>16.11</v>
+        <v>17.577000000000002</v>
       </c>
       <c r="F68" s="1">
-        <v>16.766999999999999</v>
+        <v>16.864999999999998</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="6"/>
-        <v>16.402000000000001</v>
+        <f>AVERAGE(D68:F68)</f>
+        <v>16.875</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="1">
-        <v>1.3120000000000001</v>
+      <c r="I68" s="10">
+        <v>3.476</v>
       </c>
       <c r="J68" s="1">
-        <v>87.087000000000003</v>
-      </c>
-      <c r="K68" s="1">
-        <v>80</v>
-      </c>
-      <c r="L68" s="1">
-        <v>189</v>
-      </c>
-      <c r="O68" s="1">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1888</v>
-      </c>
-      <c r="R68" s="1">
-        <v>176.36099999999999</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0.92400000000000004</v>
+        <v>101.925</v>
+      </c>
+      <c r="K68" s="10">
+        <v>204</v>
+      </c>
+      <c r="L68" s="10">
+        <v>404</v>
+      </c>
+      <c r="O68" s="10">
+        <v>9.1879999999999988</v>
+      </c>
+      <c r="P68" s="10">
+        <v>1284</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>5727</v>
+      </c>
+      <c r="R68" s="10">
+        <v>359.87</v>
+      </c>
+      <c r="S68" s="10">
+        <v>1.8460000000000001</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
@@ -3709,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1">
         <v>18.314</v>
@@ -3721,7 +3752,7 @@
         <v>17.108000000000001</v>
       </c>
       <c r="G69" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G69:G74" si="4">AVERAGE(D69,E69,F69)</f>
         <v>17.461333333333332</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -3731,174 +3762,180 @@
     </row>
     <row r="70" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
-        <v>45937</v>
+        <v>45907</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="1">
-        <v>16.466000000000001</v>
+        <v>77</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E70" s="1">
-        <v>16.888999999999999</v>
+        <v>15.733000000000001</v>
       </c>
       <c r="F70" s="1">
-        <v>15.773</v>
+        <v>13.327999999999999</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="6"/>
-        <v>16.376000000000001</v>
+        <f t="shared" si="4"/>
+        <v>14.5305</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
       </c>
       <c r="I70" s="1">
-        <v>6.5060000000000002</v>
+        <v>1.589</v>
       </c>
       <c r="J70" s="1">
-        <v>119.395</v>
+        <v>101.904</v>
       </c>
       <c r="K70" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L70" s="1">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="O70" s="1">
-        <v>16.661999999999999</v>
+        <v>6.8490000000000002</v>
       </c>
       <c r="P70" s="1">
-        <v>53</v>
+        <v>1166</v>
       </c>
       <c r="Q70" s="1">
-        <v>1770</v>
+        <v>1874</v>
       </c>
       <c r="R70" s="1">
-        <v>2.4169999999999998</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="S70" s="1">
-        <v>1.5620000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>45937</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
+      </c>
+      <c r="D71" s="1">
+        <v>14.78</v>
+      </c>
+      <c r="E71" s="1">
+        <v>14.03</v>
       </c>
       <c r="F71" s="1">
-        <v>16.427</v>
+        <v>14.052</v>
       </c>
       <c r="G71" s="10">
-        <f>AVERAGE(E71,F71)</f>
-        <v>16.427</v>
+        <f t="shared" si="4"/>
+        <v>14.287333333333331</v>
       </c>
       <c r="H71" s="1">
         <v>1</v>
       </c>
       <c r="I71" s="1">
-        <v>1.7629999999999999</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="J71" s="1">
-        <v>86.055499999999995</v>
+        <v>83.744</v>
       </c>
       <c r="K71" s="1">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="L71" s="1">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="O71" s="1">
-        <v>5.851</v>
+        <v>8.0869999999999997</v>
       </c>
       <c r="P71" s="1">
-        <v>5.851</v>
+        <v>654</v>
       </c>
       <c r="Q71" s="1">
-        <v>5.851</v>
+        <v>1692</v>
       </c>
       <c r="R71" s="1">
-        <v>5.851</v>
+        <v>175.21899999999999</v>
       </c>
       <c r="S71" s="1">
-        <v>5.851</v>
-      </c>
-      <c r="T71" s="17" t="s">
-        <v>103</v>
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="T71" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
-        <v>45937</v>
+        <v>45876</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D72" s="1">
-        <v>14.961</v>
+        <v>13.691000000000001</v>
       </c>
       <c r="E72" s="1">
-        <v>14.053000000000001</v>
+        <v>13.926</v>
       </c>
       <c r="F72" s="1">
-        <v>13.526999999999999</v>
+        <v>13.691000000000001</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" ref="G72:G78" si="7">AVERAGE(D72,E72,F72)</f>
-        <v>14.180333333333335</v>
+        <f t="shared" si="4"/>
+        <v>13.769333333333334</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
       </c>
       <c r="I72" s="1">
-        <v>4.6619999999999999</v>
+        <v>4.5590000000000002</v>
       </c>
       <c r="J72" s="1">
-        <v>16.901</v>
+        <v>110.52200000000001</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L72" s="1">
-        <v>174</v>
+        <v>253</v>
+      </c>
+      <c r="M72" s="1">
+        <v>13.845000000000001</v>
+      </c>
+      <c r="N72" s="1">
+        <v>12.522</v>
       </c>
       <c r="O72" s="1">
-        <v>8.8520000000000003</v>
+        <v>9.0419999999999998</v>
       </c>
       <c r="P72" s="1">
-        <v>1217</v>
+        <v>1375</v>
       </c>
       <c r="Q72" s="1">
-        <v>1915</v>
+        <v>1904</v>
       </c>
       <c r="R72" s="1">
-        <v>1.448</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="S72" s="1">
-        <v>1.169</v>
+        <v>1.288</v>
       </c>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>45937</v>
       </c>
@@ -3906,110 +3943,110 @@
         <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D73" s="1">
-        <v>16.667000000000002</v>
+        <v>14.228</v>
       </c>
       <c r="E73" s="1">
-        <v>16.303000000000001</v>
+        <v>15.893000000000001</v>
       </c>
       <c r="F73" s="1">
-        <v>16.727</v>
+        <v>21.96</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="7"/>
-        <v>16.565666666666669</v>
+        <f t="shared" si="4"/>
+        <v>17.360333333333333</v>
       </c>
       <c r="H73" s="1">
         <v>1</v>
       </c>
       <c r="I73" s="1">
-        <v>1.6259999999999999</v>
+        <v>67.64</v>
       </c>
       <c r="J73" s="1">
-        <v>85.790499999999994</v>
+        <v>84.95</v>
       </c>
       <c r="K73" s="1">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="L73" s="1">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="O73" s="1">
-        <v>5.1639999999999997</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="P73" s="1">
-        <v>412</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="Q73" s="1">
-        <v>3402</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="R73" s="1">
-        <v>183.66900000000001</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="S73" s="1">
-        <v>1.6910000000000001</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>45937</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D74" s="1">
-        <v>15.843</v>
+        <v>16.329000000000001</v>
       </c>
       <c r="E74" s="1">
-        <v>16.798999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="F74" s="1">
-        <v>23.123000000000001</v>
+        <v>16.766999999999999</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="7"/>
-        <v>18.588333333333335</v>
+        <f t="shared" si="4"/>
+        <v>16.402000000000001</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
       </c>
       <c r="I74" s="1">
-        <v>70.061999999999998</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="J74" s="1">
-        <v>69.358999999999995</v>
+        <v>87.087000000000003</v>
       </c>
       <c r="K74" s="1">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="L74" s="1">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="O74" s="1">
-        <v>23.295000000000002</v>
+        <v>3.8849999999999998</v>
       </c>
       <c r="P74" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1902</v>
+        <v>1888</v>
       </c>
       <c r="R74" s="1">
-        <v>148.91200000000001</v>
+        <v>176.36099999999999</v>
       </c>
       <c r="S74" s="1">
-        <v>9.9890000000000008</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
@@ -4017,83 +4054,108 @@
         <v>45937</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="1">
-        <v>15.236000000000001</v>
+        <v>114</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E75" s="1">
-        <v>19.312999999999999</v>
+        <v>15.83</v>
       </c>
       <c r="F75" s="1">
-        <v>13.486000000000001</v>
+        <v>14.411</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="7"/>
-        <v>16.011666666666667</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T75" s="17" t="s">
-        <v>110</v>
-      </c>
+        <f>AVERAGE(E75,F75)</f>
+        <v>15.1205</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="J75" s="1">
+        <v>86.106999999999999</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>163</v>
+      </c>
+      <c r="O75" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="P75" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="R75" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="S75" s="1">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="T75" s="17"/>
     </row>
     <row r="76" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>45937</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1">
-        <v>16.707000000000001</v>
+        <v>14.961</v>
       </c>
       <c r="E76" s="1">
-        <v>16.489999999999998</v>
+        <v>14.053000000000001</v>
       </c>
       <c r="F76" s="1">
-        <v>16.762</v>
+        <v>13.526999999999999</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="7"/>
-        <v>16.653000000000002</v>
+        <f>AVERAGE(D76,E76,F76)</f>
+        <v>14.180333333333335</v>
       </c>
       <c r="H76" s="1">
         <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>2.625</v>
+        <v>4.6619999999999999</v>
       </c>
       <c r="J76" s="1">
-        <v>86.495999999999995</v>
+        <v>16.901</v>
       </c>
       <c r="K76" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="O76" s="1">
-        <v>9.2799999999999994</v>
+        <v>8.8520000000000003</v>
       </c>
       <c r="P76" s="1">
-        <v>9.2799999999999994</v>
+        <v>1217</v>
       </c>
       <c r="Q76" s="1">
-        <v>9.2799999999999994</v>
+        <v>1915</v>
       </c>
       <c r="R76" s="1">
-        <v>9.2799999999999994</v>
+        <v>1.448</v>
       </c>
       <c r="S76" s="1">
-        <v>9.2799999999999994</v>
+        <v>1.169</v>
       </c>
       <c r="T76" s="8"/>
     </row>
@@ -4105,213 +4167,270 @@
         <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="1">
-        <v>13.787000000000001</v>
-      </c>
-      <c r="E77" s="1">
-        <v>13.47</v>
+        <v>118</v>
+      </c>
+      <c r="D77" s="18">
+        <v>18.155000000000001</v>
+      </c>
+      <c r="E77" s="18">
+        <v>18.350999999999999</v>
       </c>
       <c r="F77" s="1">
-        <v>13.202999999999999</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="7"/>
-        <v>13.486666666666666</v>
+        <f t="shared" ref="G77:G82" si="5">AVERAGE(E77,F77)</f>
+        <v>18.768000000000001</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T77" s="8"/>
     </row>
     <row r="78" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
-        <v>45937</v>
+      <c r="A78" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D78" s="1">
-        <v>14.228</v>
+        <v>14.055999999999999</v>
       </c>
       <c r="E78" s="1">
-        <v>15.893000000000001</v>
+        <v>13.846</v>
       </c>
       <c r="F78" s="1">
-        <v>21.96</v>
+        <v>13.468999999999999</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="7"/>
-        <v>17.360333333333333</v>
+        <f t="shared" si="5"/>
+        <v>13.657499999999999</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
       </c>
       <c r="I78" s="1">
-        <v>67.64</v>
+        <v>31.387</v>
       </c>
       <c r="J78" s="1">
-        <v>84.95</v>
+        <v>58.372</v>
       </c>
       <c r="K78" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O78" s="1">
-        <v>21.265000000000001</v>
+        <v>17.777000000000001</v>
       </c>
       <c r="P78" s="1">
-        <v>21.265000000000001</v>
+        <v>360</v>
       </c>
       <c r="Q78" s="1">
-        <v>21.265000000000001</v>
+        <v>1783</v>
       </c>
       <c r="R78" s="1">
-        <v>21.265000000000001</v>
+        <v>15.726000000000001</v>
       </c>
       <c r="S78" s="1">
-        <v>21.265000000000001</v>
-      </c>
-      <c r="T78" s="17" t="s">
-        <v>114</v>
-      </c>
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="T78" s="17"/>
     </row>
     <row r="79" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
-        <v>45937</v>
+      <c r="A79" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="D79" s="1">
+        <v>13.744</v>
       </c>
       <c r="E79" s="1">
-        <v>15.83</v>
+        <v>13.66</v>
       </c>
       <c r="F79" s="1">
-        <v>14.411</v>
+        <v>13.574</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" ref="G79:G96" si="8">AVERAGE(E79,F79)</f>
-        <v>15.1205</v>
+        <f t="shared" si="5"/>
+        <v>13.617000000000001</v>
       </c>
       <c r="H79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="1">
-        <v>3.23</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="J79" s="1">
-        <v>86.106999999999999</v>
+        <v>90.409000000000006</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L79" s="1">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="O79" s="1">
-        <v>4.6310000000000002</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="P79" s="1">
-        <v>4.6310000000000002</v>
+        <v>2616</v>
       </c>
       <c r="Q79" s="1">
-        <v>4.6310000000000002</v>
+        <v>3416</v>
       </c>
       <c r="R79" s="1">
-        <v>4.6310000000000002</v>
+        <v>319.90300000000002</v>
       </c>
       <c r="S79" s="1">
-        <v>4.6310000000000002</v>
-      </c>
-      <c r="T79" s="8"/>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="T79" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
-        <v>45937</v>
+        <v>45968</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1">
-        <v>17.719000000000001</v>
+        <v>15.804</v>
       </c>
       <c r="E80" s="1">
-        <v>17.719000000000001</v>
+        <v>18.481999999999999</v>
       </c>
       <c r="F80" s="1">
-        <v>16.876999999999999</v>
+        <v>25.367000000000001</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="8"/>
-        <v>17.298000000000002</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>21.924500000000002</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>109.476</v>
+      </c>
+      <c r="J80" s="1">
+        <v>60.494999999999997</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>211</v>
+      </c>
+      <c r="O80" s="1">
+        <v>24.751000000000001</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1843</v>
+      </c>
+      <c r="R80" s="1">
+        <v>143.68799999999999</v>
+      </c>
+      <c r="S80" s="1">
+        <v>11.56</v>
       </c>
       <c r="T80" s="8"/>
     </row>
     <row r="81" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
-        <v>45937</v>
+        <v>45968</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1">
-        <v>17.666</v>
+        <v>16.297999999999998</v>
       </c>
       <c r="E81" s="1">
-        <v>18.103000000000002</v>
+        <v>18.849</v>
       </c>
       <c r="F81" s="1">
-        <v>17.451000000000001</v>
+        <v>17.577000000000002</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="8"/>
-        <v>17.777000000000001</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>18.213000000000001</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="J81" s="1">
+        <v>107.075</v>
+      </c>
+      <c r="K81" s="1">
+        <v>34</v>
+      </c>
+      <c r="L81" s="1">
+        <v>255</v>
+      </c>
+      <c r="O81" s="1">
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="P81" s="1">
+        <v>738</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1981</v>
+      </c>
+      <c r="R81" s="1">
+        <v>177.60599999999999</v>
+      </c>
+      <c r="S81" s="1">
+        <v>1.3640000000000001</v>
       </c>
       <c r="T81" s="8"/>
     </row>
     <row r="82" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
-        <v>45937</v>
+        <v>45968</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D82" s="1">
-        <v>19.367999999999999</v>
+        <v>19.832999999999998</v>
       </c>
       <c r="E82" s="1">
-        <v>18.925999999999998</v>
+        <v>19.71</v>
       </c>
       <c r="F82" s="1">
-        <v>19.984999999999999</v>
+        <v>20.332999999999998</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="8"/>
-        <v>19.455500000000001</v>
+        <f t="shared" si="5"/>
+        <v>20.0215</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>43</v>
@@ -4319,600 +4438,512 @@
       <c r="T82" s="8"/>
     </row>
     <row r="83" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
-        <v>45937</v>
+      <c r="A83" s="9">
+        <v>45876</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="18">
-        <v>18.155000000000001</v>
-      </c>
-      <c r="E83" s="18">
-        <v>18.350999999999999</v>
-      </c>
-      <c r="F83" s="1">
-        <v>19.184999999999999</v>
+        <v>42</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="1">
+        <v>14.015000000000001</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="8"/>
-        <v>18.768000000000001</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>43</v>
+        <f>AVERAGE(D83:F83)</f>
+        <v>14.015000000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="J83" s="1">
+        <v>96.042000000000002</v>
+      </c>
+      <c r="K83" s="1">
+        <v>23</v>
+      </c>
+      <c r="L83" s="1">
+        <v>147</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="P83" s="1">
+        <v>2234</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>1634</v>
+      </c>
+      <c r="R83" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="S83" s="1">
+        <v>9</v>
       </c>
       <c r="T83" s="8"/>
     </row>
     <row r="84" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
-        <v>45968</v>
+        <v>45937</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D84" s="1">
-        <v>19.832999999999998</v>
+        <v>12.83</v>
       </c>
       <c r="E84" s="1">
-        <v>19.71</v>
+        <v>13.378</v>
       </c>
       <c r="F84" s="1">
-        <v>20.332999999999998</v>
+        <v>13.021000000000001</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="8"/>
-        <v>20.0215</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>43</v>
+        <f>AVERAGE(D84,E84,F84)</f>
+        <v>13.076333333333332</v>
+      </c>
+      <c r="I84" s="10">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="J84" s="10">
+        <v>118.48560000000001</v>
+      </c>
+      <c r="K84" s="10">
+        <v>450</v>
+      </c>
+      <c r="L84" s="10">
+        <v>763</v>
+      </c>
+      <c r="O84" s="10">
+        <v>10.084</v>
+      </c>
+      <c r="P84" s="10">
+        <v>7357</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>8974</v>
+      </c>
+      <c r="R84" s="10">
+        <v>189.33199999999999</v>
+      </c>
+      <c r="S84" s="10">
+        <v>1.5300000000000002</v>
       </c>
       <c r="T84" s="8"/>
     </row>
     <row r="85" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
-        <v>45968</v>
+        <v>45907</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D85" s="1">
-        <v>15.804</v>
+        <v>16.998000000000001</v>
       </c>
       <c r="E85" s="1">
-        <v>18.481999999999999</v>
+        <v>17.542000000000002</v>
       </c>
       <c r="F85" s="1">
-        <v>25.367000000000001</v>
+        <v>18.164999999999999</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="8"/>
-        <v>21.924500000000002</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1">
-        <v>109.476</v>
-      </c>
-      <c r="J85" s="1">
-        <v>60.494999999999997</v>
-      </c>
-      <c r="K85" s="1">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1">
-        <v>211</v>
-      </c>
-      <c r="O85" s="1">
-        <v>24.751000000000001</v>
-      </c>
-      <c r="P85" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>1843</v>
-      </c>
-      <c r="R85" s="1">
-        <v>143.68799999999999</v>
-      </c>
-      <c r="S85" s="1">
-        <v>11.56</v>
+        <f>AVERAGE(D85,E85,F85)</f>
+        <v>17.568333333333335</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T85" s="8"/>
     </row>
     <row r="86" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
-        <v>45968</v>
+        <v>45937</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D86" s="1">
-        <v>16.297999999999998</v>
+        <v>16.707000000000001</v>
       </c>
       <c r="E86" s="1">
-        <v>18.849</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="F86" s="1">
-        <v>17.577000000000002</v>
+        <v>16.762</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="8"/>
-        <v>18.213000000000001</v>
+        <f>AVERAGE(D86,E86,F86)</f>
+        <v>16.653000000000002</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
       </c>
       <c r="I86" s="1">
-        <v>3.6560000000000001</v>
+        <v>2.625</v>
       </c>
       <c r="J86" s="1">
-        <v>107.075</v>
+        <v>86.495999999999995</v>
       </c>
       <c r="K86" s="1">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="L86" s="1">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="O86" s="1">
-        <v>6.1050000000000004</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="P86" s="1">
-        <v>738</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="Q86" s="1">
-        <v>1981</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="R86" s="1">
-        <v>177.60599999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="S86" s="1">
-        <v>1.3640000000000001</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="T86" s="8"/>
     </row>
     <row r="87" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>123</v>
+      <c r="A87" s="9">
+        <v>45876</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D87" s="1">
-        <v>14.055999999999999</v>
+        <v>15.478999999999999</v>
       </c>
       <c r="E87" s="1">
-        <v>13.846</v>
+        <v>15.035</v>
       </c>
       <c r="F87" s="1">
-        <v>13.468999999999999</v>
+        <v>19.091999999999999</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="8"/>
-        <v>13.657499999999999</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1</v>
+        <f>AVERAGE(D87:F87)</f>
+        <v>16.53533333333333</v>
       </c>
       <c r="I87" s="1">
-        <v>31.387</v>
+        <v>17.745000000000001</v>
       </c>
       <c r="J87" s="1">
-        <v>58.372</v>
+        <v>93.156000000000006</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L87" s="1">
-        <v>210</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
       <c r="O87" s="1">
-        <v>17.777000000000001</v>
+        <v>13.506</v>
       </c>
       <c r="P87" s="1">
-        <v>360</v>
+        <v>742</v>
       </c>
       <c r="Q87" s="1">
-        <v>1783</v>
+        <v>1715</v>
       </c>
       <c r="R87" s="1">
-        <v>15.726000000000001</v>
+        <v>175.54400000000001</v>
       </c>
       <c r="S87" s="1">
-        <v>5.2480000000000002</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="T87" s="8"/>
     </row>
     <row r="88" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>123</v>
+      <c r="A88" s="16">
+        <v>45907</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D88" s="1">
-        <v>13.744</v>
+        <v>15.64</v>
       </c>
       <c r="E88" s="1">
-        <v>13.66</v>
+        <v>17.41</v>
       </c>
       <c r="F88" s="1">
-        <v>13.574</v>
+        <v>15.711</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="8"/>
-        <v>13.617000000000001</v>
-      </c>
-      <c r="H88" s="1">
-        <v>2</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J88" s="1">
-        <v>90.409000000000006</v>
-      </c>
-      <c r="K88" s="1">
-        <v>103</v>
-      </c>
-      <c r="L88" s="1">
-        <v>315</v>
-      </c>
-      <c r="O88" s="1">
-        <v>2.1219999999999999</v>
-      </c>
-      <c r="P88" s="1">
-        <v>2616</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>3416</v>
-      </c>
-      <c r="R88" s="1">
-        <v>319.90300000000002</v>
-      </c>
-      <c r="S88" s="1">
-        <v>0.95099999999999996</v>
+        <f>AVERAGE(D88,E88,F88)</f>
+        <v>16.253666666666664</v>
+      </c>
+      <c r="I88" s="10">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="J88" s="10">
+        <v>115.57</v>
+      </c>
+      <c r="K88" s="10">
+        <v>145</v>
+      </c>
+      <c r="L88" s="10">
+        <v>294</v>
+      </c>
+      <c r="O88" s="10">
+        <v>4.5220000000000002</v>
+      </c>
+      <c r="P88" s="10">
+        <v>2042</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>3673</v>
+      </c>
+      <c r="R88" s="10">
+        <v>170.881</v>
+      </c>
+      <c r="S88" s="10">
+        <v>1.284</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>123</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>45907</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D89" s="1">
-        <v>17.440000000000001</v>
+        <v>17.085000000000001</v>
       </c>
       <c r="E89" s="1">
-        <v>17.27</v>
+        <v>16.434000000000001</v>
       </c>
       <c r="F89" s="1">
-        <v>18.242999999999999</v>
+        <v>16.908000000000001</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="8"/>
-        <v>17.756499999999999</v>
+        <f>AVERAGE(D89:F89)</f>
+        <v>16.809000000000001</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T89" s="8"/>
+      <c r="T89" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>123</v>
+      <c r="A90" s="16">
+        <v>45937</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1">
-        <v>16.942</v>
+        <v>16.411999999999999</v>
       </c>
       <c r="E90" s="1">
-        <v>17.238</v>
+        <v>16.042999999999999</v>
       </c>
       <c r="F90" s="1">
-        <v>16.393000000000001</v>
+        <v>16.931999999999999</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="8"/>
-        <v>16.8155</v>
-      </c>
-      <c r="H90" s="1">
-        <v>2</v>
-      </c>
-      <c r="I90" s="1">
-        <v>8.0489999999999995</v>
-      </c>
-      <c r="J90" s="1">
-        <v>72.441000000000003</v>
-      </c>
-      <c r="K90" s="1">
-        <v>31</v>
-      </c>
-      <c r="L90" s="1">
-        <v>398</v>
-      </c>
-      <c r="O90" s="1">
-        <v>16.239000000000001</v>
-      </c>
-      <c r="P90" s="1">
-        <v>1390</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>3832</v>
-      </c>
-      <c r="R90" s="1">
-        <v>180.39</v>
-      </c>
-      <c r="S90" s="1">
-        <v>2.68</v>
+        <f>AVERAGE(D90,E90,F90)</f>
+        <v>16.462333333333333</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="J90" s="10">
+        <v>118.4425</v>
+      </c>
+      <c r="K90" s="10">
+        <v>171</v>
+      </c>
+      <c r="L90" s="10">
+        <v>340</v>
+      </c>
+      <c r="O90" s="10">
+        <v>2.452</v>
+      </c>
+      <c r="P90" s="10">
+        <v>896</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>3600</v>
+      </c>
+      <c r="R90" s="10">
+        <v>345.34300000000002</v>
+      </c>
+      <c r="S90" s="10">
+        <v>0.61699999999999999</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>123</v>
+      <c r="A91" s="16">
+        <v>45937</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D91" s="1">
-        <v>15.728999999999999</v>
+        <v>15.236000000000001</v>
       </c>
       <c r="E91" s="1">
-        <v>16.757000000000001</v>
+        <v>19.312999999999999</v>
       </c>
       <c r="F91" s="1">
-        <v>17.100000000000001</v>
+        <v>13.486000000000001</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="8"/>
-        <v>16.9285</v>
-      </c>
-      <c r="H91" s="1">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="J91" s="1">
-        <v>66.186000000000007</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0</v>
-      </c>
-      <c r="L91" s="1">
-        <v>225</v>
-      </c>
-      <c r="O91" s="1">
-        <v>4.2140000000000004</v>
-      </c>
-      <c r="P91" s="1">
-        <v>220</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>1825</v>
-      </c>
-      <c r="R91" s="1">
-        <v>179.51400000000001</v>
-      </c>
-      <c r="S91" s="1">
-        <v>0.749</v>
-      </c>
-      <c r="T91" s="8"/>
+        <f>AVERAGE(D91,E91,F91)</f>
+        <v>16.011666666666667</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="92" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>123</v>
+      <c r="A92" s="16">
+        <v>45876</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1">
-        <v>16.959</v>
+        <v>15.263</v>
       </c>
       <c r="E92" s="1">
-        <v>16.36</v>
+        <v>14.122</v>
       </c>
       <c r="F92" s="1">
-        <v>17.347000000000001</v>
+        <v>14.281000000000001</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="8"/>
-        <v>16.8535</v>
-      </c>
-      <c r="H92" s="1">
-        <v>2</v>
-      </c>
-      <c r="I92" s="1">
-        <v>2.7290000000000001</v>
-      </c>
-      <c r="J92" s="1">
-        <v>71.146500000000003</v>
-      </c>
-      <c r="K92" s="1">
-        <v>49</v>
-      </c>
-      <c r="L92" s="1">
-        <v>217</v>
-      </c>
-      <c r="O92" s="1">
-        <v>5.7969999999999997</v>
-      </c>
-      <c r="P92" s="1">
-        <v>529</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>4227</v>
-      </c>
-      <c r="R92" s="1">
-        <v>215.398</v>
-      </c>
-      <c r="S92" s="1">
-        <v>2.3220000000000001</v>
+        <f>AVERAGE(D92:F92)</f>
+        <v>14.555333333333332</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T92" s="8"/>
     </row>
     <row r="93" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
-        <v>123</v>
+      <c r="A93" s="16">
+        <v>45937</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="1">
+        <v>15.712</v>
+      </c>
+      <c r="E93" s="1">
+        <v>18.649000000000001</v>
+      </c>
+      <c r="F93" s="1">
+        <v>13.648999999999999</v>
+      </c>
+      <c r="G93" s="10">
+        <f>AVERAGE(D93,E93,F93)</f>
+        <v>16.003333333333334</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="1">
-        <v>19</v>
-      </c>
-      <c r="F93" s="1">
-        <v>15.333</v>
-      </c>
-      <c r="G93" s="10">
-        <f t="shared" si="8"/>
-        <v>17.166499999999999</v>
-      </c>
-      <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1">
-        <v>5.6239999999999997</v>
-      </c>
-      <c r="J93" s="1">
-        <v>68.355999999999995</v>
-      </c>
-      <c r="K93" s="1">
-        <v>0</v>
-      </c>
-      <c r="L93" s="1">
-        <v>255</v>
-      </c>
-      <c r="O93" s="1">
-        <v>8.3290000000000006</v>
-      </c>
-      <c r="P93" s="1">
-        <v>942</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>1932</v>
-      </c>
-      <c r="R93" s="1">
-        <v>2.6680000000000001</v>
-      </c>
-      <c r="S93" s="1">
-        <v>1.37</v>
-      </c>
       <c r="T93" s="8"/>
     </row>
     <row r="94" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>123</v>
+      <c r="A94" s="16">
+        <v>45937</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="1">
+        <v>17.666</v>
+      </c>
+      <c r="E94" s="1">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="F94" s="1">
+        <v>17.451000000000001</v>
+      </c>
+      <c r="G94" s="10">
+        <f>AVERAGE(E94,F94)</f>
+        <v>17.777000000000001</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E94" s="1">
-        <v>17.085999999999999</v>
-      </c>
-      <c r="F94" s="1">
-        <v>15.371</v>
-      </c>
-      <c r="G94" s="10">
-        <f t="shared" si="8"/>
-        <v>16.2285</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1">
-        <v>3.4470000000000001</v>
-      </c>
-      <c r="J94" s="1">
-        <v>69.650000000000006</v>
-      </c>
-      <c r="K94" s="1">
-        <v>10</v>
-      </c>
-      <c r="L94" s="1">
-        <v>121</v>
-      </c>
-      <c r="O94" s="1">
-        <v>4.5469999999999997</v>
-      </c>
-      <c r="P94" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>1735</v>
-      </c>
-      <c r="R94" s="1">
-        <v>170.04900000000001</v>
-      </c>
-      <c r="S94" s="1">
-        <v>1.9730000000000001</v>
       </c>
       <c r="T94" s="8"/>
     </row>
     <row r="95" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="1">
         <v>14.872</v>
@@ -4924,7 +4955,7 @@
         <v>14.98</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G95:G98" si="6">AVERAGE(E95,F95)</f>
         <v>14.551</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -4934,13 +4965,13 @@
     </row>
     <row r="96" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D96" s="1">
         <v>13.314</v>
@@ -4952,57 +4983,161 @@
         <v>13.664</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13.868500000000001</v>
       </c>
       <c r="T96" s="8"/>
     </row>
-    <row r="97" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="1">
+        <v>14.308</v>
+      </c>
+      <c r="F97" s="1">
+        <v>16.251999999999999</v>
+      </c>
+      <c r="G97" s="10">
+        <f t="shared" si="6"/>
+        <v>15.28</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0.626</v>
+      </c>
+      <c r="J97">
+        <v>74.977000000000004</v>
+      </c>
+      <c r="K97">
+        <v>12</v>
+      </c>
+      <c r="L97">
+        <v>110</v>
+      </c>
+      <c r="O97">
+        <v>3.0139999999999998</v>
+      </c>
+      <c r="P97">
+        <v>2405</v>
+      </c>
+      <c r="Q97">
+        <v>1843</v>
+      </c>
+      <c r="R97">
+        <v>174.541</v>
+      </c>
+      <c r="S97">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="T97" s="8"/>
     </row>
-    <row r="98" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13.205</v>
+      </c>
+      <c r="E98" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="F98" s="1">
+        <v>15.397</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="6"/>
+        <v>14.598500000000001</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="J98">
+        <v>56.527999999999999</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>94</v>
+      </c>
+      <c r="O98">
+        <v>6.9779999999999998</v>
+      </c>
+      <c r="P98">
+        <v>1896</v>
+      </c>
+      <c r="Q98">
+        <v>1845</v>
+      </c>
+      <c r="R98">
+        <v>19.555</v>
+      </c>
+      <c r="S98">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="T98" s="8"/>
     </row>
-    <row r="99" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T99" s="8"/>
     </row>
-    <row r="100" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T100" s="8"/>
     </row>
-    <row r="101" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T101" s="8"/>
     </row>
-    <row r="102" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T102" s="8"/>
     </row>
-    <row r="103" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T103" s="8"/>
     </row>
-    <row r="104" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T104" s="8"/>
     </row>
-    <row r="105" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T105" s="8"/>
     </row>
-    <row r="106" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T106" s="8"/>
     </row>
-    <row r="107" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T107" s="8"/>
     </row>
-    <row r="108" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T108" s="8"/>
     </row>
-    <row r="109" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T109" s="8"/>
     </row>
-    <row r="110" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T110" s="8"/>
     </row>
-    <row r="111" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T111" s="8"/>
     </row>
-    <row r="112" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T112" s="8"/>
     </row>
     <row r="113" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
@@ -7667,6 +7802,9 @@
       <c r="T999" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A32:T94">
+    <sortCondition ref="C32:C94" customList="t0_1A,t0_2A"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
